--- a/StyleOfDelivery/BCIO_Style.xlsx
+++ b/StyleOfDelivery/BCIO_Style.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/HBCP/ontologies/StyleOfDelivery/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90F923DA-81CE-464E-A06D-6D47636CD5C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C2A6F6-C155-E149-A740-2665D7F65295}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="25600" windowHeight="14740" xr2:uid="{BE4A7E0B-23FD-4CB1-9C06-787CF800FEE2}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14740" xr2:uid="{BE4A7E0B-23FD-4CB1-9C06-787CF800FEE2}"/>
   </bookViews>
   <sheets>
     <sheet name="11Feb2022" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'11Feb2022'!$A$1:$L$137</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'11Feb2022'!$A$1:$M$137</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -26,11 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,26 +34,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="377">
-  <si>
-    <t>BCIO_ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="382">
   <si>
     <t>Label</t>
   </si>
   <si>
-    <t>Parent class/BFO class</t>
-  </si>
-  <si>
     <t>Definition</t>
   </si>
   <si>
-    <t>informal definition</t>
-  </si>
-  <si>
-    <t>logical definition</t>
-  </si>
-  <si>
     <t>Elaboration</t>
   </si>
   <si>
@@ -65,9 +49,6 @@
   </si>
   <si>
     <t>Curator note</t>
-  </si>
-  <si>
-    <t>examples</t>
   </si>
   <si>
     <t>Cross-reference</t>
@@ -1187,12 +1168,42 @@
   <si>
     <t>easily comprehended communication style</t>
   </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>Informal definition</t>
+  </si>
+  <si>
+    <t>Logical definition</t>
+  </si>
+  <si>
+    <t>Examples</t>
+  </si>
+  <si>
+    <t>Curation status</t>
+  </si>
+  <si>
+    <t>Curator</t>
+  </si>
+  <si>
+    <t>To be reviewed by</t>
+  </si>
+  <si>
+    <t>Reviewer query</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1269,6 +1280,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1412,7 +1428,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1525,6 +1541,22 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1851,13 +1883,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA7CBDB-8365-4ACE-8B08-70CE9191BD55}">
-  <dimension ref="A1:V247"/>
+  <dimension ref="A1:X247"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C88" sqref="C88"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.6640625" defaultRowHeight="16"/>
@@ -1870,83 +1902,95 @@
     <col min="6" max="6" width="21" style="5" customWidth="1"/>
     <col min="7" max="7" width="29.5" style="5" customWidth="1"/>
     <col min="8" max="8" width="27.6640625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="37.1640625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="29.5" style="5" customWidth="1"/>
-    <col min="11" max="11" width="25.83203125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="24.6640625" style="33"/>
-    <col min="13" max="22" width="24.6640625" style="21"/>
-    <col min="23" max="16384" width="24.6640625" style="26"/>
+    <col min="9" max="10" width="37.1640625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="29.5" style="5" customWidth="1"/>
+    <col min="12" max="12" width="25.83203125" style="5" customWidth="1"/>
+    <col min="13" max="14" width="24.6640625" style="33"/>
+    <col min="15" max="24" width="24.6640625" style="21"/>
+    <col min="25" max="16384" width="24.6640625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="18" customFormat="1" ht="35" thickBot="1">
+    <row r="1" spans="1:24" s="18" customFormat="1" ht="35" thickBot="1">
       <c r="A1" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="G1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="H1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="I1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="J1" s="35" t="s">
+        <v>381</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="L1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="M1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
+      <c r="N1" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="O1" s="43" t="s">
+        <v>377</v>
+      </c>
+      <c r="P1" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q1" s="43" t="s">
+        <v>380</v>
+      </c>
       <c r="R1" s="17"/>
       <c r="S1" s="17"/>
       <c r="T1" s="17"/>
       <c r="U1" s="17"/>
       <c r="V1" s="17"/>
-    </row>
-    <row r="2" spans="1:22" s="20" customFormat="1" ht="17">
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+    </row>
+    <row r="2" spans="1:24" s="20" customFormat="1" ht="17">
       <c r="A2" s="3"/>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="6"/>
+      <c r="J2" s="1"/>
       <c r="K2" s="6"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="39"/>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
       <c r="Q2" s="19"/>
@@ -1955,30 +1999,32 @@
       <c r="T2" s="19"/>
       <c r="U2" s="19"/>
       <c r="V2" s="19"/>
-    </row>
-    <row r="3" spans="1:22" s="20" customFormat="1" ht="17">
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+    </row>
+    <row r="3" spans="1:24" s="20" customFormat="1" ht="17">
       <c r="A3" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="6"/>
+      <c r="J3" s="5"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="40"/>
       <c r="O3" s="19"/>
       <c r="P3" s="19"/>
       <c r="Q3" s="19"/>
@@ -1987,19 +2033,21 @@
       <c r="T3" s="19"/>
       <c r="U3" s="19"/>
       <c r="V3" s="19"/>
-    </row>
-    <row r="4" spans="1:22" s="22" customFormat="1" ht="34">
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+    </row>
+    <row r="4" spans="1:24" s="22" customFormat="1" ht="34">
       <c r="A4" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -2009,8 +2057,8 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="39"/>
       <c r="O4" s="21"/>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
@@ -2019,32 +2067,34 @@
       <c r="T4" s="21"/>
       <c r="U4" s="21"/>
       <c r="V4" s="21"/>
-    </row>
-    <row r="5" spans="1:22" s="22" customFormat="1" ht="34">
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+    </row>
+    <row r="5" spans="1:24" s="22" customFormat="1" ht="34">
       <c r="A5" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="39"/>
       <c r="O5" s="21"/>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
@@ -2053,17 +2103,19 @@
       <c r="T5" s="21"/>
       <c r="U5" s="21"/>
       <c r="V5" s="21"/>
-    </row>
-    <row r="6" spans="1:22" s="22" customFormat="1" ht="34">
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+    </row>
+    <row r="6" spans="1:24" s="22" customFormat="1" ht="34">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -2073,8 +2125,8 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="39"/>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
@@ -2083,27 +2135,28 @@
       <c r="T6" s="21"/>
       <c r="U6" s="21"/>
       <c r="V6" s="21"/>
-    </row>
-    <row r="7" spans="1:22" s="22" customFormat="1" ht="34">
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+    </row>
+    <row r="7" spans="1:24" s="22" customFormat="1" ht="34">
       <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="39"/>
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
@@ -2112,17 +2165,19 @@
       <c r="T7" s="21"/>
       <c r="U7" s="21"/>
       <c r="V7" s="21"/>
-    </row>
-    <row r="8" spans="1:22" s="22" customFormat="1" ht="34">
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+    </row>
+    <row r="8" spans="1:24" s="22" customFormat="1" ht="34">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -2132,8 +2187,8 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="39"/>
       <c r="O8" s="21"/>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
@@ -2142,17 +2197,19 @@
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
       <c r="V8" s="21"/>
-    </row>
-    <row r="9" spans="1:22" s="22" customFormat="1" ht="51">
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+    </row>
+    <row r="9" spans="1:24" s="22" customFormat="1" ht="51">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -2162,8 +2219,8 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="39"/>
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
@@ -2172,32 +2229,34 @@
       <c r="T9" s="21"/>
       <c r="U9" s="21"/>
       <c r="V9" s="21"/>
-    </row>
-    <row r="10" spans="1:22" s="22" customFormat="1" ht="85">
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+    </row>
+    <row r="10" spans="1:24" s="22" customFormat="1" ht="85">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="39"/>
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
@@ -2206,36 +2265,38 @@
       <c r="T10" s="21"/>
       <c r="U10" s="21"/>
       <c r="V10" s="21"/>
-    </row>
-    <row r="11" spans="1:22" s="22" customFormat="1" ht="85">
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+    </row>
+    <row r="11" spans="1:24" s="22" customFormat="1" ht="85">
       <c r="A11" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="39"/>
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
@@ -2244,32 +2305,34 @@
       <c r="T11" s="21"/>
       <c r="U11" s="21"/>
       <c r="V11" s="21"/>
-    </row>
-    <row r="12" spans="1:22" s="22" customFormat="1" ht="51">
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+    </row>
+    <row r="12" spans="1:24" s="22" customFormat="1" ht="51">
       <c r="A12" s="5"/>
       <c r="B12" s="6" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" s="6"/>
+      <c r="N12" s="40"/>
       <c r="O12" s="21"/>
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
@@ -2278,30 +2341,32 @@
       <c r="T12" s="21"/>
       <c r="U12" s="21"/>
       <c r="V12" s="21"/>
-    </row>
-    <row r="13" spans="1:22" s="22" customFormat="1" ht="34">
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+    </row>
+    <row r="13" spans="1:24" s="22" customFormat="1" ht="34">
       <c r="A13" s="5"/>
       <c r="B13" s="6" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="39"/>
       <c r="O13" s="21"/>
       <c r="P13" s="21"/>
       <c r="Q13" s="21"/>
@@ -2310,30 +2375,32 @@
       <c r="T13" s="21"/>
       <c r="U13" s="21"/>
       <c r="V13" s="21"/>
-    </row>
-    <row r="14" spans="1:22" s="22" customFormat="1" ht="34">
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+    </row>
+    <row r="14" spans="1:24" s="22" customFormat="1" ht="34">
       <c r="A14" s="5"/>
       <c r="B14" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="39"/>
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
@@ -2342,17 +2409,19 @@
       <c r="T14" s="21"/>
       <c r="U14" s="21"/>
       <c r="V14" s="21"/>
-    </row>
-    <row r="15" spans="1:22" s="22" customFormat="1" ht="102">
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+    </row>
+    <row r="15" spans="1:24" s="22" customFormat="1" ht="102">
       <c r="A15" s="5"/>
       <c r="B15" s="6" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -2360,12 +2429,12 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="39"/>
       <c r="O15" s="21"/>
       <c r="P15" s="21"/>
       <c r="Q15" s="21"/>
@@ -2374,32 +2443,34 @@
       <c r="T15" s="21"/>
       <c r="U15" s="21"/>
       <c r="V15" s="21"/>
-    </row>
-    <row r="16" spans="1:22" s="22" customFormat="1" ht="102">
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+    </row>
+    <row r="16" spans="1:24" s="22" customFormat="1" ht="102">
       <c r="A16" s="5"/>
       <c r="B16" s="6" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="K16" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="J16" s="39"/>
+      <c r="K16" s="24" t="s">
+        <v>30</v>
+      </c>
       <c r="L16" s="5"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="39"/>
       <c r="O16" s="21"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
@@ -2408,30 +2479,32 @@
       <c r="T16" s="21"/>
       <c r="U16" s="21"/>
       <c r="V16" s="21"/>
-    </row>
-    <row r="17" spans="1:22" s="22" customFormat="1" ht="51">
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+    </row>
+    <row r="17" spans="1:24" s="22" customFormat="1" ht="51">
       <c r="A17" s="13"/>
       <c r="B17" s="6" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="5"/>
+      <c r="J17" s="6"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="39"/>
       <c r="O17" s="21"/>
       <c r="P17" s="21"/>
       <c r="Q17" s="21"/>
@@ -2440,17 +2513,19 @@
       <c r="T17" s="21"/>
       <c r="U17" s="21"/>
       <c r="V17" s="21"/>
-    </row>
-    <row r="18" spans="1:22" s="22" customFormat="1" ht="34">
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+    </row>
+    <row r="18" spans="1:24" s="22" customFormat="1" ht="34">
       <c r="A18" s="13"/>
       <c r="B18" s="6" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -2460,8 +2535,8 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="39"/>
       <c r="O18" s="21"/>
       <c r="P18" s="21"/>
       <c r="Q18" s="21"/>
@@ -2470,17 +2545,19 @@
       <c r="T18" s="21"/>
       <c r="U18" s="21"/>
       <c r="V18" s="21"/>
-    </row>
-    <row r="19" spans="1:22" s="22" customFormat="1" ht="34">
+      <c r="W18" s="21"/>
+      <c r="X18" s="21"/>
+    </row>
+    <row r="19" spans="1:24" s="22" customFormat="1" ht="34">
       <c r="A19" s="13"/>
       <c r="B19" s="6" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -2490,8 +2567,8 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="39"/>
       <c r="O19" s="21"/>
       <c r="P19" s="21"/>
       <c r="Q19" s="21"/>
@@ -2500,17 +2577,19 @@
       <c r="T19" s="21"/>
       <c r="U19" s="21"/>
       <c r="V19" s="21"/>
-    </row>
-    <row r="20" spans="1:22" s="22" customFormat="1" ht="34">
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+    </row>
+    <row r="20" spans="1:24" s="22" customFormat="1" ht="34">
       <c r="A20" s="13"/>
       <c r="B20" s="6" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -2520,8 +2599,8 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="39"/>
       <c r="O20" s="21"/>
       <c r="P20" s="21"/>
       <c r="Q20" s="21"/>
@@ -2530,17 +2609,19 @@
       <c r="T20" s="21"/>
       <c r="U20" s="21"/>
       <c r="V20" s="21"/>
-    </row>
-    <row r="21" spans="1:22" s="22" customFormat="1" ht="34">
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+    </row>
+    <row r="21" spans="1:24" s="22" customFormat="1" ht="34">
       <c r="A21" s="13"/>
       <c r="B21" s="6" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -2550,8 +2631,8 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="39"/>
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
@@ -2560,28 +2641,30 @@
       <c r="T21" s="21"/>
       <c r="U21" s="21"/>
       <c r="V21" s="21"/>
-    </row>
-    <row r="22" spans="1:22" s="22" customFormat="1" ht="51">
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+    </row>
+    <row r="22" spans="1:24" s="22" customFormat="1" ht="51">
       <c r="A22" s="13"/>
       <c r="B22" s="6" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="5"/>
+      <c r="J22" s="6"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="39"/>
       <c r="O22" s="21"/>
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
@@ -2590,30 +2673,32 @@
       <c r="T22" s="21"/>
       <c r="U22" s="21"/>
       <c r="V22" s="21"/>
-    </row>
-    <row r="23" spans="1:22" s="22" customFormat="1" ht="34">
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+    </row>
+    <row r="23" spans="1:24" s="22" customFormat="1" ht="34">
       <c r="A23" s="5"/>
       <c r="B23" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="39"/>
       <c r="O23" s="21"/>
       <c r="P23" s="21"/>
       <c r="Q23" s="21"/>
@@ -2622,32 +2707,34 @@
       <c r="T23" s="21"/>
       <c r="U23" s="21"/>
       <c r="V23" s="21"/>
-    </row>
-    <row r="24" spans="1:22" s="22" customFormat="1" ht="51">
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+    </row>
+    <row r="24" spans="1:24" s="22" customFormat="1" ht="51">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="25"/>
       <c r="H24" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I24" s="5"/>
-      <c r="J24" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="L24" s="5"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="39"/>
       <c r="O24" s="21"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="21"/>
@@ -2656,17 +2743,19 @@
       <c r="T24" s="21"/>
       <c r="U24" s="21"/>
       <c r="V24" s="21"/>
-    </row>
-    <row r="25" spans="1:22" s="22" customFormat="1" ht="34">
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
+    </row>
+    <row r="25" spans="1:24" s="22" customFormat="1" ht="34">
       <c r="A25" s="5"/>
       <c r="B25" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -2676,8 +2765,8 @@
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="39"/>
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
@@ -2686,30 +2775,32 @@
       <c r="T25" s="21"/>
       <c r="U25" s="21"/>
       <c r="V25" s="21"/>
-    </row>
-    <row r="26" spans="1:22" s="22" customFormat="1" ht="51">
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+    </row>
+    <row r="26" spans="1:24" s="22" customFormat="1" ht="51">
       <c r="A26" s="5"/>
       <c r="B26" s="6" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="6"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L26" s="5"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M26" s="5"/>
+      <c r="N26" s="39"/>
       <c r="O26" s="21"/>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
@@ -2718,30 +2809,32 @@
       <c r="T26" s="21"/>
       <c r="U26" s="21"/>
       <c r="V26" s="21"/>
-    </row>
-    <row r="27" spans="1:22" s="22" customFormat="1" ht="34">
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
+    </row>
+    <row r="27" spans="1:24" s="22" customFormat="1" ht="34">
       <c r="A27" s="5"/>
       <c r="B27" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="K27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="L27" s="5"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="39"/>
       <c r="O27" s="21"/>
       <c r="P27" s="21"/>
       <c r="Q27" s="21"/>
@@ -2750,30 +2843,32 @@
       <c r="T27" s="21"/>
       <c r="U27" s="21"/>
       <c r="V27" s="21"/>
-    </row>
-    <row r="28" spans="1:22" s="22" customFormat="1" ht="34">
+      <c r="W27" s="21"/>
+      <c r="X27" s="21"/>
+    </row>
+    <row r="28" spans="1:24" s="22" customFormat="1" ht="34">
       <c r="A28" s="5"/>
       <c r="B28" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I28" s="6"/>
-      <c r="J28" s="5"/>
+      <c r="J28" s="6"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="39"/>
       <c r="O28" s="21"/>
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
@@ -2782,30 +2877,32 @@
       <c r="T28" s="21"/>
       <c r="U28" s="21"/>
       <c r="V28" s="21"/>
-    </row>
-    <row r="29" spans="1:22" s="22" customFormat="1" ht="51">
+      <c r="W28" s="21"/>
+      <c r="X28" s="21"/>
+    </row>
+    <row r="29" spans="1:24" s="22" customFormat="1" ht="51">
       <c r="A29" s="5"/>
       <c r="B29" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="6"/>
-      <c r="J29" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="K29" s="5"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="5" t="s">
+        <v>264</v>
+      </c>
       <c r="L29" s="5"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="39"/>
       <c r="O29" s="21"/>
       <c r="P29" s="21"/>
       <c r="Q29" s="21"/>
@@ -2814,17 +2911,19 @@
       <c r="T29" s="21"/>
       <c r="U29" s="21"/>
       <c r="V29" s="21"/>
-    </row>
-    <row r="30" spans="1:22" s="22" customFormat="1" ht="34">
+      <c r="W29" s="21"/>
+      <c r="X29" s="21"/>
+    </row>
+    <row r="30" spans="1:24" s="22" customFormat="1" ht="34">
       <c r="A30" s="5"/>
       <c r="B30" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -2834,8 +2933,8 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="39"/>
       <c r="O30" s="21"/>
       <c r="P30" s="21"/>
       <c r="Q30" s="21"/>
@@ -2844,17 +2943,19 @@
       <c r="T30" s="21"/>
       <c r="U30" s="21"/>
       <c r="V30" s="21"/>
-    </row>
-    <row r="31" spans="1:22" s="22" customFormat="1" ht="34">
+      <c r="W30" s="21"/>
+      <c r="X30" s="21"/>
+    </row>
+    <row r="31" spans="1:24" s="22" customFormat="1" ht="34">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -2864,8 +2965,8 @@
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="39"/>
       <c r="O31" s="21"/>
       <c r="P31" s="21"/>
       <c r="Q31" s="21"/>
@@ -2874,17 +2975,19 @@
       <c r="T31" s="21"/>
       <c r="U31" s="21"/>
       <c r="V31" s="21"/>
-    </row>
-    <row r="32" spans="1:22" s="22" customFormat="1" ht="51">
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
+    </row>
+    <row r="32" spans="1:24" s="22" customFormat="1" ht="51">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -2894,8 +2997,8 @@
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="39"/>
       <c r="O32" s="21"/>
       <c r="P32" s="21"/>
       <c r="Q32" s="21"/>
@@ -2904,17 +3007,19 @@
       <c r="T32" s="21"/>
       <c r="U32" s="21"/>
       <c r="V32" s="21"/>
-    </row>
-    <row r="33" spans="1:22" s="22" customFormat="1" ht="51">
+      <c r="W32" s="21"/>
+      <c r="X32" s="21"/>
+    </row>
+    <row r="33" spans="1:24" s="22" customFormat="1" ht="51">
       <c r="A33" s="5"/>
       <c r="B33" s="6" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -2924,8 +3029,8 @@
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="39"/>
       <c r="O33" s="21"/>
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
@@ -2934,34 +3039,36 @@
       <c r="T33" s="21"/>
       <c r="U33" s="21"/>
       <c r="V33" s="21"/>
-    </row>
-    <row r="34" spans="1:22" s="22" customFormat="1" ht="85">
+      <c r="W33" s="21"/>
+      <c r="X33" s="21"/>
+    </row>
+    <row r="34" spans="1:24" s="22" customFormat="1" ht="85">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="J34" s="5"/>
-      <c r="K34" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L34" s="5"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M34" s="5"/>
+      <c r="N34" s="39"/>
       <c r="O34" s="21"/>
       <c r="P34" s="21"/>
       <c r="Q34" s="21"/>
@@ -2970,30 +3077,32 @@
       <c r="T34" s="21"/>
       <c r="U34" s="21"/>
       <c r="V34" s="21"/>
-    </row>
-    <row r="35" spans="1:22" s="22" customFormat="1" ht="51">
+      <c r="W34" s="21"/>
+      <c r="X34" s="21"/>
+    </row>
+    <row r="35" spans="1:24" s="22" customFormat="1" ht="51">
       <c r="A35" s="5"/>
       <c r="B35" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I35" s="6"/>
-      <c r="J35" s="5"/>
+      <c r="J35" s="6"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="39"/>
       <c r="O35" s="21"/>
       <c r="P35" s="21"/>
       <c r="Q35" s="21"/>
@@ -3002,28 +3111,30 @@
       <c r="T35" s="21"/>
       <c r="U35" s="21"/>
       <c r="V35" s="21"/>
-    </row>
-    <row r="36" spans="1:22" s="22" customFormat="1" ht="34">
+      <c r="W35" s="21"/>
+      <c r="X35" s="21"/>
+    </row>
+    <row r="36" spans="1:24" s="22" customFormat="1" ht="34">
       <c r="A36" s="5"/>
       <c r="B36" s="6" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="8"/>
       <c r="I36" s="6"/>
-      <c r="J36" s="5"/>
+      <c r="J36" s="6"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="39"/>
       <c r="O36" s="21"/>
       <c r="P36" s="21"/>
       <c r="Q36" s="21"/>
@@ -3032,29 +3143,31 @@
       <c r="T36" s="21"/>
       <c r="U36" s="21"/>
       <c r="V36" s="21"/>
-    </row>
-    <row r="37" spans="1:22" s="22" customFormat="1" ht="34">
+      <c r="W36" s="21"/>
+      <c r="X36" s="21"/>
+    </row>
+    <row r="37" spans="1:24" s="22" customFormat="1" ht="34">
       <c r="A37" s="5"/>
       <c r="B37" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="I37" s="5"/>
-      <c r="J37" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="L37" s="5"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="39"/>
       <c r="O37" s="21"/>
       <c r="P37" s="21"/>
       <c r="Q37" s="21"/>
@@ -3063,29 +3176,31 @@
       <c r="T37" s="21"/>
       <c r="U37" s="21"/>
       <c r="V37" s="21"/>
-    </row>
-    <row r="38" spans="1:22" s="22" customFormat="1" ht="34">
+      <c r="W37" s="21"/>
+      <c r="X37" s="21"/>
+    </row>
+    <row r="38" spans="1:24" s="22" customFormat="1" ht="34">
       <c r="A38" s="5"/>
       <c r="B38" s="6" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="I38" s="6"/>
-      <c r="J38" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K38" s="5"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="5" t="s">
+        <v>265</v>
+      </c>
       <c r="L38" s="5"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="39"/>
       <c r="O38" s="21"/>
       <c r="P38" s="21"/>
       <c r="Q38" s="21"/>
@@ -3094,27 +3209,29 @@
       <c r="T38" s="21"/>
       <c r="U38" s="21"/>
       <c r="V38" s="21"/>
-    </row>
-    <row r="39" spans="1:22" s="22" customFormat="1" ht="51">
+      <c r="W38" s="21"/>
+      <c r="X38" s="21"/>
+    </row>
+    <row r="39" spans="1:24" s="22" customFormat="1" ht="51">
       <c r="A39" s="5"/>
       <c r="B39" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="I39" s="6"/>
-      <c r="J39" s="5"/>
+      <c r="J39" s="6"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="39"/>
       <c r="O39" s="21"/>
       <c r="P39" s="21"/>
       <c r="Q39" s="21"/>
@@ -3123,27 +3240,29 @@
       <c r="T39" s="21"/>
       <c r="U39" s="21"/>
       <c r="V39" s="21"/>
-    </row>
-    <row r="40" spans="1:22" s="22" customFormat="1" ht="34">
+      <c r="W39" s="21"/>
+      <c r="X39" s="21"/>
+    </row>
+    <row r="40" spans="1:24" s="22" customFormat="1" ht="34">
       <c r="A40" s="5"/>
       <c r="B40" s="6" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="I40" s="6"/>
-      <c r="J40" s="5"/>
+      <c r="J40" s="6"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="39"/>
       <c r="O40" s="21"/>
       <c r="P40" s="21"/>
       <c r="Q40" s="21"/>
@@ -3152,30 +3271,32 @@
       <c r="T40" s="21"/>
       <c r="U40" s="21"/>
       <c r="V40" s="21"/>
-    </row>
-    <row r="41" spans="1:22" s="22" customFormat="1" ht="34">
+      <c r="W40" s="21"/>
+      <c r="X40" s="21"/>
+    </row>
+    <row r="41" spans="1:24" s="22" customFormat="1" ht="34">
       <c r="A41" s="5"/>
       <c r="B41" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I41" s="6"/>
-      <c r="J41" s="5"/>
+      <c r="J41" s="6"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="39"/>
       <c r="O41" s="21"/>
       <c r="P41" s="21"/>
       <c r="Q41" s="21"/>
@@ -3184,29 +3305,30 @@
       <c r="T41" s="21"/>
       <c r="U41" s="21"/>
       <c r="V41" s="21"/>
-    </row>
-    <row r="42" spans="1:22" s="22" customFormat="1" ht="68">
+      <c r="W41" s="21"/>
+      <c r="X41" s="21"/>
+    </row>
+    <row r="42" spans="1:24" s="22" customFormat="1" ht="68">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="J42" s="5"/>
+        <v>291</v>
+      </c>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="39"/>
       <c r="O42" s="21"/>
       <c r="P42" s="21"/>
       <c r="Q42" s="21"/>
@@ -3215,28 +3337,30 @@
       <c r="T42" s="21"/>
       <c r="U42" s="21"/>
       <c r="V42" s="21"/>
-    </row>
-    <row r="43" spans="1:22" s="22" customFormat="1" ht="34">
+      <c r="W42" s="21"/>
+      <c r="X42" s="21"/>
+    </row>
+    <row r="43" spans="1:24" s="22" customFormat="1" ht="34">
       <c r="A43" s="5"/>
       <c r="B43" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="6"/>
-      <c r="J43" s="5"/>
+      <c r="J43" s="6"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="39"/>
       <c r="O43" s="21"/>
       <c r="P43" s="21"/>
       <c r="Q43" s="21"/>
@@ -3245,30 +3369,32 @@
       <c r="T43" s="21"/>
       <c r="U43" s="21"/>
       <c r="V43" s="21"/>
-    </row>
-    <row r="44" spans="1:22" s="22" customFormat="1" ht="68">
+      <c r="W43" s="21"/>
+      <c r="X43" s="21"/>
+    </row>
+    <row r="44" spans="1:24" s="22" customFormat="1" ht="68">
       <c r="A44" s="5"/>
       <c r="B44" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I44" s="6"/>
-      <c r="J44" s="5"/>
+      <c r="J44" s="6"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="21"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="39"/>
       <c r="O44" s="21"/>
       <c r="P44" s="21"/>
       <c r="Q44" s="21"/>
@@ -3277,30 +3403,32 @@
       <c r="T44" s="21"/>
       <c r="U44" s="21"/>
       <c r="V44" s="21"/>
-    </row>
-    <row r="45" spans="1:22" s="22" customFormat="1" ht="51">
+      <c r="W44" s="21"/>
+      <c r="X44" s="21"/>
+    </row>
+    <row r="45" spans="1:24" s="22" customFormat="1" ht="51">
       <c r="A45" s="5"/>
       <c r="B45" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="21"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="39"/>
       <c r="O45" s="21"/>
       <c r="P45" s="21"/>
       <c r="Q45" s="21"/>
@@ -3309,28 +3437,30 @@
       <c r="T45" s="21"/>
       <c r="U45" s="21"/>
       <c r="V45" s="21"/>
-    </row>
-    <row r="46" spans="1:22" s="22" customFormat="1" ht="51">
+      <c r="W45" s="21"/>
+      <c r="X45" s="21"/>
+    </row>
+    <row r="46" spans="1:24" s="22" customFormat="1" ht="51">
       <c r="A46" s="5"/>
       <c r="B46" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="6"/>
-      <c r="J46" s="5"/>
+      <c r="J46" s="6"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="21"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="39"/>
       <c r="O46" s="21"/>
       <c r="P46" s="21"/>
       <c r="Q46" s="21"/>
@@ -3339,28 +3469,30 @@
       <c r="T46" s="21"/>
       <c r="U46" s="21"/>
       <c r="V46" s="21"/>
-    </row>
-    <row r="47" spans="1:22" s="22" customFormat="1" ht="34">
+      <c r="W46" s="21"/>
+      <c r="X46" s="21"/>
+    </row>
+    <row r="47" spans="1:24" s="22" customFormat="1" ht="34">
       <c r="A47" s="5"/>
       <c r="B47" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="26"/>
-      <c r="J47" s="5"/>
+      <c r="J47" s="26"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="21"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="39"/>
       <c r="O47" s="21"/>
       <c r="P47" s="21"/>
       <c r="Q47" s="21"/>
@@ -3369,30 +3501,32 @@
       <c r="T47" s="21"/>
       <c r="U47" s="21"/>
       <c r="V47" s="21"/>
-    </row>
-    <row r="48" spans="1:22" s="22" customFormat="1" ht="34">
+      <c r="W47" s="21"/>
+      <c r="X47" s="21"/>
+    </row>
+    <row r="48" spans="1:24" s="22" customFormat="1" ht="34">
       <c r="A48" s="5"/>
       <c r="B48" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I48" s="6"/>
-      <c r="J48" s="5"/>
+      <c r="J48" s="6"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
-      <c r="M48" s="21"/>
-      <c r="N48" s="21"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="39"/>
       <c r="O48" s="21"/>
       <c r="P48" s="21"/>
       <c r="Q48" s="21"/>
@@ -3401,30 +3535,32 @@
       <c r="T48" s="21"/>
       <c r="U48" s="21"/>
       <c r="V48" s="21"/>
-    </row>
-    <row r="49" spans="1:22" s="22" customFormat="1" ht="34">
+      <c r="W48" s="21"/>
+      <c r="X48" s="21"/>
+    </row>
+    <row r="49" spans="1:24" s="22" customFormat="1" ht="34">
       <c r="A49" s="5"/>
       <c r="B49" s="6" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="21"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="39"/>
       <c r="O49" s="21"/>
       <c r="P49" s="21"/>
       <c r="Q49" s="21"/>
@@ -3433,28 +3569,30 @@
       <c r="T49" s="21"/>
       <c r="U49" s="21"/>
       <c r="V49" s="21"/>
-    </row>
-    <row r="50" spans="1:22" s="22" customFormat="1" ht="51">
+      <c r="W49" s="21"/>
+      <c r="X49" s="21"/>
+    </row>
+    <row r="50" spans="1:24" s="22" customFormat="1" ht="51">
       <c r="A50" s="5"/>
       <c r="B50" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>275</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>280</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="6"/>
-      <c r="J50" s="5"/>
+      <c r="J50" s="6"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="21"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="39"/>
       <c r="O50" s="21"/>
       <c r="P50" s="21"/>
       <c r="Q50" s="21"/>
@@ -3463,28 +3601,30 @@
       <c r="T50" s="21"/>
       <c r="U50" s="21"/>
       <c r="V50" s="21"/>
-    </row>
-    <row r="51" spans="1:22" s="22" customFormat="1" ht="51">
+      <c r="W50" s="21"/>
+      <c r="X50" s="21"/>
+    </row>
+    <row r="51" spans="1:24" s="22" customFormat="1" ht="51">
       <c r="A51" s="5"/>
       <c r="B51" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>276</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>281</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="6"/>
-      <c r="J51" s="5"/>
+      <c r="J51" s="6"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="21"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="39"/>
       <c r="O51" s="21"/>
       <c r="P51" s="21"/>
       <c r="Q51" s="21"/>
@@ -3493,28 +3633,30 @@
       <c r="T51" s="21"/>
       <c r="U51" s="21"/>
       <c r="V51" s="21"/>
-    </row>
-    <row r="52" spans="1:22" s="22" customFormat="1" ht="51">
+      <c r="W51" s="21"/>
+      <c r="X51" s="21"/>
+    </row>
+    <row r="52" spans="1:24" s="22" customFormat="1" ht="51">
       <c r="A52" s="5"/>
       <c r="B52" s="6" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="6"/>
-      <c r="J52" s="5"/>
+      <c r="J52" s="6"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="21"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="39"/>
       <c r="O52" s="21"/>
       <c r="P52" s="21"/>
       <c r="Q52" s="21"/>
@@ -3523,30 +3665,32 @@
       <c r="T52" s="21"/>
       <c r="U52" s="21"/>
       <c r="V52" s="21"/>
-    </row>
-    <row r="53" spans="1:22" s="22" customFormat="1" ht="34">
+      <c r="W52" s="21"/>
+      <c r="X52" s="21"/>
+    </row>
+    <row r="53" spans="1:24" s="22" customFormat="1" ht="34">
       <c r="A53" s="5"/>
       <c r="B53" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I53" s="6"/>
-      <c r="J53" s="5"/>
+      <c r="J53" s="6"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
-      <c r="M53" s="21"/>
-      <c r="N53" s="21"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="39"/>
       <c r="O53" s="21"/>
       <c r="P53" s="21"/>
       <c r="Q53" s="21"/>
@@ -3555,32 +3699,34 @@
       <c r="T53" s="21"/>
       <c r="U53" s="21"/>
       <c r="V53" s="21"/>
-    </row>
-    <row r="54" spans="1:22" s="22" customFormat="1" ht="68">
+      <c r="W53" s="21"/>
+      <c r="X53" s="21"/>
+    </row>
+    <row r="54" spans="1:24" s="22" customFormat="1" ht="68">
       <c r="A54" s="5"/>
       <c r="B54" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H54" s="5"/>
       <c r="I54" s="6"/>
-      <c r="J54" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="K54" s="5"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="L54" s="5"/>
-      <c r="M54" s="21"/>
-      <c r="N54" s="21"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="39"/>
       <c r="O54" s="21"/>
       <c r="P54" s="21"/>
       <c r="Q54" s="21"/>
@@ -3589,30 +3735,32 @@
       <c r="T54" s="21"/>
       <c r="U54" s="21"/>
       <c r="V54" s="21"/>
-    </row>
-    <row r="55" spans="1:22" s="22" customFormat="1" ht="51">
+      <c r="W54" s="21"/>
+      <c r="X54" s="21"/>
+    </row>
+    <row r="55" spans="1:24" s="22" customFormat="1" ht="51">
       <c r="A55" s="5"/>
       <c r="B55" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="21"/>
-      <c r="N55" s="21"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="39"/>
       <c r="O55" s="21"/>
       <c r="P55" s="21"/>
       <c r="Q55" s="21"/>
@@ -3621,17 +3769,19 @@
       <c r="T55" s="21"/>
       <c r="U55" s="21"/>
       <c r="V55" s="21"/>
-    </row>
-    <row r="56" spans="1:22" s="22" customFormat="1" ht="34">
+      <c r="W55" s="21"/>
+      <c r="X55" s="21"/>
+    </row>
+    <row r="56" spans="1:24" s="22" customFormat="1" ht="34">
       <c r="A56" s="5"/>
       <c r="B56" s="6" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
@@ -3639,10 +3789,10 @@
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
-      <c r="K56" s="26"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="21"/>
-      <c r="N56" s="21"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="39"/>
       <c r="O56" s="21"/>
       <c r="P56" s="21"/>
       <c r="Q56" s="21"/>
@@ -3651,28 +3801,30 @@
       <c r="T56" s="21"/>
       <c r="U56" s="21"/>
       <c r="V56" s="21"/>
-    </row>
-    <row r="57" spans="1:22" s="22" customFormat="1" ht="51">
+      <c r="W56" s="21"/>
+      <c r="X56" s="21"/>
+    </row>
+    <row r="57" spans="1:24" s="22" customFormat="1" ht="51">
       <c r="A57" s="5"/>
       <c r="B57" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="6"/>
-      <c r="J57" s="5"/>
+      <c r="J57" s="6"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
-      <c r="M57" s="21"/>
-      <c r="N57" s="21"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="39"/>
       <c r="O57" s="21"/>
       <c r="P57" s="21"/>
       <c r="Q57" s="21"/>
@@ -3681,28 +3833,30 @@
       <c r="T57" s="21"/>
       <c r="U57" s="21"/>
       <c r="V57" s="21"/>
-    </row>
-    <row r="58" spans="1:22" s="22" customFormat="1" ht="51">
+      <c r="W57" s="21"/>
+      <c r="X57" s="21"/>
+    </row>
+    <row r="58" spans="1:24" s="22" customFormat="1" ht="51">
       <c r="A58" s="5"/>
       <c r="B58" s="6" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="6"/>
-      <c r="J58" s="5"/>
+      <c r="J58" s="6"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
-      <c r="M58" s="21"/>
-      <c r="N58" s="21"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="39"/>
       <c r="O58" s="21"/>
       <c r="P58" s="21"/>
       <c r="Q58" s="21"/>
@@ -3711,28 +3865,30 @@
       <c r="T58" s="21"/>
       <c r="U58" s="21"/>
       <c r="V58" s="21"/>
-    </row>
-    <row r="59" spans="1:22" s="22" customFormat="1" ht="51">
+      <c r="W58" s="21"/>
+      <c r="X58" s="21"/>
+    </row>
+    <row r="59" spans="1:24" s="22" customFormat="1" ht="51">
       <c r="A59" s="5"/>
       <c r="B59" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="6"/>
-      <c r="J59" s="5"/>
+      <c r="J59" s="6"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
-      <c r="M59" s="21"/>
-      <c r="N59" s="21"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="39"/>
       <c r="O59" s="21"/>
       <c r="P59" s="21"/>
       <c r="Q59" s="21"/>
@@ -3741,30 +3897,32 @@
       <c r="T59" s="21"/>
       <c r="U59" s="21"/>
       <c r="V59" s="21"/>
-    </row>
-    <row r="60" spans="1:22" s="22" customFormat="1" ht="51">
+      <c r="W59" s="21"/>
+      <c r="X59" s="21"/>
+    </row>
+    <row r="60" spans="1:24" s="22" customFormat="1" ht="51">
       <c r="A60" s="5"/>
       <c r="B60" s="6" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="I60" s="6"/>
-      <c r="J60" s="5"/>
+      <c r="J60" s="6"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
-      <c r="M60" s="21"/>
-      <c r="N60" s="21"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="39"/>
       <c r="O60" s="21"/>
       <c r="P60" s="21"/>
       <c r="Q60" s="21"/>
@@ -3773,17 +3931,19 @@
       <c r="T60" s="21"/>
       <c r="U60" s="21"/>
       <c r="V60" s="21"/>
-    </row>
-    <row r="61" spans="1:22" s="22" customFormat="1" ht="51">
+      <c r="W60" s="21"/>
+      <c r="X60" s="21"/>
+    </row>
+    <row r="61" spans="1:24" s="22" customFormat="1" ht="51">
       <c r="A61" s="5"/>
       <c r="B61" s="6" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
@@ -3793,8 +3953,8 @@
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
-      <c r="M61" s="21"/>
-      <c r="N61" s="21"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="39"/>
       <c r="O61" s="21"/>
       <c r="P61" s="21"/>
       <c r="Q61" s="21"/>
@@ -3803,30 +3963,32 @@
       <c r="T61" s="21"/>
       <c r="U61" s="21"/>
       <c r="V61" s="21"/>
-    </row>
-    <row r="62" spans="1:22" s="22" customFormat="1" ht="68">
+      <c r="W61" s="21"/>
+      <c r="X61" s="21"/>
+    </row>
+    <row r="62" spans="1:24" s="22" customFormat="1" ht="68">
       <c r="A62" s="5"/>
       <c r="B62" s="6" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
-      <c r="M62" s="21"/>
-      <c r="N62" s="21"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="39"/>
       <c r="O62" s="21"/>
       <c r="P62" s="21"/>
       <c r="Q62" s="21"/>
@@ -3835,17 +3997,19 @@
       <c r="T62" s="21"/>
       <c r="U62" s="21"/>
       <c r="V62" s="21"/>
-    </row>
-    <row r="63" spans="1:22" s="22" customFormat="1" ht="34">
+      <c r="W62" s="21"/>
+      <c r="X62" s="21"/>
+    </row>
+    <row r="63" spans="1:24" s="22" customFormat="1" ht="34">
       <c r="A63" s="5"/>
       <c r="B63" s="6" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
@@ -3855,8 +4019,8 @@
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
-      <c r="M63" s="21"/>
-      <c r="N63" s="21"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="39"/>
       <c r="O63" s="21"/>
       <c r="P63" s="21"/>
       <c r="Q63" s="21"/>
@@ -3865,28 +4029,30 @@
       <c r="T63" s="21"/>
       <c r="U63" s="21"/>
       <c r="V63" s="21"/>
-    </row>
-    <row r="64" spans="1:22" s="22" customFormat="1" ht="34">
+      <c r="W63" s="21"/>
+      <c r="X63" s="21"/>
+    </row>
+    <row r="64" spans="1:24" s="22" customFormat="1" ht="34">
       <c r="A64" s="5"/>
       <c r="B64" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="6"/>
-      <c r="J64" s="5"/>
+      <c r="J64" s="6"/>
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
-      <c r="M64" s="21"/>
-      <c r="N64" s="21"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="39"/>
       <c r="O64" s="21"/>
       <c r="P64" s="21"/>
       <c r="Q64" s="21"/>
@@ -3895,28 +4061,30 @@
       <c r="T64" s="21"/>
       <c r="U64" s="21"/>
       <c r="V64" s="21"/>
-    </row>
-    <row r="65" spans="1:22" s="22" customFormat="1" ht="34">
+      <c r="W64" s="21"/>
+      <c r="X64" s="21"/>
+    </row>
+    <row r="65" spans="1:24" s="22" customFormat="1" ht="34">
       <c r="A65" s="5"/>
       <c r="B65" s="6" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="6"/>
-      <c r="J65" s="5"/>
+      <c r="J65" s="6"/>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
-      <c r="M65" s="21"/>
-      <c r="N65" s="21"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="39"/>
       <c r="O65" s="21"/>
       <c r="P65" s="21"/>
       <c r="Q65" s="21"/>
@@ -3925,28 +4093,30 @@
       <c r="T65" s="21"/>
       <c r="U65" s="21"/>
       <c r="V65" s="21"/>
-    </row>
-    <row r="66" spans="1:22" s="22" customFormat="1" ht="34">
+      <c r="W65" s="21"/>
+      <c r="X65" s="21"/>
+    </row>
+    <row r="66" spans="1:24" s="22" customFormat="1" ht="34">
       <c r="A66" s="5"/>
       <c r="B66" s="6" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="6"/>
-      <c r="J66" s="5"/>
+      <c r="J66" s="6"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
-      <c r="M66" s="21"/>
-      <c r="N66" s="21"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="39"/>
       <c r="O66" s="21"/>
       <c r="P66" s="21"/>
       <c r="Q66" s="21"/>
@@ -3955,29 +4125,31 @@
       <c r="T66" s="21"/>
       <c r="U66" s="21"/>
       <c r="V66" s="21"/>
-    </row>
-    <row r="67" spans="1:22" s="22" customFormat="1" ht="34">
+      <c r="W66" s="21"/>
+      <c r="X66" s="21"/>
+    </row>
+    <row r="67" spans="1:24" s="22" customFormat="1" ht="34">
       <c r="A67" s="5"/>
       <c r="B67" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
-      <c r="M67" s="21"/>
-      <c r="N67" s="21"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="39"/>
       <c r="O67" s="21"/>
       <c r="P67" s="21"/>
       <c r="Q67" s="21"/>
@@ -3986,29 +4158,31 @@
       <c r="T67" s="21"/>
       <c r="U67" s="21"/>
       <c r="V67" s="21"/>
-    </row>
-    <row r="68" spans="1:22" s="22" customFormat="1" ht="34">
+      <c r="W67" s="21"/>
+      <c r="X67" s="21"/>
+    </row>
+    <row r="68" spans="1:24" s="22" customFormat="1" ht="34">
       <c r="A68" s="5"/>
       <c r="B68" s="6" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
-      <c r="M68" s="21"/>
-      <c r="N68" s="21"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="39"/>
       <c r="O68" s="21"/>
       <c r="P68" s="21"/>
       <c r="Q68" s="21"/>
@@ -4017,17 +4191,19 @@
       <c r="T68" s="21"/>
       <c r="U68" s="21"/>
       <c r="V68" s="21"/>
-    </row>
-    <row r="69" spans="1:22" s="22" customFormat="1" ht="85">
+      <c r="W68" s="21"/>
+      <c r="X68" s="21"/>
+    </row>
+    <row r="69" spans="1:24" s="22" customFormat="1" ht="85">
       <c r="A69" s="5"/>
       <c r="B69" s="6" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
@@ -4035,14 +4211,14 @@
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
-      <c r="K69" s="5" t="s">
-        <v>290</v>
-      </c>
+      <c r="K69" s="5"/>
       <c r="L69" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="M69" s="21"/>
-      <c r="N69" s="21"/>
+        <v>285</v>
+      </c>
+      <c r="M69" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="N69" s="39"/>
       <c r="O69" s="21"/>
       <c r="P69" s="21"/>
       <c r="Q69" s="21"/>
@@ -4051,28 +4227,30 @@
       <c r="T69" s="21"/>
       <c r="U69" s="21"/>
       <c r="V69" s="21"/>
-    </row>
-    <row r="70" spans="1:22" s="22" customFormat="1" ht="34">
+      <c r="W69" s="21"/>
+      <c r="X69" s="21"/>
+    </row>
+    <row r="70" spans="1:24" s="22" customFormat="1" ht="34">
       <c r="A70" s="5"/>
       <c r="B70" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
       <c r="I70" s="6"/>
-      <c r="J70" s="5"/>
+      <c r="J70" s="6"/>
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
-      <c r="M70" s="21"/>
-      <c r="N70" s="21"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="39"/>
       <c r="O70" s="21"/>
       <c r="P70" s="21"/>
       <c r="Q70" s="21"/>
@@ -4081,28 +4259,30 @@
       <c r="T70" s="21"/>
       <c r="U70" s="21"/>
       <c r="V70" s="21"/>
-    </row>
-    <row r="71" spans="1:22" s="22" customFormat="1" ht="51">
+      <c r="W70" s="21"/>
+      <c r="X70" s="21"/>
+    </row>
+    <row r="71" spans="1:24" s="22" customFormat="1" ht="51">
       <c r="A71" s="5"/>
       <c r="B71" s="6" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E71" s="27"/>
       <c r="F71" s="27"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="26"/>
-      <c r="J71" s="5"/>
+      <c r="J71" s="26"/>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
-      <c r="M71" s="21"/>
-      <c r="N71" s="21"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="39"/>
       <c r="O71" s="21"/>
       <c r="P71" s="21"/>
       <c r="Q71" s="21"/>
@@ -4111,30 +4291,32 @@
       <c r="T71" s="21"/>
       <c r="U71" s="21"/>
       <c r="V71" s="21"/>
-    </row>
-    <row r="72" spans="1:22" s="22" customFormat="1" ht="68">
+      <c r="W71" s="21"/>
+      <c r="X71" s="21"/>
+    </row>
+    <row r="72" spans="1:24" s="22" customFormat="1" ht="68">
       <c r="A72" s="5"/>
       <c r="B72" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
       <c r="I72" s="6"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="L72" s="5"/>
-      <c r="M72" s="21"/>
-      <c r="N72" s="21"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="M72" s="5"/>
+      <c r="N72" s="39"/>
       <c r="O72" s="21"/>
       <c r="P72" s="21"/>
       <c r="Q72" s="21"/>
@@ -4143,30 +4325,32 @@
       <c r="T72" s="21"/>
       <c r="U72" s="21"/>
       <c r="V72" s="21"/>
-    </row>
-    <row r="73" spans="1:22" s="22" customFormat="1" ht="85">
+      <c r="W72" s="21"/>
+      <c r="X72" s="21"/>
+    </row>
+    <row r="73" spans="1:24" s="22" customFormat="1" ht="85">
       <c r="A73" s="5"/>
       <c r="B73" s="6" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="6"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L73" s="5"/>
-      <c r="M73" s="21"/>
-      <c r="N73" s="21"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="M73" s="5"/>
+      <c r="N73" s="39"/>
       <c r="O73" s="21"/>
       <c r="P73" s="21"/>
       <c r="Q73" s="21"/>
@@ -4175,30 +4359,32 @@
       <c r="T73" s="21"/>
       <c r="U73" s="21"/>
       <c r="V73" s="21"/>
-    </row>
-    <row r="74" spans="1:22" s="22" customFormat="1" ht="51">
+      <c r="W73" s="21"/>
+      <c r="X73" s="21"/>
+    </row>
+    <row r="74" spans="1:24" s="22" customFormat="1" ht="51">
       <c r="A74" s="5"/>
       <c r="B74" s="6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
       <c r="I74" s="6"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="L74" s="5"/>
-      <c r="M74" s="21"/>
-      <c r="N74" s="21"/>
+      <c r="J74" s="44"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="M74" s="5"/>
+      <c r="N74" s="39"/>
       <c r="O74" s="21"/>
       <c r="P74" s="21"/>
       <c r="Q74" s="21"/>
@@ -4207,32 +4393,34 @@
       <c r="T74" s="21"/>
       <c r="U74" s="21"/>
       <c r="V74" s="21"/>
-    </row>
-    <row r="75" spans="1:22" s="22" customFormat="1" ht="34">
+      <c r="W74" s="21"/>
+      <c r="X74" s="21"/>
+    </row>
+    <row r="75" spans="1:24" s="22" customFormat="1" ht="34">
       <c r="A75" s="5"/>
       <c r="B75" s="29" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
-      <c r="J75" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="K75" s="5"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="14" t="s">
+        <v>242</v>
+      </c>
       <c r="L75" s="5"/>
-      <c r="M75" s="21"/>
-      <c r="N75" s="21"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="39"/>
       <c r="O75" s="21"/>
       <c r="P75" s="21"/>
       <c r="Q75" s="21"/>
@@ -4241,31 +4429,33 @@
       <c r="T75" s="21"/>
       <c r="U75" s="21"/>
       <c r="V75" s="21"/>
-    </row>
-    <row r="76" spans="1:22" s="22" customFormat="1" ht="51">
+      <c r="W75" s="21"/>
+      <c r="X75" s="21"/>
+    </row>
+    <row r="76" spans="1:24" s="22" customFormat="1" ht="51">
       <c r="A76" s="5"/>
       <c r="B76" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H76" s="5"/>
       <c r="I76" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="K76" s="5"/>
+        <v>329</v>
+      </c>
+      <c r="J76" s="8"/>
       <c r="L76" s="5"/>
-      <c r="M76" s="21"/>
-      <c r="N76" s="21"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="39"/>
       <c r="O76" s="21"/>
       <c r="P76" s="21"/>
       <c r="Q76" s="21"/>
@@ -4274,30 +4464,32 @@
       <c r="T76" s="21"/>
       <c r="U76" s="21"/>
       <c r="V76" s="21"/>
-    </row>
-    <row r="77" spans="1:22" s="22" customFormat="1" ht="34">
+      <c r="W76" s="21"/>
+      <c r="X76" s="21"/>
+    </row>
+    <row r="77" spans="1:24" s="22" customFormat="1" ht="34">
       <c r="A77" s="5"/>
       <c r="B77" s="6" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
       <c r="I77" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
-      <c r="M77" s="21"/>
-      <c r="N77" s="21"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="39"/>
       <c r="O77" s="21"/>
       <c r="P77" s="21"/>
       <c r="Q77" s="21"/>
@@ -4306,30 +4498,32 @@
       <c r="T77" s="21"/>
       <c r="U77" s="21"/>
       <c r="V77" s="21"/>
-    </row>
-    <row r="78" spans="1:22" s="22" customFormat="1" ht="34">
+      <c r="W77" s="21"/>
+      <c r="X77" s="21"/>
+    </row>
+    <row r="78" spans="1:24" s="22" customFormat="1" ht="34">
       <c r="A78" s="14"/>
       <c r="B78" s="6" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="5" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="I78" s="5"/>
       <c r="J78" s="14"/>
-      <c r="K78" s="5"/>
+      <c r="K78" s="14"/>
       <c r="L78" s="5"/>
-      <c r="M78" s="21"/>
-      <c r="N78" s="21"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="39"/>
       <c r="O78" s="21"/>
       <c r="P78" s="21"/>
       <c r="Q78" s="21"/>
@@ -4338,30 +4532,32 @@
       <c r="T78" s="21"/>
       <c r="U78" s="21"/>
       <c r="V78" s="21"/>
-    </row>
-    <row r="79" spans="1:22" s="22" customFormat="1" ht="51">
+      <c r="W78" s="21"/>
+      <c r="X78" s="21"/>
+    </row>
+    <row r="79" spans="1:24" s="22" customFormat="1" ht="51">
       <c r="A79" s="14"/>
       <c r="B79" s="6" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C79" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D79" s="5" t="s">
         <v>323</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>328</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="I79" s="5"/>
       <c r="J79" s="14"/>
-      <c r="K79" s="5"/>
+      <c r="K79" s="14"/>
       <c r="L79" s="5"/>
-      <c r="M79" s="21"/>
-      <c r="N79" s="21"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="39"/>
       <c r="O79" s="21"/>
       <c r="P79" s="21"/>
       <c r="Q79" s="21"/>
@@ -4370,30 +4566,32 @@
       <c r="T79" s="21"/>
       <c r="U79" s="21"/>
       <c r="V79" s="21"/>
-    </row>
-    <row r="80" spans="1:22" s="22" customFormat="1" ht="51">
+      <c r="W79" s="21"/>
+      <c r="X79" s="21"/>
+    </row>
+    <row r="80" spans="1:24" s="22" customFormat="1" ht="51">
       <c r="A80" s="14"/>
       <c r="B80" s="6" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
       <c r="H80" s="5" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I80" s="5"/>
       <c r="J80" s="14"/>
-      <c r="K80" s="5"/>
+      <c r="K80" s="14"/>
       <c r="L80" s="5"/>
-      <c r="M80" s="21"/>
-      <c r="N80" s="21"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="39"/>
       <c r="O80" s="21"/>
       <c r="P80" s="21"/>
       <c r="Q80" s="21"/>
@@ -4402,30 +4600,32 @@
       <c r="T80" s="21"/>
       <c r="U80" s="21"/>
       <c r="V80" s="21"/>
-    </row>
-    <row r="81" spans="1:22" s="22" customFormat="1" ht="34">
+      <c r="W80" s="21"/>
+      <c r="X80" s="21"/>
+    </row>
+    <row r="81" spans="1:24" s="22" customFormat="1" ht="34">
       <c r="A81" s="14"/>
       <c r="B81" s="6" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="5" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="I81" s="5"/>
       <c r="J81" s="14"/>
-      <c r="K81" s="5"/>
+      <c r="K81" s="14"/>
       <c r="L81" s="5"/>
-      <c r="M81" s="21"/>
-      <c r="N81" s="21"/>
+      <c r="M81" s="5"/>
+      <c r="N81" s="39"/>
       <c r="O81" s="21"/>
       <c r="P81" s="21"/>
       <c r="Q81" s="21"/>
@@ -4434,30 +4634,32 @@
       <c r="T81" s="21"/>
       <c r="U81" s="21"/>
       <c r="V81" s="21"/>
-    </row>
-    <row r="82" spans="1:22" s="22" customFormat="1" ht="51">
+      <c r="W81" s="21"/>
+      <c r="X81" s="21"/>
+    </row>
+    <row r="82" spans="1:24" s="22" customFormat="1" ht="51">
       <c r="A82" s="14"/>
       <c r="B82" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="I82" s="5"/>
       <c r="J82" s="14"/>
-      <c r="K82" s="5"/>
+      <c r="K82" s="14"/>
       <c r="L82" s="5"/>
-      <c r="M82" s="21"/>
-      <c r="N82" s="21"/>
+      <c r="M82" s="5"/>
+      <c r="N82" s="39"/>
       <c r="O82" s="21"/>
       <c r="P82" s="21"/>
       <c r="Q82" s="21"/>
@@ -4466,30 +4668,32 @@
       <c r="T82" s="21"/>
       <c r="U82" s="21"/>
       <c r="V82" s="21"/>
-    </row>
-    <row r="83" spans="1:22" s="22" customFormat="1" ht="34">
+      <c r="W82" s="21"/>
+      <c r="X82" s="21"/>
+    </row>
+    <row r="83" spans="1:24" s="22" customFormat="1" ht="34">
       <c r="A83" s="14"/>
       <c r="B83" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
       <c r="H83" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I83" s="5"/>
       <c r="J83" s="14"/>
-      <c r="K83" s="5"/>
+      <c r="K83" s="14"/>
       <c r="L83" s="5"/>
-      <c r="M83" s="21"/>
-      <c r="N83" s="21"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="39"/>
       <c r="O83" s="21"/>
       <c r="P83" s="21"/>
       <c r="Q83" s="21"/>
@@ -4498,17 +4702,19 @@
       <c r="T83" s="21"/>
       <c r="U83" s="21"/>
       <c r="V83" s="21"/>
-    </row>
-    <row r="84" spans="1:22" s="22" customFormat="1" ht="34">
+      <c r="W83" s="21"/>
+      <c r="X83" s="21"/>
+    </row>
+    <row r="84" spans="1:24" s="22" customFormat="1" ht="34">
       <c r="A84" s="14"/>
       <c r="B84" s="6" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
@@ -4516,8 +4722,8 @@
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
-      <c r="M84" s="21"/>
-      <c r="N84" s="21"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="39"/>
       <c r="O84" s="21"/>
       <c r="P84" s="21"/>
       <c r="Q84" s="21"/>
@@ -4526,609 +4732,649 @@
       <c r="T84" s="21"/>
       <c r="U84" s="21"/>
       <c r="V84" s="21"/>
-    </row>
-    <row r="85" spans="1:22" ht="51">
+      <c r="W84" s="21"/>
+      <c r="X84" s="21"/>
+    </row>
+    <row r="85" spans="1:24" ht="51">
       <c r="A85" s="5"/>
       <c r="B85" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H85" s="5"/>
-      <c r="L85" s="37"/>
-    </row>
-    <row r="86" spans="1:22" ht="34">
+      <c r="M85" s="37"/>
+      <c r="N85" s="41"/>
+    </row>
+    <row r="86" spans="1:24" ht="34">
       <c r="A86" s="5"/>
       <c r="B86" s="6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H86" s="5"/>
       <c r="I86" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="L86" s="37"/>
-    </row>
-    <row r="87" spans="1:22" ht="34">
+        <v>143</v>
+      </c>
+      <c r="M86" s="37"/>
+      <c r="N86" s="41"/>
+    </row>
+    <row r="87" spans="1:24" ht="34">
       <c r="A87" s="5"/>
       <c r="B87" s="6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H87" s="5"/>
       <c r="I87" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="L87" s="37"/>
-    </row>
-    <row r="88" spans="1:22" ht="34">
+        <v>89</v>
+      </c>
+      <c r="M87" s="37"/>
+      <c r="N87" s="41"/>
+    </row>
+    <row r="88" spans="1:24" ht="34">
       <c r="A88" s="5"/>
       <c r="B88" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="L88" s="37"/>
-    </row>
-    <row r="89" spans="1:22" ht="34">
+        <v>148</v>
+      </c>
+      <c r="M88" s="37"/>
+      <c r="N88" s="41"/>
+    </row>
+    <row r="89" spans="1:24" ht="34">
       <c r="A89" s="5"/>
       <c r="B89" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H89" s="5"/>
       <c r="I89" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="J89" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="L89" s="37"/>
-    </row>
-    <row r="90" spans="1:22" ht="34">
+        <v>89</v>
+      </c>
+      <c r="K89" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="M89" s="37"/>
+      <c r="N89" s="41"/>
+    </row>
+    <row r="90" spans="1:24" ht="34">
       <c r="A90" s="5"/>
       <c r="B90" s="6" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H90" s="5"/>
       <c r="I90" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="L90" s="37"/>
-    </row>
-    <row r="91" spans="1:22" ht="51">
+        <v>366</v>
+      </c>
+      <c r="M90" s="37"/>
+      <c r="N90" s="41"/>
+    </row>
+    <row r="91" spans="1:24" ht="51">
       <c r="A91" s="5"/>
       <c r="B91" s="6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H91" s="5"/>
-      <c r="K91" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="L91" s="37"/>
-    </row>
-    <row r="92" spans="1:22" ht="34">
+      <c r="L91" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="M91" s="37"/>
+      <c r="N91" s="41"/>
+    </row>
+    <row r="92" spans="1:24" ht="34">
       <c r="A92" s="5"/>
       <c r="B92" s="6" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H92" s="5"/>
-      <c r="L92" s="37"/>
-    </row>
-    <row r="93" spans="1:22" ht="34">
+      <c r="M92" s="37"/>
+      <c r="N92" s="41"/>
+    </row>
+    <row r="93" spans="1:24" ht="34">
       <c r="A93" s="5"/>
       <c r="B93" s="6" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H93" s="5"/>
       <c r="I93" s="6"/>
-      <c r="L93" s="37"/>
-    </row>
-    <row r="94" spans="1:22" ht="34">
+      <c r="J93" s="6"/>
+      <c r="M93" s="37"/>
+      <c r="N93" s="41"/>
+    </row>
+    <row r="94" spans="1:24" ht="34">
       <c r="A94" s="5"/>
       <c r="B94" s="6" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H94" s="5"/>
-      <c r="L94" s="37"/>
-    </row>
-    <row r="95" spans="1:22" ht="34">
+      <c r="M94" s="37"/>
+      <c r="N94" s="41"/>
+    </row>
+    <row r="95" spans="1:24" ht="34">
       <c r="A95" s="5"/>
       <c r="B95" s="6" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H95" s="5"/>
-      <c r="L95" s="37"/>
-    </row>
-    <row r="96" spans="1:22" ht="34">
+      <c r="M95" s="37"/>
+      <c r="N95" s="41"/>
+    </row>
+    <row r="96" spans="1:24" ht="34">
       <c r="A96" s="5"/>
       <c r="B96" s="6" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="L96" s="37"/>
-    </row>
-    <row r="97" spans="1:12" ht="34">
+        <v>367</v>
+      </c>
+      <c r="M96" s="37"/>
+      <c r="N96" s="41"/>
+    </row>
+    <row r="97" spans="1:14" ht="34">
       <c r="A97" s="5"/>
       <c r="B97" s="6" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="L97" s="37"/>
-    </row>
-    <row r="98" spans="1:12" ht="51">
+        <v>167</v>
+      </c>
+      <c r="M97" s="37"/>
+      <c r="N97" s="41"/>
+    </row>
+    <row r="98" spans="1:14" ht="51">
       <c r="A98" s="5"/>
       <c r="B98" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="H98" s="5"/>
-      <c r="L98" s="37"/>
-    </row>
-    <row r="99" spans="1:12" ht="34">
+      <c r="M98" s="37"/>
+      <c r="N98" s="41"/>
+    </row>
+    <row r="99" spans="1:14" ht="34">
       <c r="A99" s="5"/>
       <c r="B99" s="6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="L99" s="37"/>
-    </row>
-    <row r="100" spans="1:12" ht="34">
+        <v>170</v>
+      </c>
+      <c r="M99" s="37"/>
+      <c r="N99" s="41"/>
+    </row>
+    <row r="100" spans="1:14" ht="34">
       <c r="A100" s="5"/>
       <c r="B100" s="6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H100" s="5"/>
-      <c r="L100" s="37"/>
-    </row>
-    <row r="101" spans="1:12" ht="34">
+      <c r="M100" s="37"/>
+      <c r="N100" s="41"/>
+    </row>
+    <row r="101" spans="1:14" ht="34">
       <c r="A101" s="5"/>
       <c r="B101" s="6" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H101" s="5"/>
-      <c r="L101" s="37"/>
-    </row>
-    <row r="102" spans="1:12" ht="34">
+      <c r="M101" s="37"/>
+      <c r="N101" s="41"/>
+    </row>
+    <row r="102" spans="1:14" ht="34">
       <c r="A102" s="5"/>
       <c r="B102" s="6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H102" s="5"/>
-      <c r="L102" s="37"/>
-    </row>
-    <row r="103" spans="1:12" ht="34">
+      <c r="M102" s="37"/>
+      <c r="N102" s="41"/>
+    </row>
+    <row r="103" spans="1:14" ht="34">
       <c r="A103" s="5"/>
       <c r="B103" s="6" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H103" s="5"/>
-      <c r="L103" s="37"/>
-    </row>
-    <row r="104" spans="1:12" ht="34">
+      <c r="M103" s="37"/>
+      <c r="N103" s="41"/>
+    </row>
+    <row r="104" spans="1:14" ht="34">
       <c r="A104" s="5"/>
       <c r="B104" s="6" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H104" s="5"/>
-      <c r="J104" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="L104" s="37"/>
-    </row>
-    <row r="105" spans="1:12" ht="85">
+      <c r="K104" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="M104" s="37"/>
+      <c r="N104" s="41"/>
+    </row>
+    <row r="105" spans="1:14" ht="85">
       <c r="A105" s="5"/>
       <c r="B105" s="6" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H105" s="5"/>
-      <c r="K105" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="L105" s="37"/>
-    </row>
-    <row r="106" spans="1:12" ht="34">
+      <c r="L105" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="M105" s="37"/>
+      <c r="N105" s="41"/>
+    </row>
+    <row r="106" spans="1:14" ht="34">
       <c r="A106" s="5"/>
       <c r="B106" s="6" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="H106" s="5"/>
-      <c r="J106" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="L106" s="37"/>
-    </row>
-    <row r="107" spans="1:12" ht="34">
+      <c r="K106" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="M106" s="37"/>
+      <c r="N106" s="41"/>
+    </row>
+    <row r="107" spans="1:14" ht="34">
       <c r="A107" s="5"/>
       <c r="B107" s="6" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E107" s="7"/>
       <c r="H107" s="5"/>
-      <c r="L107" s="37"/>
-    </row>
-    <row r="108" spans="1:12" ht="34">
+      <c r="M107" s="37"/>
+      <c r="N107" s="41"/>
+    </row>
+    <row r="108" spans="1:14" ht="34">
       <c r="A108" s="5"/>
       <c r="B108" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H108" s="5"/>
-      <c r="L108" s="37"/>
-    </row>
-    <row r="109" spans="1:12" ht="34">
+      <c r="M108" s="37"/>
+      <c r="N108" s="41"/>
+    </row>
+    <row r="109" spans="1:14" ht="34">
       <c r="A109" s="5"/>
       <c r="B109" s="6" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="L109" s="37"/>
-    </row>
-    <row r="110" spans="1:12" ht="51">
+        <v>194</v>
+      </c>
+      <c r="M109" s="37"/>
+      <c r="N109" s="41"/>
+    </row>
+    <row r="110" spans="1:14" ht="51">
       <c r="A110" s="5"/>
       <c r="B110" s="6" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H110" s="5"/>
-      <c r="L110" s="37"/>
-    </row>
-    <row r="111" spans="1:12" ht="51">
+      <c r="M110" s="37"/>
+      <c r="N110" s="41"/>
+    </row>
+    <row r="111" spans="1:14" ht="51">
       <c r="A111" s="5"/>
       <c r="B111" s="6" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="H111" s="5"/>
-      <c r="J111" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L111" s="37"/>
-    </row>
-    <row r="112" spans="1:12" ht="51">
+      <c r="K111" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M111" s="37"/>
+      <c r="N111" s="41"/>
+    </row>
+    <row r="112" spans="1:14" ht="51">
       <c r="A112" s="5"/>
       <c r="B112" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E112" s="7"/>
       <c r="H112" s="5"/>
-      <c r="L112" s="37"/>
-    </row>
-    <row r="113" spans="1:22" ht="34">
+      <c r="M112" s="37"/>
+      <c r="N112" s="41"/>
+    </row>
+    <row r="113" spans="1:24" ht="34">
       <c r="A113" s="5"/>
       <c r="B113" s="6" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E113" s="7"/>
       <c r="H113" s="5"/>
-      <c r="L113" s="37"/>
-    </row>
-    <row r="114" spans="1:22" ht="34">
+      <c r="M113" s="37"/>
+      <c r="N113" s="41"/>
+    </row>
+    <row r="114" spans="1:24" ht="34">
       <c r="A114" s="5"/>
       <c r="B114" s="6" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H114" s="5"/>
-      <c r="J114" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="L114" s="37"/>
-    </row>
-    <row r="115" spans="1:22" ht="48">
+      <c r="K114" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="M114" s="37"/>
+      <c r="N114" s="41"/>
+    </row>
+    <row r="115" spans="1:24" ht="48">
       <c r="A115" s="5"/>
       <c r="B115" s="6" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G115" s="30" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="L115" s="37"/>
-    </row>
-    <row r="116" spans="1:22" ht="34">
+        <v>89</v>
+      </c>
+      <c r="M115" s="37"/>
+      <c r="N115" s="41"/>
+    </row>
+    <row r="116" spans="1:24" ht="34">
       <c r="A116" s="5"/>
       <c r="B116" s="6" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="H116" s="5"/>
-      <c r="L116" s="37"/>
-    </row>
-    <row r="117" spans="1:22" ht="34">
+      <c r="M116" s="37"/>
+      <c r="N116" s="41"/>
+    </row>
+    <row r="117" spans="1:24" ht="34">
       <c r="A117" s="5"/>
       <c r="B117" s="6" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H117" s="5"/>
-      <c r="L117" s="37"/>
-    </row>
-    <row r="118" spans="1:22" ht="34">
+      <c r="M117" s="37"/>
+      <c r="N117" s="41"/>
+    </row>
+    <row r="118" spans="1:24" ht="34">
       <c r="A118" s="5"/>
       <c r="B118" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="H118" s="5"/>
-      <c r="L118" s="37"/>
-    </row>
-    <row r="119" spans="1:22" ht="34">
+      <c r="M118" s="37"/>
+      <c r="N118" s="41"/>
+    </row>
+    <row r="119" spans="1:24" ht="34">
       <c r="A119" s="5"/>
       <c r="B119" s="6" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="H119" s="22"/>
-      <c r="J119" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="L119" s="37"/>
-    </row>
-    <row r="120" spans="1:22" ht="51">
+      <c r="K119" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="M119" s="37"/>
+      <c r="N119" s="41"/>
+    </row>
+    <row r="120" spans="1:24" ht="51">
       <c r="A120" s="5"/>
       <c r="B120" s="6" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H120" s="5"/>
-      <c r="K120" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="L120" s="37"/>
-    </row>
-    <row r="121" spans="1:22" ht="34">
+      <c r="L120" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="M120" s="37"/>
+      <c r="N120" s="41"/>
+    </row>
+    <row r="121" spans="1:24" ht="34">
       <c r="A121" s="5"/>
       <c r="B121" s="6" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="H121" s="5"/>
-      <c r="L121" s="37"/>
-    </row>
-    <row r="122" spans="1:22" s="31" customFormat="1" ht="34">
+      <c r="M121" s="37"/>
+      <c r="N121" s="41"/>
+    </row>
+    <row r="122" spans="1:24" s="31" customFormat="1" ht="34">
       <c r="A122" s="5"/>
       <c r="B122" s="6" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
       <c r="H122" s="5" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="I122" s="5"/>
       <c r="J122" s="14"/>
-      <c r="K122" s="5"/>
-      <c r="L122" s="37"/>
-      <c r="M122" s="21"/>
-      <c r="N122" s="21"/>
+      <c r="K122" s="14"/>
+      <c r="L122" s="5"/>
+      <c r="M122" s="37"/>
+      <c r="N122" s="41"/>
       <c r="O122" s="21"/>
       <c r="P122" s="21"/>
       <c r="Q122" s="21"/>
@@ -5137,30 +5383,32 @@
       <c r="T122" s="21"/>
       <c r="U122" s="21"/>
       <c r="V122" s="21"/>
-    </row>
-    <row r="123" spans="1:22" s="31" customFormat="1" ht="34">
+      <c r="W122" s="21"/>
+      <c r="X122" s="21"/>
+    </row>
+    <row r="123" spans="1:24" s="31" customFormat="1" ht="34">
       <c r="A123" s="5"/>
       <c r="B123" s="6" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
       <c r="I123" s="6"/>
-      <c r="J123" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="K123" s="5"/>
-      <c r="L123" s="37"/>
-      <c r="M123" s="21"/>
-      <c r="N123" s="21"/>
+      <c r="J123" s="6"/>
+      <c r="K123" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="L123" s="5"/>
+      <c r="M123" s="37"/>
+      <c r="N123" s="41"/>
       <c r="O123" s="21"/>
       <c r="P123" s="21"/>
       <c r="Q123" s="21"/>
@@ -5169,17 +5417,19 @@
       <c r="T123" s="21"/>
       <c r="U123" s="21"/>
       <c r="V123" s="21"/>
-    </row>
-    <row r="124" spans="1:22" s="21" customFormat="1" ht="34">
+      <c r="W123" s="21"/>
+      <c r="X123" s="21"/>
+    </row>
+    <row r="124" spans="1:24" s="21" customFormat="1" ht="34">
       <c r="A124" s="5"/>
       <c r="B124" s="6" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
@@ -5187,19 +5437,21 @@
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
       <c r="J124" s="14"/>
-      <c r="K124" s="5"/>
+      <c r="K124" s="14"/>
       <c r="L124" s="5"/>
-    </row>
-    <row r="125" spans="1:22" s="21" customFormat="1" ht="34">
+      <c r="M124" s="5"/>
+      <c r="N124" s="39"/>
+    </row>
+    <row r="125" spans="1:24" s="21" customFormat="1" ht="34">
       <c r="A125" s="5"/>
       <c r="B125" s="6" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
@@ -5207,41 +5459,45 @@
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
       <c r="J125" s="14"/>
-      <c r="K125" s="5"/>
+      <c r="K125" s="14"/>
       <c r="L125" s="5"/>
-    </row>
-    <row r="126" spans="1:22" s="21" customFormat="1" ht="34">
+      <c r="M125" s="5"/>
+      <c r="N125" s="39"/>
+    </row>
+    <row r="126" spans="1:24" s="21" customFormat="1" ht="34">
       <c r="A126" s="5"/>
       <c r="B126" s="6" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
-      <c r="J126" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="K126" s="5"/>
+      <c r="J126" s="14"/>
+      <c r="K126" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="L126" s="5"/>
-    </row>
-    <row r="127" spans="1:22" s="21" customFormat="1" ht="34">
+      <c r="M126" s="5"/>
+      <c r="N126" s="39"/>
+    </row>
+    <row r="127" spans="1:24" s="21" customFormat="1" ht="34">
       <c r="A127" s="5"/>
       <c r="B127" s="6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
@@ -5249,105 +5505,114 @@
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
       <c r="J127" s="14"/>
-      <c r="K127" s="5"/>
+      <c r="K127" s="14"/>
       <c r="L127" s="5"/>
-    </row>
-    <row r="128" spans="1:22" s="21" customFormat="1" ht="102">
+      <c r="M127" s="5"/>
+      <c r="N127" s="39"/>
+    </row>
+    <row r="128" spans="1:24" s="21" customFormat="1" ht="102">
       <c r="A128" s="5"/>
       <c r="B128" s="6" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
       <c r="I128" s="5" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="J128" s="14"/>
-      <c r="K128" s="5"/>
+      <c r="K128" s="14"/>
       <c r="L128" s="5"/>
-    </row>
-    <row r="129" spans="1:12" s="21" customFormat="1" ht="34">
+      <c r="M128" s="5"/>
+      <c r="N128" s="39"/>
+    </row>
+    <row r="129" spans="1:14" s="21" customFormat="1" ht="34">
       <c r="A129" s="5"/>
       <c r="B129" s="6" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
       <c r="H129" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
       <c r="K129" s="5"/>
-      <c r="L129" s="37"/>
-    </row>
-    <row r="130" spans="1:12" ht="119">
+      <c r="L129" s="5"/>
+      <c r="M129" s="37"/>
+      <c r="N129" s="41"/>
+    </row>
+    <row r="130" spans="1:14" ht="119">
       <c r="A130" s="5"/>
       <c r="B130" s="6" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H130" s="5"/>
       <c r="I130" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="J130" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="L130" s="37"/>
-    </row>
-    <row r="131" spans="1:12" s="21" customFormat="1" ht="34">
+        <v>369</v>
+      </c>
+      <c r="K130" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="M130" s="37"/>
+      <c r="N130" s="41"/>
+    </row>
+    <row r="131" spans="1:14" s="21" customFormat="1" ht="34">
       <c r="A131" s="14"/>
       <c r="B131" s="6" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
       <c r="G131" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
       <c r="J131" s="14"/>
-      <c r="K131" s="5"/>
+      <c r="K131" s="14"/>
       <c r="L131" s="5"/>
-    </row>
-    <row r="132" spans="1:12" s="21" customFormat="1" ht="34">
+      <c r="M131" s="5"/>
+      <c r="N131" s="39"/>
+    </row>
+    <row r="132" spans="1:14" s="21" customFormat="1" ht="34">
       <c r="A132" s="14"/>
       <c r="B132" s="6" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
@@ -5355,95 +5620,103 @@
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
       <c r="J132" s="14"/>
-      <c r="K132" s="5"/>
+      <c r="K132" s="14"/>
       <c r="L132" s="5"/>
-    </row>
-    <row r="133" spans="1:12" ht="68">
+      <c r="M132" s="5"/>
+      <c r="N132" s="39"/>
+    </row>
+    <row r="133" spans="1:14" ht="68">
       <c r="A133" s="5"/>
       <c r="B133" s="6" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H133" s="5"/>
-      <c r="J133" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="L133" s="38"/>
-    </row>
-    <row r="134" spans="1:12" ht="68">
+      <c r="K133" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="M133" s="38"/>
+      <c r="N133" s="42"/>
+    </row>
+    <row r="134" spans="1:14" ht="68">
       <c r="A134" s="14"/>
       <c r="B134" s="6" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C134" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G134" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="D134" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="G134" s="5" t="s">
-        <v>236</v>
-      </c>
       <c r="H134" s="5"/>
-      <c r="J134" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="L134" s="38"/>
-    </row>
-    <row r="135" spans="1:12" ht="85">
+      <c r="K134" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="M134" s="38"/>
+      <c r="N134" s="42"/>
+    </row>
+    <row r="135" spans="1:14" ht="85">
       <c r="A135" s="14"/>
       <c r="B135" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="H135" s="5"/>
+      <c r="K135" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="L135" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C135" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="G135" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="H135" s="5"/>
-      <c r="J135" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="K135" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="L135" s="38"/>
-    </row>
-    <row r="136" spans="1:12" ht="68">
+      <c r="M135" s="38"/>
+      <c r="N135" s="42"/>
+    </row>
+    <row r="136" spans="1:14" ht="68">
       <c r="A136" s="14"/>
       <c r="B136" s="6" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H136" s="5"/>
-      <c r="J136" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="L136" s="38"/>
-    </row>
-    <row r="137" spans="1:12" s="21" customFormat="1">
+      <c r="K136" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="M136" s="38"/>
+      <c r="N136" s="42"/>
+    </row>
+    <row r="137" spans="1:14" s="21" customFormat="1">
       <c r="A137" s="16"/>
-      <c r="L137" s="19"/>
-    </row>
-    <row r="138" spans="1:12" s="21" customFormat="1">
+      <c r="M137" s="19"/>
+      <c r="N137" s="19"/>
+    </row>
+    <row r="138" spans="1:14" s="21" customFormat="1">
       <c r="A138" s="16"/>
-      <c r="L138" s="19"/>
-    </row>
-    <row r="139" spans="1:12" s="21" customFormat="1">
+      <c r="M138" s="19"/>
+      <c r="N138" s="19"/>
+    </row>
+    <row r="139" spans="1:14" s="21" customFormat="1">
       <c r="A139" s="16"/>
       <c r="B139" s="32"/>
       <c r="C139" s="19"/>
@@ -5456,8 +5729,10 @@
       <c r="J139" s="19"/>
       <c r="K139" s="19"/>
       <c r="L139" s="19"/>
-    </row>
-    <row r="140" spans="1:12" s="21" customFormat="1">
+      <c r="M139" s="19"/>
+      <c r="N139" s="19"/>
+    </row>
+    <row r="140" spans="1:14" s="21" customFormat="1">
       <c r="A140" s="16"/>
       <c r="B140" s="32"/>
       <c r="C140" s="19"/>
@@ -5470,8 +5745,10 @@
       <c r="J140" s="19"/>
       <c r="K140" s="19"/>
       <c r="L140" s="19"/>
-    </row>
-    <row r="141" spans="1:12" s="21" customFormat="1">
+      <c r="M140" s="19"/>
+      <c r="N140" s="19"/>
+    </row>
+    <row r="141" spans="1:14" s="21" customFormat="1">
       <c r="A141" s="16"/>
       <c r="B141" s="32"/>
       <c r="C141" s="19"/>
@@ -5484,8 +5761,10 @@
       <c r="J141" s="19"/>
       <c r="K141" s="19"/>
       <c r="L141" s="19"/>
-    </row>
-    <row r="142" spans="1:12" s="21" customFormat="1">
+      <c r="M141" s="19"/>
+      <c r="N141" s="19"/>
+    </row>
+    <row r="142" spans="1:14" s="21" customFormat="1">
       <c r="A142" s="16"/>
       <c r="B142" s="32"/>
       <c r="C142" s="19"/>
@@ -5498,8 +5777,10 @@
       <c r="J142" s="19"/>
       <c r="K142" s="19"/>
       <c r="L142" s="19"/>
-    </row>
-    <row r="143" spans="1:12" s="21" customFormat="1">
+      <c r="M142" s="19"/>
+      <c r="N142" s="19"/>
+    </row>
+    <row r="143" spans="1:14" s="21" customFormat="1">
       <c r="A143" s="16"/>
       <c r="B143" s="32"/>
       <c r="C143" s="19"/>
@@ -5512,8 +5793,10 @@
       <c r="J143" s="19"/>
       <c r="K143" s="19"/>
       <c r="L143" s="19"/>
-    </row>
-    <row r="144" spans="1:12" s="21" customFormat="1">
+      <c r="M143" s="19"/>
+      <c r="N143" s="19"/>
+    </row>
+    <row r="144" spans="1:14" s="21" customFormat="1">
       <c r="A144" s="16"/>
       <c r="B144" s="32"/>
       <c r="C144" s="19"/>
@@ -5526,8 +5809,10 @@
       <c r="J144" s="19"/>
       <c r="K144" s="19"/>
       <c r="L144" s="19"/>
-    </row>
-    <row r="145" spans="1:12" s="21" customFormat="1">
+      <c r="M144" s="19"/>
+      <c r="N144" s="19"/>
+    </row>
+    <row r="145" spans="1:14" s="21" customFormat="1">
       <c r="A145" s="16"/>
       <c r="B145" s="32"/>
       <c r="C145" s="19"/>
@@ -5540,8 +5825,10 @@
       <c r="J145" s="19"/>
       <c r="K145" s="19"/>
       <c r="L145" s="19"/>
-    </row>
-    <row r="146" spans="1:12" s="21" customFormat="1">
+      <c r="M145" s="19"/>
+      <c r="N145" s="19"/>
+    </row>
+    <row r="146" spans="1:14" s="21" customFormat="1">
       <c r="A146" s="16"/>
       <c r="B146" s="32"/>
       <c r="C146" s="19"/>
@@ -5554,8 +5841,10 @@
       <c r="J146" s="19"/>
       <c r="K146" s="19"/>
       <c r="L146" s="19"/>
-    </row>
-    <row r="147" spans="1:12" s="21" customFormat="1">
+      <c r="M146" s="19"/>
+      <c r="N146" s="19"/>
+    </row>
+    <row r="147" spans="1:14" s="21" customFormat="1">
       <c r="A147" s="16"/>
       <c r="B147" s="32"/>
       <c r="C147" s="19"/>
@@ -5568,8 +5857,10 @@
       <c r="J147" s="19"/>
       <c r="K147" s="19"/>
       <c r="L147" s="19"/>
-    </row>
-    <row r="148" spans="1:12" s="21" customFormat="1">
+      <c r="M147" s="19"/>
+      <c r="N147" s="19"/>
+    </row>
+    <row r="148" spans="1:14" s="21" customFormat="1">
       <c r="A148" s="16"/>
       <c r="B148" s="32"/>
       <c r="C148" s="19"/>
@@ -5582,8 +5873,10 @@
       <c r="J148" s="19"/>
       <c r="K148" s="19"/>
       <c r="L148" s="19"/>
-    </row>
-    <row r="149" spans="1:12" s="21" customFormat="1">
+      <c r="M148" s="19"/>
+      <c r="N148" s="19"/>
+    </row>
+    <row r="149" spans="1:14" s="21" customFormat="1">
       <c r="A149" s="16"/>
       <c r="B149" s="32"/>
       <c r="C149" s="19"/>
@@ -5596,8 +5889,10 @@
       <c r="J149" s="19"/>
       <c r="K149" s="19"/>
       <c r="L149" s="19"/>
-    </row>
-    <row r="150" spans="1:12" s="21" customFormat="1">
+      <c r="M149" s="19"/>
+      <c r="N149" s="19"/>
+    </row>
+    <row r="150" spans="1:14" s="21" customFormat="1">
       <c r="A150" s="16"/>
       <c r="B150" s="32"/>
       <c r="C150" s="19"/>
@@ -5610,8 +5905,10 @@
       <c r="J150" s="19"/>
       <c r="K150" s="19"/>
       <c r="L150" s="19"/>
-    </row>
-    <row r="151" spans="1:12" s="21" customFormat="1">
+      <c r="M150" s="19"/>
+      <c r="N150" s="19"/>
+    </row>
+    <row r="151" spans="1:14" s="21" customFormat="1">
       <c r="A151" s="16"/>
       <c r="B151" s="32"/>
       <c r="C151" s="19"/>
@@ -5624,8 +5921,10 @@
       <c r="J151" s="19"/>
       <c r="K151" s="19"/>
       <c r="L151" s="19"/>
-    </row>
-    <row r="152" spans="1:12" s="21" customFormat="1">
+      <c r="M151" s="19"/>
+      <c r="N151" s="19"/>
+    </row>
+    <row r="152" spans="1:14" s="21" customFormat="1">
       <c r="A152" s="16"/>
       <c r="B152" s="32"/>
       <c r="C152" s="19"/>
@@ -5638,8 +5937,10 @@
       <c r="J152" s="19"/>
       <c r="K152" s="19"/>
       <c r="L152" s="19"/>
-    </row>
-    <row r="153" spans="1:12" s="21" customFormat="1">
+      <c r="M152" s="19"/>
+      <c r="N152" s="19"/>
+    </row>
+    <row r="153" spans="1:14" s="21" customFormat="1">
       <c r="A153" s="16"/>
       <c r="B153" s="32"/>
       <c r="C153" s="19"/>
@@ -5652,8 +5953,10 @@
       <c r="J153" s="19"/>
       <c r="K153" s="19"/>
       <c r="L153" s="19"/>
-    </row>
-    <row r="154" spans="1:12" s="21" customFormat="1">
+      <c r="M153" s="19"/>
+      <c r="N153" s="19"/>
+    </row>
+    <row r="154" spans="1:14" s="21" customFormat="1">
       <c r="A154" s="16"/>
       <c r="B154" s="32"/>
       <c r="C154" s="19"/>
@@ -5666,8 +5969,10 @@
       <c r="J154" s="19"/>
       <c r="K154" s="19"/>
       <c r="L154" s="19"/>
-    </row>
-    <row r="155" spans="1:12" s="21" customFormat="1">
+      <c r="M154" s="19"/>
+      <c r="N154" s="19"/>
+    </row>
+    <row r="155" spans="1:14" s="21" customFormat="1">
       <c r="A155" s="16"/>
       <c r="B155" s="32"/>
       <c r="C155" s="19"/>
@@ -5680,8 +5985,10 @@
       <c r="J155" s="19"/>
       <c r="K155" s="19"/>
       <c r="L155" s="19"/>
-    </row>
-    <row r="156" spans="1:12" s="21" customFormat="1">
+      <c r="M155" s="19"/>
+      <c r="N155" s="19"/>
+    </row>
+    <row r="156" spans="1:14" s="21" customFormat="1">
       <c r="A156" s="16"/>
       <c r="B156" s="32"/>
       <c r="C156" s="19"/>
@@ -5694,8 +6001,10 @@
       <c r="J156" s="19"/>
       <c r="K156" s="19"/>
       <c r="L156" s="19"/>
-    </row>
-    <row r="157" spans="1:12" s="21" customFormat="1">
+      <c r="M156" s="19"/>
+      <c r="N156" s="19"/>
+    </row>
+    <row r="157" spans="1:14" s="21" customFormat="1">
       <c r="A157" s="16"/>
       <c r="B157" s="32"/>
       <c r="C157" s="19"/>
@@ -5708,8 +6017,10 @@
       <c r="J157" s="19"/>
       <c r="K157" s="19"/>
       <c r="L157" s="19"/>
-    </row>
-    <row r="158" spans="1:12" s="21" customFormat="1">
+      <c r="M157" s="19"/>
+      <c r="N157" s="19"/>
+    </row>
+    <row r="158" spans="1:14" s="21" customFormat="1">
       <c r="A158" s="16"/>
       <c r="B158" s="32"/>
       <c r="C158" s="19"/>
@@ -5722,8 +6033,10 @@
       <c r="J158" s="19"/>
       <c r="K158" s="19"/>
       <c r="L158" s="19"/>
-    </row>
-    <row r="159" spans="1:12" s="21" customFormat="1">
+      <c r="M158" s="19"/>
+      <c r="N158" s="19"/>
+    </row>
+    <row r="159" spans="1:14" s="21" customFormat="1">
       <c r="A159" s="16"/>
       <c r="B159" s="32"/>
       <c r="C159" s="19"/>
@@ -5736,8 +6049,10 @@
       <c r="J159" s="19"/>
       <c r="K159" s="19"/>
       <c r="L159" s="19"/>
-    </row>
-    <row r="160" spans="1:12" s="21" customFormat="1">
+      <c r="M159" s="19"/>
+      <c r="N159" s="19"/>
+    </row>
+    <row r="160" spans="1:14" s="21" customFormat="1">
       <c r="A160" s="16"/>
       <c r="B160" s="32"/>
       <c r="C160" s="19"/>
@@ -5750,8 +6065,10 @@
       <c r="J160" s="19"/>
       <c r="K160" s="19"/>
       <c r="L160" s="19"/>
-    </row>
-    <row r="161" spans="1:12" s="21" customFormat="1">
+      <c r="M160" s="19"/>
+      <c r="N160" s="19"/>
+    </row>
+    <row r="161" spans="1:14" s="21" customFormat="1">
       <c r="A161" s="16"/>
       <c r="B161" s="32"/>
       <c r="C161" s="19"/>
@@ -5764,8 +6081,10 @@
       <c r="J161" s="19"/>
       <c r="K161" s="19"/>
       <c r="L161" s="19"/>
-    </row>
-    <row r="162" spans="1:12" s="21" customFormat="1">
+      <c r="M161" s="19"/>
+      <c r="N161" s="19"/>
+    </row>
+    <row r="162" spans="1:14" s="21" customFormat="1">
       <c r="A162" s="16"/>
       <c r="B162" s="32"/>
       <c r="C162" s="19"/>
@@ -5778,8 +6097,10 @@
       <c r="J162" s="19"/>
       <c r="K162" s="19"/>
       <c r="L162" s="19"/>
-    </row>
-    <row r="163" spans="1:12" s="21" customFormat="1">
+      <c r="M162" s="19"/>
+      <c r="N162" s="19"/>
+    </row>
+    <row r="163" spans="1:14" s="21" customFormat="1">
       <c r="A163" s="16"/>
       <c r="B163" s="32"/>
       <c r="C163" s="19"/>
@@ -5792,8 +6113,10 @@
       <c r="J163" s="19"/>
       <c r="K163" s="19"/>
       <c r="L163" s="19"/>
-    </row>
-    <row r="164" spans="1:12" s="21" customFormat="1">
+      <c r="M163" s="19"/>
+      <c r="N163" s="19"/>
+    </row>
+    <row r="164" spans="1:14" s="21" customFormat="1">
       <c r="A164" s="16"/>
       <c r="B164" s="32"/>
       <c r="C164" s="19"/>
@@ -5806,8 +6129,10 @@
       <c r="J164" s="19"/>
       <c r="K164" s="19"/>
       <c r="L164" s="19"/>
-    </row>
-    <row r="165" spans="1:12" s="21" customFormat="1">
+      <c r="M164" s="19"/>
+      <c r="N164" s="19"/>
+    </row>
+    <row r="165" spans="1:14" s="21" customFormat="1">
       <c r="A165" s="16"/>
       <c r="B165" s="32"/>
       <c r="C165" s="19"/>
@@ -5820,8 +6145,10 @@
       <c r="J165" s="19"/>
       <c r="K165" s="19"/>
       <c r="L165" s="19"/>
-    </row>
-    <row r="166" spans="1:12" s="21" customFormat="1">
+      <c r="M165" s="19"/>
+      <c r="N165" s="19"/>
+    </row>
+    <row r="166" spans="1:14" s="21" customFormat="1">
       <c r="A166" s="16"/>
       <c r="B166" s="32"/>
       <c r="C166" s="19"/>
@@ -5834,8 +6161,10 @@
       <c r="J166" s="19"/>
       <c r="K166" s="19"/>
       <c r="L166" s="19"/>
-    </row>
-    <row r="167" spans="1:12" s="21" customFormat="1">
+      <c r="M166" s="19"/>
+      <c r="N166" s="19"/>
+    </row>
+    <row r="167" spans="1:14" s="21" customFormat="1">
       <c r="A167" s="16"/>
       <c r="B167" s="32"/>
       <c r="C167" s="19"/>
@@ -5848,8 +6177,10 @@
       <c r="J167" s="19"/>
       <c r="K167" s="19"/>
       <c r="L167" s="19"/>
-    </row>
-    <row r="168" spans="1:12" s="21" customFormat="1">
+      <c r="M167" s="19"/>
+      <c r="N167" s="19"/>
+    </row>
+    <row r="168" spans="1:14" s="21" customFormat="1">
       <c r="A168" s="16"/>
       <c r="B168" s="32"/>
       <c r="C168" s="19"/>
@@ -5862,8 +6193,10 @@
       <c r="J168" s="19"/>
       <c r="K168" s="19"/>
       <c r="L168" s="19"/>
-    </row>
-    <row r="169" spans="1:12" s="21" customFormat="1">
+      <c r="M168" s="19"/>
+      <c r="N168" s="19"/>
+    </row>
+    <row r="169" spans="1:14" s="21" customFormat="1">
       <c r="A169" s="16"/>
       <c r="B169" s="32"/>
       <c r="C169" s="19"/>
@@ -5876,8 +6209,10 @@
       <c r="J169" s="19"/>
       <c r="K169" s="19"/>
       <c r="L169" s="19"/>
-    </row>
-    <row r="170" spans="1:12" s="21" customFormat="1">
+      <c r="M169" s="19"/>
+      <c r="N169" s="19"/>
+    </row>
+    <row r="170" spans="1:14" s="21" customFormat="1">
       <c r="A170" s="16"/>
       <c r="B170" s="32"/>
       <c r="C170" s="19"/>
@@ -5890,8 +6225,10 @@
       <c r="J170" s="19"/>
       <c r="K170" s="19"/>
       <c r="L170" s="19"/>
-    </row>
-    <row r="171" spans="1:12" s="21" customFormat="1">
+      <c r="M170" s="19"/>
+      <c r="N170" s="19"/>
+    </row>
+    <row r="171" spans="1:14" s="21" customFormat="1">
       <c r="A171" s="16"/>
       <c r="B171" s="32"/>
       <c r="C171" s="19"/>
@@ -5904,8 +6241,10 @@
       <c r="J171" s="19"/>
       <c r="K171" s="19"/>
       <c r="L171" s="19"/>
-    </row>
-    <row r="172" spans="1:12" s="21" customFormat="1">
+      <c r="M171" s="19"/>
+      <c r="N171" s="19"/>
+    </row>
+    <row r="172" spans="1:14" s="21" customFormat="1">
       <c r="A172" s="16"/>
       <c r="B172" s="32"/>
       <c r="C172" s="19"/>
@@ -5918,8 +6257,10 @@
       <c r="J172" s="19"/>
       <c r="K172" s="19"/>
       <c r="L172" s="19"/>
-    </row>
-    <row r="173" spans="1:12" s="21" customFormat="1">
+      <c r="M172" s="19"/>
+      <c r="N172" s="19"/>
+    </row>
+    <row r="173" spans="1:14" s="21" customFormat="1">
       <c r="A173" s="16"/>
       <c r="B173" s="32"/>
       <c r="C173" s="19"/>
@@ -5932,8 +6273,10 @@
       <c r="J173" s="19"/>
       <c r="K173" s="19"/>
       <c r="L173" s="19"/>
-    </row>
-    <row r="174" spans="1:12" s="21" customFormat="1">
+      <c r="M173" s="19"/>
+      <c r="N173" s="19"/>
+    </row>
+    <row r="174" spans="1:14" s="21" customFormat="1">
       <c r="A174" s="16"/>
       <c r="B174" s="32"/>
       <c r="C174" s="19"/>
@@ -5946,8 +6289,10 @@
       <c r="J174" s="19"/>
       <c r="K174" s="19"/>
       <c r="L174" s="19"/>
-    </row>
-    <row r="175" spans="1:12" s="21" customFormat="1">
+      <c r="M174" s="19"/>
+      <c r="N174" s="19"/>
+    </row>
+    <row r="175" spans="1:14" s="21" customFormat="1">
       <c r="A175" s="16"/>
       <c r="B175" s="32"/>
       <c r="C175" s="19"/>
@@ -5960,8 +6305,10 @@
       <c r="J175" s="19"/>
       <c r="K175" s="19"/>
       <c r="L175" s="19"/>
-    </row>
-    <row r="176" spans="1:12" s="21" customFormat="1">
+      <c r="M175" s="19"/>
+      <c r="N175" s="19"/>
+    </row>
+    <row r="176" spans="1:14" s="21" customFormat="1">
       <c r="A176" s="16"/>
       <c r="B176" s="32"/>
       <c r="C176" s="19"/>
@@ -5974,8 +6321,10 @@
       <c r="J176" s="19"/>
       <c r="K176" s="19"/>
       <c r="L176" s="19"/>
-    </row>
-    <row r="177" spans="1:12" s="21" customFormat="1">
+      <c r="M176" s="19"/>
+      <c r="N176" s="19"/>
+    </row>
+    <row r="177" spans="1:14" s="21" customFormat="1">
       <c r="A177" s="16"/>
       <c r="B177" s="32"/>
       <c r="C177" s="19"/>
@@ -5988,8 +6337,10 @@
       <c r="J177" s="19"/>
       <c r="K177" s="19"/>
       <c r="L177" s="19"/>
-    </row>
-    <row r="178" spans="1:12" s="21" customFormat="1">
+      <c r="M177" s="19"/>
+      <c r="N177" s="19"/>
+    </row>
+    <row r="178" spans="1:14" s="21" customFormat="1">
       <c r="A178" s="16"/>
       <c r="B178" s="32"/>
       <c r="C178" s="19"/>
@@ -6002,8 +6353,10 @@
       <c r="J178" s="19"/>
       <c r="K178" s="19"/>
       <c r="L178" s="19"/>
-    </row>
-    <row r="179" spans="1:12" s="21" customFormat="1">
+      <c r="M178" s="19"/>
+      <c r="N178" s="19"/>
+    </row>
+    <row r="179" spans="1:14" s="21" customFormat="1">
       <c r="A179" s="16"/>
       <c r="B179" s="32"/>
       <c r="C179" s="19"/>
@@ -6016,8 +6369,10 @@
       <c r="J179" s="19"/>
       <c r="K179" s="19"/>
       <c r="L179" s="19"/>
-    </row>
-    <row r="180" spans="1:12" s="21" customFormat="1">
+      <c r="M179" s="19"/>
+      <c r="N179" s="19"/>
+    </row>
+    <row r="180" spans="1:14" s="21" customFormat="1">
       <c r="A180" s="16"/>
       <c r="B180" s="32"/>
       <c r="C180" s="19"/>
@@ -6030,8 +6385,10 @@
       <c r="J180" s="19"/>
       <c r="K180" s="19"/>
       <c r="L180" s="19"/>
-    </row>
-    <row r="181" spans="1:12" s="21" customFormat="1">
+      <c r="M180" s="19"/>
+      <c r="N180" s="19"/>
+    </row>
+    <row r="181" spans="1:14" s="21" customFormat="1">
       <c r="A181" s="16"/>
       <c r="B181" s="32"/>
       <c r="C181" s="19"/>
@@ -6044,8 +6401,10 @@
       <c r="J181" s="19"/>
       <c r="K181" s="19"/>
       <c r="L181" s="19"/>
-    </row>
-    <row r="182" spans="1:12" s="21" customFormat="1">
+      <c r="M181" s="19"/>
+      <c r="N181" s="19"/>
+    </row>
+    <row r="182" spans="1:14" s="21" customFormat="1">
       <c r="A182" s="16"/>
       <c r="B182" s="32"/>
       <c r="C182" s="19"/>
@@ -6058,8 +6417,10 @@
       <c r="J182" s="19"/>
       <c r="K182" s="19"/>
       <c r="L182" s="19"/>
-    </row>
-    <row r="183" spans="1:12" s="21" customFormat="1">
+      <c r="M182" s="19"/>
+      <c r="N182" s="19"/>
+    </row>
+    <row r="183" spans="1:14" s="21" customFormat="1">
       <c r="A183" s="16"/>
       <c r="B183" s="32"/>
       <c r="C183" s="19"/>
@@ -6072,8 +6433,10 @@
       <c r="J183" s="19"/>
       <c r="K183" s="19"/>
       <c r="L183" s="19"/>
-    </row>
-    <row r="184" spans="1:12" s="21" customFormat="1">
+      <c r="M183" s="19"/>
+      <c r="N183" s="19"/>
+    </row>
+    <row r="184" spans="1:14" s="21" customFormat="1">
       <c r="A184" s="16"/>
       <c r="B184" s="32"/>
       <c r="C184" s="19"/>
@@ -6086,8 +6449,10 @@
       <c r="J184" s="19"/>
       <c r="K184" s="19"/>
       <c r="L184" s="19"/>
-    </row>
-    <row r="185" spans="1:12" s="21" customFormat="1">
+      <c r="M184" s="19"/>
+      <c r="N184" s="19"/>
+    </row>
+    <row r="185" spans="1:14" s="21" customFormat="1">
       <c r="A185" s="16"/>
       <c r="B185" s="32"/>
       <c r="C185" s="19"/>
@@ -6100,8 +6465,10 @@
       <c r="J185" s="19"/>
       <c r="K185" s="19"/>
       <c r="L185" s="19"/>
-    </row>
-    <row r="186" spans="1:12" s="21" customFormat="1">
+      <c r="M185" s="19"/>
+      <c r="N185" s="19"/>
+    </row>
+    <row r="186" spans="1:14" s="21" customFormat="1">
       <c r="A186" s="16"/>
       <c r="B186" s="32"/>
       <c r="C186" s="19"/>
@@ -6114,8 +6481,10 @@
       <c r="J186" s="19"/>
       <c r="K186" s="19"/>
       <c r="L186" s="19"/>
-    </row>
-    <row r="187" spans="1:12" s="21" customFormat="1">
+      <c r="M186" s="19"/>
+      <c r="N186" s="19"/>
+    </row>
+    <row r="187" spans="1:14" s="21" customFormat="1">
       <c r="A187" s="16"/>
       <c r="B187" s="32"/>
       <c r="C187" s="19"/>
@@ -6128,8 +6497,10 @@
       <c r="J187" s="19"/>
       <c r="K187" s="19"/>
       <c r="L187" s="19"/>
-    </row>
-    <row r="188" spans="1:12" s="21" customFormat="1">
+      <c r="M187" s="19"/>
+      <c r="N187" s="19"/>
+    </row>
+    <row r="188" spans="1:14" s="21" customFormat="1">
       <c r="A188" s="16"/>
       <c r="B188" s="32"/>
       <c r="C188" s="19"/>
@@ -6142,8 +6513,10 @@
       <c r="J188" s="19"/>
       <c r="K188" s="19"/>
       <c r="L188" s="19"/>
-    </row>
-    <row r="189" spans="1:12" s="21" customFormat="1">
+      <c r="M188" s="19"/>
+      <c r="N188" s="19"/>
+    </row>
+    <row r="189" spans="1:14" s="21" customFormat="1">
       <c r="A189" s="16"/>
       <c r="B189" s="32"/>
       <c r="C189" s="19"/>
@@ -6156,8 +6529,10 @@
       <c r="J189" s="19"/>
       <c r="K189" s="19"/>
       <c r="L189" s="19"/>
-    </row>
-    <row r="190" spans="1:12" s="21" customFormat="1">
+      <c r="M189" s="19"/>
+      <c r="N189" s="19"/>
+    </row>
+    <row r="190" spans="1:14" s="21" customFormat="1">
       <c r="A190" s="16"/>
       <c r="B190" s="32"/>
       <c r="C190" s="19"/>
@@ -6170,8 +6545,10 @@
       <c r="J190" s="19"/>
       <c r="K190" s="19"/>
       <c r="L190" s="19"/>
-    </row>
-    <row r="191" spans="1:12" s="21" customFormat="1">
+      <c r="M190" s="19"/>
+      <c r="N190" s="19"/>
+    </row>
+    <row r="191" spans="1:14" s="21" customFormat="1">
       <c r="A191" s="16"/>
       <c r="B191" s="32"/>
       <c r="C191" s="19"/>
@@ -6184,8 +6561,10 @@
       <c r="J191" s="19"/>
       <c r="K191" s="19"/>
       <c r="L191" s="19"/>
-    </row>
-    <row r="192" spans="1:12" s="21" customFormat="1">
+      <c r="M191" s="19"/>
+      <c r="N191" s="19"/>
+    </row>
+    <row r="192" spans="1:14" s="21" customFormat="1">
       <c r="A192" s="16"/>
       <c r="B192" s="32"/>
       <c r="C192" s="19"/>
@@ -6198,8 +6577,10 @@
       <c r="J192" s="19"/>
       <c r="K192" s="19"/>
       <c r="L192" s="19"/>
-    </row>
-    <row r="193" spans="1:12" s="21" customFormat="1">
+      <c r="M192" s="19"/>
+      <c r="N192" s="19"/>
+    </row>
+    <row r="193" spans="1:14" s="21" customFormat="1">
       <c r="A193" s="16"/>
       <c r="B193" s="32"/>
       <c r="C193" s="19"/>
@@ -6212,8 +6593,10 @@
       <c r="J193" s="19"/>
       <c r="K193" s="19"/>
       <c r="L193" s="19"/>
-    </row>
-    <row r="194" spans="1:12" s="21" customFormat="1">
+      <c r="M193" s="19"/>
+      <c r="N193" s="19"/>
+    </row>
+    <row r="194" spans="1:14" s="21" customFormat="1">
       <c r="A194" s="16"/>
       <c r="B194" s="32"/>
       <c r="C194" s="19"/>
@@ -6226,8 +6609,10 @@
       <c r="J194" s="19"/>
       <c r="K194" s="19"/>
       <c r="L194" s="19"/>
-    </row>
-    <row r="195" spans="1:12" s="21" customFormat="1">
+      <c r="M194" s="19"/>
+      <c r="N194" s="19"/>
+    </row>
+    <row r="195" spans="1:14" s="21" customFormat="1">
       <c r="A195" s="16"/>
       <c r="B195" s="32"/>
       <c r="C195" s="19"/>
@@ -6240,8 +6625,10 @@
       <c r="J195" s="19"/>
       <c r="K195" s="19"/>
       <c r="L195" s="19"/>
-    </row>
-    <row r="196" spans="1:12" s="21" customFormat="1">
+      <c r="M195" s="19"/>
+      <c r="N195" s="19"/>
+    </row>
+    <row r="196" spans="1:14" s="21" customFormat="1">
       <c r="A196" s="16"/>
       <c r="B196" s="32"/>
       <c r="C196" s="19"/>
@@ -6254,8 +6641,10 @@
       <c r="J196" s="19"/>
       <c r="K196" s="19"/>
       <c r="L196" s="19"/>
-    </row>
-    <row r="197" spans="1:12" s="21" customFormat="1">
+      <c r="M196" s="19"/>
+      <c r="N196" s="19"/>
+    </row>
+    <row r="197" spans="1:14" s="21" customFormat="1">
       <c r="A197" s="16"/>
       <c r="B197" s="32"/>
       <c r="C197" s="19"/>
@@ -6268,8 +6657,10 @@
       <c r="J197" s="19"/>
       <c r="K197" s="19"/>
       <c r="L197" s="19"/>
-    </row>
-    <row r="198" spans="1:12" s="21" customFormat="1">
+      <c r="M197" s="19"/>
+      <c r="N197" s="19"/>
+    </row>
+    <row r="198" spans="1:14" s="21" customFormat="1">
       <c r="A198" s="16"/>
       <c r="B198" s="32"/>
       <c r="C198" s="19"/>
@@ -6282,8 +6673,10 @@
       <c r="J198" s="19"/>
       <c r="K198" s="19"/>
       <c r="L198" s="19"/>
-    </row>
-    <row r="199" spans="1:12" s="21" customFormat="1">
+      <c r="M198" s="19"/>
+      <c r="N198" s="19"/>
+    </row>
+    <row r="199" spans="1:14" s="21" customFormat="1">
       <c r="A199" s="16"/>
       <c r="B199" s="32"/>
       <c r="C199" s="19"/>
@@ -6296,8 +6689,10 @@
       <c r="J199" s="19"/>
       <c r="K199" s="19"/>
       <c r="L199" s="19"/>
-    </row>
-    <row r="200" spans="1:12" s="21" customFormat="1">
+      <c r="M199" s="19"/>
+      <c r="N199" s="19"/>
+    </row>
+    <row r="200" spans="1:14" s="21" customFormat="1">
       <c r="A200" s="16"/>
       <c r="B200" s="32"/>
       <c r="C200" s="19"/>
@@ -6310,8 +6705,10 @@
       <c r="J200" s="19"/>
       <c r="K200" s="19"/>
       <c r="L200" s="19"/>
-    </row>
-    <row r="201" spans="1:12" s="21" customFormat="1">
+      <c r="M200" s="19"/>
+      <c r="N200" s="19"/>
+    </row>
+    <row r="201" spans="1:14" s="21" customFormat="1">
       <c r="A201" s="16"/>
       <c r="B201" s="32"/>
       <c r="C201" s="19"/>
@@ -6324,8 +6721,10 @@
       <c r="J201" s="19"/>
       <c r="K201" s="19"/>
       <c r="L201" s="19"/>
-    </row>
-    <row r="202" spans="1:12" s="21" customFormat="1">
+      <c r="M201" s="19"/>
+      <c r="N201" s="19"/>
+    </row>
+    <row r="202" spans="1:14" s="21" customFormat="1">
       <c r="A202" s="16"/>
       <c r="B202" s="32"/>
       <c r="C202" s="19"/>
@@ -6338,8 +6737,10 @@
       <c r="J202" s="19"/>
       <c r="K202" s="19"/>
       <c r="L202" s="19"/>
-    </row>
-    <row r="203" spans="1:12" s="21" customFormat="1">
+      <c r="M202" s="19"/>
+      <c r="N202" s="19"/>
+    </row>
+    <row r="203" spans="1:14" s="21" customFormat="1">
       <c r="A203" s="16"/>
       <c r="B203" s="32"/>
       <c r="C203" s="19"/>
@@ -6352,8 +6753,10 @@
       <c r="J203" s="19"/>
       <c r="K203" s="19"/>
       <c r="L203" s="19"/>
-    </row>
-    <row r="204" spans="1:12" s="21" customFormat="1">
+      <c r="M203" s="19"/>
+      <c r="N203" s="19"/>
+    </row>
+    <row r="204" spans="1:14" s="21" customFormat="1">
       <c r="A204" s="16"/>
       <c r="B204" s="32"/>
       <c r="C204" s="19"/>
@@ -6366,8 +6769,10 @@
       <c r="J204" s="19"/>
       <c r="K204" s="19"/>
       <c r="L204" s="19"/>
-    </row>
-    <row r="205" spans="1:12" s="21" customFormat="1">
+      <c r="M204" s="19"/>
+      <c r="N204" s="19"/>
+    </row>
+    <row r="205" spans="1:14" s="21" customFormat="1">
       <c r="A205" s="16"/>
       <c r="B205" s="32"/>
       <c r="C205" s="19"/>
@@ -6380,8 +6785,10 @@
       <c r="J205" s="19"/>
       <c r="K205" s="19"/>
       <c r="L205" s="19"/>
-    </row>
-    <row r="206" spans="1:12" s="21" customFormat="1">
+      <c r="M205" s="19"/>
+      <c r="N205" s="19"/>
+    </row>
+    <row r="206" spans="1:14" s="21" customFormat="1">
       <c r="A206" s="16"/>
       <c r="B206" s="32"/>
       <c r="C206" s="19"/>
@@ -6394,8 +6801,10 @@
       <c r="J206" s="19"/>
       <c r="K206" s="19"/>
       <c r="L206" s="19"/>
-    </row>
-    <row r="207" spans="1:12" s="21" customFormat="1">
+      <c r="M206" s="19"/>
+      <c r="N206" s="19"/>
+    </row>
+    <row r="207" spans="1:14" s="21" customFormat="1">
       <c r="A207" s="16"/>
       <c r="B207" s="32"/>
       <c r="C207" s="19"/>
@@ -6408,8 +6817,10 @@
       <c r="J207" s="19"/>
       <c r="K207" s="19"/>
       <c r="L207" s="19"/>
-    </row>
-    <row r="208" spans="1:12" s="21" customFormat="1">
+      <c r="M207" s="19"/>
+      <c r="N207" s="19"/>
+    </row>
+    <row r="208" spans="1:14" s="21" customFormat="1">
       <c r="A208" s="16"/>
       <c r="B208" s="32"/>
       <c r="C208" s="19"/>
@@ -6422,8 +6833,10 @@
       <c r="J208" s="19"/>
       <c r="K208" s="19"/>
       <c r="L208" s="19"/>
-    </row>
-    <row r="209" spans="1:12" s="21" customFormat="1">
+      <c r="M208" s="19"/>
+      <c r="N208" s="19"/>
+    </row>
+    <row r="209" spans="1:14" s="21" customFormat="1">
       <c r="A209" s="16"/>
       <c r="B209" s="32"/>
       <c r="C209" s="19"/>
@@ -6436,8 +6849,10 @@
       <c r="J209" s="19"/>
       <c r="K209" s="19"/>
       <c r="L209" s="19"/>
-    </row>
-    <row r="210" spans="1:12" s="21" customFormat="1">
+      <c r="M209" s="19"/>
+      <c r="N209" s="19"/>
+    </row>
+    <row r="210" spans="1:14" s="21" customFormat="1">
       <c r="A210" s="16"/>
       <c r="B210" s="32"/>
       <c r="C210" s="19"/>
@@ -6450,8 +6865,10 @@
       <c r="J210" s="19"/>
       <c r="K210" s="19"/>
       <c r="L210" s="19"/>
-    </row>
-    <row r="211" spans="1:12" s="21" customFormat="1">
+      <c r="M210" s="19"/>
+      <c r="N210" s="19"/>
+    </row>
+    <row r="211" spans="1:14" s="21" customFormat="1">
       <c r="A211" s="16"/>
       <c r="B211" s="32"/>
       <c r="C211" s="19"/>
@@ -6464,8 +6881,10 @@
       <c r="J211" s="19"/>
       <c r="K211" s="19"/>
       <c r="L211" s="19"/>
-    </row>
-    <row r="212" spans="1:12" s="21" customFormat="1">
+      <c r="M211" s="19"/>
+      <c r="N211" s="19"/>
+    </row>
+    <row r="212" spans="1:14" s="21" customFormat="1">
       <c r="A212" s="16"/>
       <c r="B212" s="32"/>
       <c r="C212" s="19"/>
@@ -6478,8 +6897,10 @@
       <c r="J212" s="19"/>
       <c r="K212" s="19"/>
       <c r="L212" s="19"/>
-    </row>
-    <row r="213" spans="1:12" s="21" customFormat="1">
+      <c r="M212" s="19"/>
+      <c r="N212" s="19"/>
+    </row>
+    <row r="213" spans="1:14" s="21" customFormat="1">
       <c r="A213" s="16"/>
       <c r="B213" s="32"/>
       <c r="C213" s="19"/>
@@ -6492,8 +6913,10 @@
       <c r="J213" s="19"/>
       <c r="K213" s="19"/>
       <c r="L213" s="19"/>
-    </row>
-    <row r="214" spans="1:12" s="21" customFormat="1">
+      <c r="M213" s="19"/>
+      <c r="N213" s="19"/>
+    </row>
+    <row r="214" spans="1:14" s="21" customFormat="1">
       <c r="A214" s="16"/>
       <c r="B214" s="32"/>
       <c r="C214" s="19"/>
@@ -6506,8 +6929,10 @@
       <c r="J214" s="19"/>
       <c r="K214" s="19"/>
       <c r="L214" s="19"/>
-    </row>
-    <row r="215" spans="1:12" s="21" customFormat="1">
+      <c r="M214" s="19"/>
+      <c r="N214" s="19"/>
+    </row>
+    <row r="215" spans="1:14" s="21" customFormat="1">
       <c r="A215" s="16"/>
       <c r="B215" s="32"/>
       <c r="C215" s="19"/>
@@ -6520,8 +6945,10 @@
       <c r="J215" s="19"/>
       <c r="K215" s="19"/>
       <c r="L215" s="19"/>
-    </row>
-    <row r="216" spans="1:12" s="21" customFormat="1">
+      <c r="M215" s="19"/>
+      <c r="N215" s="19"/>
+    </row>
+    <row r="216" spans="1:14" s="21" customFormat="1">
       <c r="A216" s="16"/>
       <c r="B216" s="32"/>
       <c r="C216" s="19"/>
@@ -6534,8 +6961,10 @@
       <c r="J216" s="19"/>
       <c r="K216" s="19"/>
       <c r="L216" s="19"/>
-    </row>
-    <row r="217" spans="1:12" s="21" customFormat="1">
+      <c r="M216" s="19"/>
+      <c r="N216" s="19"/>
+    </row>
+    <row r="217" spans="1:14" s="21" customFormat="1">
       <c r="A217" s="16"/>
       <c r="B217" s="32"/>
       <c r="C217" s="19"/>
@@ -6548,8 +6977,10 @@
       <c r="J217" s="19"/>
       <c r="K217" s="19"/>
       <c r="L217" s="19"/>
-    </row>
-    <row r="218" spans="1:12" s="21" customFormat="1">
+      <c r="M217" s="19"/>
+      <c r="N217" s="19"/>
+    </row>
+    <row r="218" spans="1:14" s="21" customFormat="1">
       <c r="A218" s="16"/>
       <c r="B218" s="32"/>
       <c r="C218" s="19"/>
@@ -6562,8 +6993,10 @@
       <c r="J218" s="19"/>
       <c r="K218" s="19"/>
       <c r="L218" s="19"/>
-    </row>
-    <row r="219" spans="1:12" s="21" customFormat="1">
+      <c r="M218" s="19"/>
+      <c r="N218" s="19"/>
+    </row>
+    <row r="219" spans="1:14" s="21" customFormat="1">
       <c r="A219" s="16"/>
       <c r="B219" s="32"/>
       <c r="C219" s="19"/>
@@ -6576,8 +7009,10 @@
       <c r="J219" s="19"/>
       <c r="K219" s="19"/>
       <c r="L219" s="19"/>
-    </row>
-    <row r="220" spans="1:12" s="21" customFormat="1">
+      <c r="M219" s="19"/>
+      <c r="N219" s="19"/>
+    </row>
+    <row r="220" spans="1:14" s="21" customFormat="1">
       <c r="A220" s="16"/>
       <c r="B220" s="32"/>
       <c r="C220" s="19"/>
@@ -6590,8 +7025,10 @@
       <c r="J220" s="19"/>
       <c r="K220" s="19"/>
       <c r="L220" s="19"/>
-    </row>
-    <row r="221" spans="1:12" s="21" customFormat="1">
+      <c r="M220" s="19"/>
+      <c r="N220" s="19"/>
+    </row>
+    <row r="221" spans="1:14" s="21" customFormat="1">
       <c r="A221" s="16"/>
       <c r="B221" s="32"/>
       <c r="C221" s="19"/>
@@ -6604,8 +7041,10 @@
       <c r="J221" s="19"/>
       <c r="K221" s="19"/>
       <c r="L221" s="19"/>
-    </row>
-    <row r="222" spans="1:12" s="21" customFormat="1">
+      <c r="M221" s="19"/>
+      <c r="N221" s="19"/>
+    </row>
+    <row r="222" spans="1:14" s="21" customFormat="1">
       <c r="A222" s="16"/>
       <c r="B222" s="32"/>
       <c r="C222" s="19"/>
@@ -6618,8 +7057,10 @@
       <c r="J222" s="19"/>
       <c r="K222" s="19"/>
       <c r="L222" s="19"/>
-    </row>
-    <row r="223" spans="1:12" s="21" customFormat="1">
+      <c r="M222" s="19"/>
+      <c r="N222" s="19"/>
+    </row>
+    <row r="223" spans="1:14" s="21" customFormat="1">
       <c r="A223" s="16"/>
       <c r="B223" s="32"/>
       <c r="C223" s="19"/>
@@ -6632,8 +7073,10 @@
       <c r="J223" s="19"/>
       <c r="K223" s="19"/>
       <c r="L223" s="19"/>
-    </row>
-    <row r="224" spans="1:12" s="21" customFormat="1">
+      <c r="M223" s="19"/>
+      <c r="N223" s="19"/>
+    </row>
+    <row r="224" spans="1:14" s="21" customFormat="1">
       <c r="A224" s="16"/>
       <c r="B224" s="32"/>
       <c r="C224" s="19"/>
@@ -6646,8 +7089,10 @@
       <c r="J224" s="19"/>
       <c r="K224" s="19"/>
       <c r="L224" s="19"/>
-    </row>
-    <row r="225" spans="1:12" s="21" customFormat="1">
+      <c r="M224" s="19"/>
+      <c r="N224" s="19"/>
+    </row>
+    <row r="225" spans="1:14" s="21" customFormat="1">
       <c r="A225" s="16"/>
       <c r="B225" s="32"/>
       <c r="C225" s="19"/>
@@ -6660,8 +7105,10 @@
       <c r="J225" s="19"/>
       <c r="K225" s="19"/>
       <c r="L225" s="19"/>
-    </row>
-    <row r="226" spans="1:12" s="21" customFormat="1">
+      <c r="M225" s="19"/>
+      <c r="N225" s="19"/>
+    </row>
+    <row r="226" spans="1:14" s="21" customFormat="1">
       <c r="A226" s="16"/>
       <c r="B226" s="32"/>
       <c r="C226" s="19"/>
@@ -6674,8 +7121,10 @@
       <c r="J226" s="19"/>
       <c r="K226" s="19"/>
       <c r="L226" s="19"/>
-    </row>
-    <row r="227" spans="1:12" s="21" customFormat="1">
+      <c r="M226" s="19"/>
+      <c r="N226" s="19"/>
+    </row>
+    <row r="227" spans="1:14" s="21" customFormat="1">
       <c r="A227" s="16"/>
       <c r="B227" s="32"/>
       <c r="C227" s="19"/>
@@ -6688,8 +7137,10 @@
       <c r="J227" s="19"/>
       <c r="K227" s="19"/>
       <c r="L227" s="19"/>
-    </row>
-    <row r="228" spans="1:12" s="21" customFormat="1">
+      <c r="M227" s="19"/>
+      <c r="N227" s="19"/>
+    </row>
+    <row r="228" spans="1:14" s="21" customFormat="1">
       <c r="A228" s="16"/>
       <c r="B228" s="32"/>
       <c r="C228" s="19"/>
@@ -6702,8 +7153,10 @@
       <c r="J228" s="19"/>
       <c r="K228" s="19"/>
       <c r="L228" s="19"/>
-    </row>
-    <row r="229" spans="1:12" s="21" customFormat="1">
+      <c r="M228" s="19"/>
+      <c r="N228" s="19"/>
+    </row>
+    <row r="229" spans="1:14" s="21" customFormat="1">
       <c r="A229" s="16"/>
       <c r="B229" s="32"/>
       <c r="C229" s="19"/>
@@ -6716,8 +7169,10 @@
       <c r="J229" s="19"/>
       <c r="K229" s="19"/>
       <c r="L229" s="19"/>
-    </row>
-    <row r="230" spans="1:12" s="21" customFormat="1">
+      <c r="M229" s="19"/>
+      <c r="N229" s="19"/>
+    </row>
+    <row r="230" spans="1:14" s="21" customFormat="1">
       <c r="A230" s="16"/>
       <c r="B230" s="32"/>
       <c r="C230" s="19"/>
@@ -6730,8 +7185,10 @@
       <c r="J230" s="19"/>
       <c r="K230" s="19"/>
       <c r="L230" s="19"/>
-    </row>
-    <row r="231" spans="1:12" s="21" customFormat="1">
+      <c r="M230" s="19"/>
+      <c r="N230" s="19"/>
+    </row>
+    <row r="231" spans="1:14" s="21" customFormat="1">
       <c r="A231" s="16"/>
       <c r="B231" s="32"/>
       <c r="C231" s="19"/>
@@ -6744,8 +7201,10 @@
       <c r="J231" s="19"/>
       <c r="K231" s="19"/>
       <c r="L231" s="19"/>
-    </row>
-    <row r="232" spans="1:12" s="21" customFormat="1">
+      <c r="M231" s="19"/>
+      <c r="N231" s="19"/>
+    </row>
+    <row r="232" spans="1:14" s="21" customFormat="1">
       <c r="A232" s="16"/>
       <c r="B232" s="32"/>
       <c r="C232" s="19"/>
@@ -6758,8 +7217,10 @@
       <c r="J232" s="19"/>
       <c r="K232" s="19"/>
       <c r="L232" s="19"/>
-    </row>
-    <row r="233" spans="1:12" s="21" customFormat="1">
+      <c r="M232" s="19"/>
+      <c r="N232" s="19"/>
+    </row>
+    <row r="233" spans="1:14" s="21" customFormat="1">
       <c r="A233" s="16"/>
       <c r="B233" s="32"/>
       <c r="C233" s="19"/>
@@ -6772,8 +7233,10 @@
       <c r="J233" s="19"/>
       <c r="K233" s="19"/>
       <c r="L233" s="19"/>
-    </row>
-    <row r="234" spans="1:12" s="21" customFormat="1">
+      <c r="M233" s="19"/>
+      <c r="N233" s="19"/>
+    </row>
+    <row r="234" spans="1:14" s="21" customFormat="1">
       <c r="A234" s="16"/>
       <c r="B234" s="32"/>
       <c r="C234" s="19"/>
@@ -6786,8 +7249,10 @@
       <c r="J234" s="19"/>
       <c r="K234" s="19"/>
       <c r="L234" s="19"/>
-    </row>
-    <row r="235" spans="1:12" s="21" customFormat="1">
+      <c r="M234" s="19"/>
+      <c r="N234" s="19"/>
+    </row>
+    <row r="235" spans="1:14" s="21" customFormat="1">
       <c r="A235" s="16"/>
       <c r="B235" s="32"/>
       <c r="C235" s="19"/>
@@ -6800,8 +7265,10 @@
       <c r="J235" s="19"/>
       <c r="K235" s="19"/>
       <c r="L235" s="19"/>
-    </row>
-    <row r="236" spans="1:12" s="21" customFormat="1">
+      <c r="M235" s="19"/>
+      <c r="N235" s="19"/>
+    </row>
+    <row r="236" spans="1:14" s="21" customFormat="1">
       <c r="A236" s="16"/>
       <c r="B236" s="32"/>
       <c r="C236" s="19"/>
@@ -6814,8 +7281,10 @@
       <c r="J236" s="19"/>
       <c r="K236" s="19"/>
       <c r="L236" s="19"/>
-    </row>
-    <row r="237" spans="1:12" s="21" customFormat="1">
+      <c r="M236" s="19"/>
+      <c r="N236" s="19"/>
+    </row>
+    <row r="237" spans="1:14" s="21" customFormat="1">
       <c r="A237" s="16"/>
       <c r="B237" s="32"/>
       <c r="C237" s="19"/>
@@ -6828,8 +7297,10 @@
       <c r="J237" s="19"/>
       <c r="K237" s="19"/>
       <c r="L237" s="19"/>
-    </row>
-    <row r="238" spans="1:12" s="21" customFormat="1">
+      <c r="M237" s="19"/>
+      <c r="N237" s="19"/>
+    </row>
+    <row r="238" spans="1:14" s="21" customFormat="1">
       <c r="A238" s="16"/>
       <c r="B238" s="32"/>
       <c r="C238" s="19"/>
@@ -6842,8 +7313,10 @@
       <c r="J238" s="19"/>
       <c r="K238" s="19"/>
       <c r="L238" s="19"/>
-    </row>
-    <row r="239" spans="1:12" s="21" customFormat="1">
+      <c r="M238" s="19"/>
+      <c r="N238" s="19"/>
+    </row>
+    <row r="239" spans="1:14" s="21" customFormat="1">
       <c r="A239" s="16"/>
       <c r="B239" s="32"/>
       <c r="C239" s="19"/>
@@ -6856,8 +7329,10 @@
       <c r="J239" s="19"/>
       <c r="K239" s="19"/>
       <c r="L239" s="19"/>
-    </row>
-    <row r="240" spans="1:12" s="21" customFormat="1">
+      <c r="M239" s="19"/>
+      <c r="N239" s="19"/>
+    </row>
+    <row r="240" spans="1:14" s="21" customFormat="1">
       <c r="A240" s="16"/>
       <c r="B240" s="32"/>
       <c r="C240" s="19"/>
@@ -6870,8 +7345,10 @@
       <c r="J240" s="19"/>
       <c r="K240" s="19"/>
       <c r="L240" s="19"/>
-    </row>
-    <row r="241" spans="1:12" s="21" customFormat="1">
+      <c r="M240" s="19"/>
+      <c r="N240" s="19"/>
+    </row>
+    <row r="241" spans="1:14" s="21" customFormat="1">
       <c r="A241" s="16"/>
       <c r="B241" s="32"/>
       <c r="C241" s="19"/>
@@ -6884,8 +7361,10 @@
       <c r="J241" s="19"/>
       <c r="K241" s="19"/>
       <c r="L241" s="19"/>
-    </row>
-    <row r="242" spans="1:12" s="21" customFormat="1">
+      <c r="M241" s="19"/>
+      <c r="N241" s="19"/>
+    </row>
+    <row r="242" spans="1:14" s="21" customFormat="1">
       <c r="A242" s="16"/>
       <c r="B242" s="32"/>
       <c r="C242" s="19"/>
@@ -6898,8 +7377,10 @@
       <c r="J242" s="19"/>
       <c r="K242" s="19"/>
       <c r="L242" s="19"/>
-    </row>
-    <row r="243" spans="1:12" s="21" customFormat="1">
+      <c r="M242" s="19"/>
+      <c r="N242" s="19"/>
+    </row>
+    <row r="243" spans="1:14" s="21" customFormat="1">
       <c r="A243" s="16"/>
       <c r="B243" s="32"/>
       <c r="C243" s="19"/>
@@ -6912,8 +7393,10 @@
       <c r="J243" s="19"/>
       <c r="K243" s="19"/>
       <c r="L243" s="19"/>
-    </row>
-    <row r="244" spans="1:12" s="21" customFormat="1">
+      <c r="M243" s="19"/>
+      <c r="N243" s="19"/>
+    </row>
+    <row r="244" spans="1:14" s="21" customFormat="1">
       <c r="A244" s="16"/>
       <c r="B244" s="32"/>
       <c r="C244" s="19"/>
@@ -6926,8 +7409,10 @@
       <c r="J244" s="19"/>
       <c r="K244" s="19"/>
       <c r="L244" s="19"/>
-    </row>
-    <row r="245" spans="1:12" s="21" customFormat="1">
+      <c r="M244" s="19"/>
+      <c r="N244" s="19"/>
+    </row>
+    <row r="245" spans="1:14" s="21" customFormat="1">
       <c r="A245" s="16"/>
       <c r="B245" s="32"/>
       <c r="C245" s="19"/>
@@ -6940,8 +7425,10 @@
       <c r="J245" s="19"/>
       <c r="K245" s="19"/>
       <c r="L245" s="19"/>
-    </row>
-    <row r="246" spans="1:12" s="21" customFormat="1">
+      <c r="M245" s="19"/>
+      <c r="N245" s="19"/>
+    </row>
+    <row r="246" spans="1:14" s="21" customFormat="1">
       <c r="A246" s="16"/>
       <c r="B246" s="32"/>
       <c r="C246" s="19"/>
@@ -6954,8 +7441,10 @@
       <c r="J246" s="19"/>
       <c r="K246" s="19"/>
       <c r="L246" s="19"/>
-    </row>
-    <row r="247" spans="1:12" s="21" customFormat="1">
+      <c r="M246" s="19"/>
+      <c r="N246" s="19"/>
+    </row>
+    <row r="247" spans="1:14" s="21" customFormat="1">
       <c r="A247" s="16"/>
       <c r="B247" s="32"/>
       <c r="C247" s="19"/>
@@ -6968,15 +7457,17 @@
       <c r="J247" s="19"/>
       <c r="K247" s="19"/>
       <c r="L247" s="19"/>
+      <c r="M247" s="19"/>
+      <c r="N247" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L137" xr:uid="{FC53FE51-499F-455E-A7E6-F1D07BD2D00B}"/>
-  <sortState ref="B15:L84">
+  <autoFilter ref="A1:M137" xr:uid="{FC53FE51-499F-455E-A7E6-F1D07BD2D00B}"/>
+  <sortState ref="B15:M84">
     <sortCondition ref="B15:B84"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="K91" r:id="rId1" tooltip="Go to external page" display="http://purl.obolibrary.org/obo/NCIT_C73529" xr:uid="{D7391F6B-F736-4C35-B8D3-8F13E41BCED8}"/>
-    <hyperlink ref="K74" r:id="rId2" tooltip="Go to external page" display="http://purl.obolibrary.org/obo/NBO_0000616" xr:uid="{2E5C5EA4-D4F4-4BE3-A044-2FB4AA75159C}"/>
+    <hyperlink ref="L91" r:id="rId1" tooltip="Go to external page" display="http://purl.obolibrary.org/obo/NCIT_C73529" xr:uid="{D7391F6B-F736-4C35-B8D3-8F13E41BCED8}"/>
+    <hyperlink ref="L74" r:id="rId2" tooltip="Go to external page" display="http://purl.obolibrary.org/obo/NBO_0000616" xr:uid="{2E5C5EA4-D4F4-4BE3-A044-2FB4AA75159C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -6984,6 +7475,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac97e7bc-1267-463a-8e0a-d8030d117d70">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fa734e6e-2dd8-4275-9b08-04e206339f53" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AC046B428994B048B5D1607E2BC0A9EE" ma:contentTypeVersion="" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c5f17d523f4bb398f91136cd92b84f92">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fa734e6e-2dd8-4275-9b08-04e206339f53" xmlns:ns3="ac97e7bc-1267-463a-8e0a-d8030d117d70" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f28783fd6a80b39f8d4fe1d348e5696" ns2:_="" ns3:_="">
     <xsd:import namespace="fa734e6e-2dd8-4275-9b08-04e206339f53"/>
@@ -7226,17 +7728,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac97e7bc-1267-463a-8e0a-d8030d117d70">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fa734e6e-2dd8-4275-9b08-04e206339f53" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -7247,6 +7738,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F0702E8-21BE-4DA6-837E-6A379E2F4D51}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="fa734e6e-2dd8-4275-9b08-04e206339f53"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ac97e7bc-1267-463a-8e0a-d8030d117d70"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B782CAF-8DBC-42DB-AD00-B2004C892E95}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7265,23 +7773,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F0702E8-21BE-4DA6-837E-6A379E2F4D51}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="fa734e6e-2dd8-4275-9b08-04e206339f53"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ac97e7bc-1267-463a-8e0a-d8030d117d70"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD797B3C-3CB4-4831-98A4-10EC1DA89AE0}">
   <ds:schemaRefs>

--- a/StyleOfDelivery/BCIO_Style.xlsx
+++ b/StyleOfDelivery/BCIO_Style.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/HBCP/ontologies/StyleOfDelivery/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C2A6F6-C155-E149-A740-2665D7F65295}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BB01FD-534F-A04E-A27F-40A7740BD5C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14740" xr2:uid="{BE4A7E0B-23FD-4CB1-9C06-787CF800FEE2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="514">
   <si>
     <t>Label</t>
   </si>
@@ -1197,6 +1197,402 @@
   </si>
   <si>
     <t>Comment</t>
+  </si>
+  <si>
+    <t>Proposed</t>
+  </si>
+  <si>
+    <t>BCIO:045000</t>
+  </si>
+  <si>
+    <t>BCIO:044001</t>
+  </si>
+  <si>
+    <t>BCIO:044002</t>
+  </si>
+  <si>
+    <t>BCIO:044003</t>
+  </si>
+  <si>
+    <t>BCIO:044004</t>
+  </si>
+  <si>
+    <t>BCIO:044005</t>
+  </si>
+  <si>
+    <t>BCIO:044006</t>
+  </si>
+  <si>
+    <t>BCIO:044007</t>
+  </si>
+  <si>
+    <t>BCIO:044008</t>
+  </si>
+  <si>
+    <t>BCIO:044009</t>
+  </si>
+  <si>
+    <t>BCIO:044010</t>
+  </si>
+  <si>
+    <t>BCIO:044011</t>
+  </si>
+  <si>
+    <t>BCIO:044012</t>
+  </si>
+  <si>
+    <t>BCIO:044013</t>
+  </si>
+  <si>
+    <t>BCIO:044014</t>
+  </si>
+  <si>
+    <t>BCIO:044015</t>
+  </si>
+  <si>
+    <t>BCIO:044016</t>
+  </si>
+  <si>
+    <t>BCIO:044017</t>
+  </si>
+  <si>
+    <t>BCIO:044018</t>
+  </si>
+  <si>
+    <t>BCIO:044019</t>
+  </si>
+  <si>
+    <t>BCIO:044020</t>
+  </si>
+  <si>
+    <t>BCIO:044021</t>
+  </si>
+  <si>
+    <t>BCIO:044022</t>
+  </si>
+  <si>
+    <t>BCIO:044023</t>
+  </si>
+  <si>
+    <t>BCIO:044024</t>
+  </si>
+  <si>
+    <t>BCIO:044025</t>
+  </si>
+  <si>
+    <t>BCIO:044026</t>
+  </si>
+  <si>
+    <t>BCIO:044027</t>
+  </si>
+  <si>
+    <t>BCIO:044028</t>
+  </si>
+  <si>
+    <t>BCIO:044029</t>
+  </si>
+  <si>
+    <t>BCIO:044030</t>
+  </si>
+  <si>
+    <t>BCIO:044031</t>
+  </si>
+  <si>
+    <t>BCIO:044032</t>
+  </si>
+  <si>
+    <t>BCIO:044033</t>
+  </si>
+  <si>
+    <t>BCIO:044034</t>
+  </si>
+  <si>
+    <t>BCIO:044035</t>
+  </si>
+  <si>
+    <t>BCIO:044036</t>
+  </si>
+  <si>
+    <t>BCIO:044037</t>
+  </si>
+  <si>
+    <t>BCIO:044038</t>
+  </si>
+  <si>
+    <t>BCIO:044039</t>
+  </si>
+  <si>
+    <t>BCIO:044040</t>
+  </si>
+  <si>
+    <t>BCIO:044041</t>
+  </si>
+  <si>
+    <t>BCIO:044042</t>
+  </si>
+  <si>
+    <t>BCIO:044043</t>
+  </si>
+  <si>
+    <t>BCIO:044044</t>
+  </si>
+  <si>
+    <t>BCIO:044045</t>
+  </si>
+  <si>
+    <t>BCIO:044046</t>
+  </si>
+  <si>
+    <t>BCIO:044047</t>
+  </si>
+  <si>
+    <t>BCIO:044048</t>
+  </si>
+  <si>
+    <t>BCIO:044049</t>
+  </si>
+  <si>
+    <t>BCIO:044050</t>
+  </si>
+  <si>
+    <t>BCIO:044051</t>
+  </si>
+  <si>
+    <t>BCIO:044052</t>
+  </si>
+  <si>
+    <t>BCIO:044053</t>
+  </si>
+  <si>
+    <t>BCIO:044054</t>
+  </si>
+  <si>
+    <t>BCIO:044055</t>
+  </si>
+  <si>
+    <t>BCIO:044056</t>
+  </si>
+  <si>
+    <t>BCIO:044057</t>
+  </si>
+  <si>
+    <t>BCIO:044058</t>
+  </si>
+  <si>
+    <t>BCIO:044059</t>
+  </si>
+  <si>
+    <t>BCIO:044060</t>
+  </si>
+  <si>
+    <t>BCIO:044061</t>
+  </si>
+  <si>
+    <t>BCIO:044062</t>
+  </si>
+  <si>
+    <t>BCIO:044063</t>
+  </si>
+  <si>
+    <t>BCIO:044064</t>
+  </si>
+  <si>
+    <t>BCIO:044065</t>
+  </si>
+  <si>
+    <t>BCIO:044066</t>
+  </si>
+  <si>
+    <t>BCIO:044067</t>
+  </si>
+  <si>
+    <t>BCIO:044068</t>
+  </si>
+  <si>
+    <t>BCIO:044069</t>
+  </si>
+  <si>
+    <t>BCIO:044070</t>
+  </si>
+  <si>
+    <t>BCIO:044071</t>
+  </si>
+  <si>
+    <t>BCIO:044072</t>
+  </si>
+  <si>
+    <t>BCIO:044073</t>
+  </si>
+  <si>
+    <t>BCIO:044074</t>
+  </si>
+  <si>
+    <t>BCIO:044075</t>
+  </si>
+  <si>
+    <t>BCIO:044076</t>
+  </si>
+  <si>
+    <t>BCIO:044077</t>
+  </si>
+  <si>
+    <t>BCIO:044078</t>
+  </si>
+  <si>
+    <t>BCIO:044079</t>
+  </si>
+  <si>
+    <t>BCIO:044080</t>
+  </si>
+  <si>
+    <t>BCIO:044081</t>
+  </si>
+  <si>
+    <t>BCIO:044082</t>
+  </si>
+  <si>
+    <t>BCIO:044083</t>
+  </si>
+  <si>
+    <t>BCIO:044084</t>
+  </si>
+  <si>
+    <t>BCIO:044085</t>
+  </si>
+  <si>
+    <t>BCIO:044086</t>
+  </si>
+  <si>
+    <t>BCIO:044087</t>
+  </si>
+  <si>
+    <t>BCIO:044088</t>
+  </si>
+  <si>
+    <t>BCIO:044089</t>
+  </si>
+  <si>
+    <t>BCIO:044090</t>
+  </si>
+  <si>
+    <t>BCIO:044091</t>
+  </si>
+  <si>
+    <t>BCIO:044092</t>
+  </si>
+  <si>
+    <t>BCIO:044093</t>
+  </si>
+  <si>
+    <t>BCIO:044094</t>
+  </si>
+  <si>
+    <t>BCIO:044095</t>
+  </si>
+  <si>
+    <t>BCIO:044096</t>
+  </si>
+  <si>
+    <t>BCIO:044097</t>
+  </si>
+  <si>
+    <t>BCIO:044098</t>
+  </si>
+  <si>
+    <t>BCIO:044099</t>
+  </si>
+  <si>
+    <t>BCIO:044100</t>
+  </si>
+  <si>
+    <t>BCIO:044101</t>
+  </si>
+  <si>
+    <t>BCIO:044102</t>
+  </si>
+  <si>
+    <t>BCIO:044103</t>
+  </si>
+  <si>
+    <t>BCIO:044104</t>
+  </si>
+  <si>
+    <t>BCIO:044105</t>
+  </si>
+  <si>
+    <t>BCIO:044106</t>
+  </si>
+  <si>
+    <t>BCIO:044107</t>
+  </si>
+  <si>
+    <t>BCIO:044108</t>
+  </si>
+  <si>
+    <t>BCIO:044109</t>
+  </si>
+  <si>
+    <t>BCIO:044110</t>
+  </si>
+  <si>
+    <t>BCIO:044111</t>
+  </si>
+  <si>
+    <t>BCIO:044112</t>
+  </si>
+  <si>
+    <t>BCIO:044113</t>
+  </si>
+  <si>
+    <t>BCIO:044114</t>
+  </si>
+  <si>
+    <t>BCIO:044115</t>
+  </si>
+  <si>
+    <t>BCIO:044116</t>
+  </si>
+  <si>
+    <t>BCIO:044117</t>
+  </si>
+  <si>
+    <t>BCIO:044118</t>
+  </si>
+  <si>
+    <t>BCIO:044119</t>
+  </si>
+  <si>
+    <t>BCIO:044120</t>
+  </si>
+  <si>
+    <t>BCIO:044121</t>
+  </si>
+  <si>
+    <t>BCIO:044122</t>
+  </si>
+  <si>
+    <t>BCIO:044123</t>
+  </si>
+  <si>
+    <t>BCIO:044124</t>
+  </si>
+  <si>
+    <t>BCIO:044125</t>
+  </si>
+  <si>
+    <t>BCIO:044126</t>
+  </si>
+  <si>
+    <t>BCIO:044127</t>
+  </si>
+  <si>
+    <t>BCIO:044128</t>
+  </si>
+  <si>
+    <t>BCIO:044129</t>
+  </si>
+  <si>
+    <t>BCIO:044130</t>
   </si>
 </sst>
 </file>
@@ -1234,13 +1630,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1285,6 +1674,12 @@
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1428,7 +1823,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1466,9 +1861,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1499,23 +1891,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1524,7 +1916,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1554,7 +1946,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1886,10 +2278,10 @@
   <dimension ref="A1:X247"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C135" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomRight" activeCell="A137" sqref="A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.6640625" defaultRowHeight="16"/>
@@ -1901,16 +2293,16 @@
     <col min="5" max="5" width="11.5" style="5" customWidth="1"/>
     <col min="6" max="6" width="21" style="5" customWidth="1"/>
     <col min="7" max="7" width="29.5" style="5" customWidth="1"/>
-    <col min="8" max="8" width="27.6640625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="27.6640625" style="13" customWidth="1"/>
     <col min="9" max="10" width="37.1640625" style="5" customWidth="1"/>
     <col min="11" max="11" width="29.5" style="5" customWidth="1"/>
     <col min="12" max="12" width="25.83203125" style="5" customWidth="1"/>
-    <col min="13" max="14" width="24.6640625" style="33"/>
-    <col min="15" max="24" width="24.6640625" style="21"/>
-    <col min="25" max="16384" width="24.6640625" style="26"/>
+    <col min="13" max="14" width="24.6640625" style="32"/>
+    <col min="15" max="24" width="24.6640625" style="20"/>
+    <col min="25" max="16384" width="24.6640625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="18" customFormat="1" ht="35" thickBot="1">
+    <row r="1" spans="1:24" s="17" customFormat="1" ht="35" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>372</v>
       </c>
@@ -1929,49 +2321,51 @@
       <c r="F1" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="34" t="s">
         <v>381</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="33" t="s">
         <v>376</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="42" t="s">
         <v>378</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="O1" s="42" t="s">
         <v>377</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="P1" s="42" t="s">
         <v>379</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="42" t="s">
         <v>380</v>
       </c>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-    </row>
-    <row r="2" spans="1:24" s="20" customFormat="1" ht="17">
-      <c r="A2" s="3"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+    </row>
+    <row r="2" spans="1:24" s="19" customFormat="1" ht="17">
+      <c r="A2" s="3" t="s">
+        <v>383</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1990,19 +2384,21 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-    </row>
-    <row r="3" spans="1:24" s="20" customFormat="1" ht="17">
+      <c r="N2" s="38"/>
+      <c r="O2" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+    </row>
+    <row r="3" spans="1:24" s="19" customFormat="1" ht="17">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -2024,19 +2420,21 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-    </row>
-    <row r="4" spans="1:24" s="22" customFormat="1" ht="34">
+      <c r="N3" s="39"/>
+      <c r="O3" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+    </row>
+    <row r="4" spans="1:24" s="21" customFormat="1" ht="34">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -2058,19 +2456,21 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
-    </row>
-    <row r="5" spans="1:24" s="22" customFormat="1" ht="34">
+      <c r="N4" s="38"/>
+      <c r="O4" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+    </row>
+    <row r="5" spans="1:24" s="21" customFormat="1" ht="34">
       <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
@@ -2094,20 +2494,24 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-    </row>
-    <row r="6" spans="1:24" s="22" customFormat="1" ht="34">
-      <c r="A6" s="5"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+    </row>
+    <row r="6" spans="1:24" s="21" customFormat="1" ht="34">
+      <c r="A6" s="5" t="s">
+        <v>384</v>
+      </c>
       <c r="B6" s="6" t="s">
         <v>334</v>
       </c>
@@ -2126,20 +2530,24 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-    </row>
-    <row r="7" spans="1:24" s="22" customFormat="1" ht="34">
-      <c r="A7" s="5"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+    </row>
+    <row r="7" spans="1:24" s="21" customFormat="1" ht="34">
+      <c r="A7" s="5" t="s">
+        <v>385</v>
+      </c>
       <c r="B7" s="6" t="s">
         <v>25</v>
       </c>
@@ -2156,20 +2564,24 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-    </row>
-    <row r="8" spans="1:24" s="22" customFormat="1" ht="34">
-      <c r="A8" s="5"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+    </row>
+    <row r="8" spans="1:24" s="21" customFormat="1" ht="34">
+      <c r="A8" s="5" t="s">
+        <v>386</v>
+      </c>
       <c r="B8" s="6" t="s">
         <v>125</v>
       </c>
@@ -2188,20 +2600,24 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-    </row>
-    <row r="9" spans="1:24" s="22" customFormat="1" ht="51">
-      <c r="A9" s="5"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+    </row>
+    <row r="9" spans="1:24" s="21" customFormat="1" ht="51">
+      <c r="A9" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="B9" s="6" t="s">
         <v>128</v>
       </c>
@@ -2220,27 +2636,31 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-    </row>
-    <row r="10" spans="1:24" s="22" customFormat="1" ht="85">
-      <c r="A10" s="5"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+    </row>
+    <row r="10" spans="1:24" s="21" customFormat="1" ht="85">
+      <c r="A10" s="5" t="s">
+        <v>388</v>
+      </c>
       <c r="B10" s="6" t="s">
         <v>130</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>131</v>
       </c>
       <c r="E10" s="5"/>
@@ -2256,19 +2676,21 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-    </row>
-    <row r="11" spans="1:24" s="22" customFormat="1" ht="85">
+      <c r="N10" s="38"/>
+      <c r="O10" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+    </row>
+    <row r="11" spans="1:24" s="21" customFormat="1" ht="85">
       <c r="A11" s="5" t="s">
         <v>133</v>
       </c>
@@ -2281,7 +2703,7 @@
       <c r="D11" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E11" s="23"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="5" t="s">
         <v>136</v>
       </c>
@@ -2296,20 +2718,24 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-    </row>
-    <row r="12" spans="1:24" s="22" customFormat="1" ht="51">
-      <c r="A12" s="5"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+    </row>
+    <row r="12" spans="1:24" s="21" customFormat="1" ht="51">
+      <c r="A12" s="5" t="s">
+        <v>389</v>
+      </c>
       <c r="B12" s="6" t="s">
         <v>340</v>
       </c>
@@ -2332,20 +2758,24 @@
         <v>10</v>
       </c>
       <c r="M12" s="6"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-    </row>
-    <row r="13" spans="1:24" s="22" customFormat="1" ht="34">
-      <c r="A13" s="5"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+    </row>
+    <row r="13" spans="1:24" s="21" customFormat="1" ht="34">
+      <c r="A13" s="5" t="s">
+        <v>390</v>
+      </c>
       <c r="B13" s="6" t="s">
         <v>341</v>
       </c>
@@ -2366,20 +2796,24 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-    </row>
-    <row r="14" spans="1:24" s="22" customFormat="1" ht="34">
-      <c r="A14" s="5"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+    </row>
+    <row r="14" spans="1:24" s="21" customFormat="1" ht="34">
+      <c r="A14" s="5" t="s">
+        <v>391</v>
+      </c>
       <c r="B14" s="6" t="s">
         <v>342</v>
       </c>
@@ -2400,20 +2834,24 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-    </row>
-    <row r="15" spans="1:24" s="22" customFormat="1" ht="102">
-      <c r="A15" s="5"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+    </row>
+    <row r="15" spans="1:24" s="21" customFormat="1" ht="102">
+      <c r="A15" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="B15" s="6" t="s">
         <v>343</v>
       </c>
@@ -2434,20 +2872,24 @@
         <v>28</v>
       </c>
       <c r="M15" s="5"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-    </row>
-    <row r="16" spans="1:24" s="22" customFormat="1" ht="102">
-      <c r="A16" s="5"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+    </row>
+    <row r="16" spans="1:24" s="21" customFormat="1" ht="102">
+      <c r="A16" s="5" t="s">
+        <v>393</v>
+      </c>
       <c r="B16" s="6" t="s">
         <v>344</v>
       </c>
@@ -2464,26 +2906,30 @@
       <c r="I16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="24" t="s">
+      <c r="J16" s="38"/>
+      <c r="K16" s="23" t="s">
         <v>30</v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-    </row>
-    <row r="17" spans="1:24" s="22" customFormat="1" ht="51">
-      <c r="A17" s="13"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+    </row>
+    <row r="17" spans="1:24" s="21" customFormat="1" ht="51">
+      <c r="A17" s="5" t="s">
+        <v>394</v>
+      </c>
       <c r="B17" s="6" t="s">
         <v>345</v>
       </c>
@@ -2504,20 +2950,24 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-    </row>
-    <row r="18" spans="1:24" s="22" customFormat="1" ht="34">
-      <c r="A18" s="13"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+    </row>
+    <row r="18" spans="1:24" s="21" customFormat="1" ht="34">
+      <c r="A18" s="5" t="s">
+        <v>395</v>
+      </c>
       <c r="B18" s="6" t="s">
         <v>266</v>
       </c>
@@ -2536,20 +2986,24 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
-    </row>
-    <row r="19" spans="1:24" s="22" customFormat="1" ht="34">
-      <c r="A19" s="13"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+    </row>
+    <row r="19" spans="1:24" s="21" customFormat="1" ht="34">
+      <c r="A19" s="5" t="s">
+        <v>396</v>
+      </c>
       <c r="B19" s="6" t="s">
         <v>278</v>
       </c>
@@ -2568,20 +3022,24 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
-    </row>
-    <row r="20" spans="1:24" s="22" customFormat="1" ht="34">
-      <c r="A20" s="13"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+    </row>
+    <row r="20" spans="1:24" s="21" customFormat="1" ht="34">
+      <c r="A20" s="5" t="s">
+        <v>397</v>
+      </c>
       <c r="B20" s="6" t="s">
         <v>279</v>
       </c>
@@ -2600,20 +3058,24 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-    </row>
-    <row r="21" spans="1:24" s="22" customFormat="1" ht="34">
-      <c r="A21" s="13"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+    </row>
+    <row r="21" spans="1:24" s="21" customFormat="1" ht="34">
+      <c r="A21" s="5" t="s">
+        <v>398</v>
+      </c>
       <c r="B21" s="6" t="s">
         <v>280</v>
       </c>
@@ -2632,20 +3094,24 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-    </row>
-    <row r="22" spans="1:24" s="22" customFormat="1" ht="51">
-      <c r="A22" s="13"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+    </row>
+    <row r="22" spans="1:24" s="21" customFormat="1" ht="51">
+      <c r="A22" s="5" t="s">
+        <v>399</v>
+      </c>
       <c r="B22" s="6" t="s">
         <v>281</v>
       </c>
@@ -2664,20 +3130,24 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
-    </row>
-    <row r="23" spans="1:24" s="22" customFormat="1" ht="34">
-      <c r="A23" s="5"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+    </row>
+    <row r="23" spans="1:24" s="21" customFormat="1" ht="34">
+      <c r="A23" s="5" t="s">
+        <v>400</v>
+      </c>
       <c r="B23" s="6" t="s">
         <v>34</v>
       </c>
@@ -2698,20 +3168,24 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
-    </row>
-    <row r="24" spans="1:24" s="22" customFormat="1" ht="51">
-      <c r="A24" s="5"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+    </row>
+    <row r="24" spans="1:24" s="21" customFormat="1" ht="51">
+      <c r="A24" s="5" t="s">
+        <v>401</v>
+      </c>
       <c r="B24" s="6" t="s">
         <v>346</v>
       </c>
@@ -2723,7 +3197,7 @@
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="25"/>
+      <c r="G24" s="24"/>
       <c r="H24" s="5" t="s">
         <v>36</v>
       </c>
@@ -2734,20 +3208,24 @@
       </c>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-    </row>
-    <row r="25" spans="1:24" s="22" customFormat="1" ht="34">
-      <c r="A25" s="5"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+    </row>
+    <row r="25" spans="1:24" s="21" customFormat="1" ht="34">
+      <c r="A25" s="5" t="s">
+        <v>402</v>
+      </c>
       <c r="B25" s="6" t="s">
         <v>39</v>
       </c>
@@ -2759,27 +3237,31 @@
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="25"/>
+      <c r="G25" s="24"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
-    </row>
-    <row r="26" spans="1:24" s="22" customFormat="1" ht="51">
-      <c r="A26" s="5"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+    </row>
+    <row r="26" spans="1:24" s="21" customFormat="1" ht="51">
+      <c r="A26" s="5" t="s">
+        <v>403</v>
+      </c>
       <c r="B26" s="6" t="s">
         <v>347</v>
       </c>
@@ -2800,20 +3282,24 @@
         <v>41</v>
       </c>
       <c r="M26" s="5"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="21"/>
-    </row>
-    <row r="27" spans="1:24" s="22" customFormat="1" ht="34">
-      <c r="A27" s="5"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20"/>
+    </row>
+    <row r="27" spans="1:24" s="21" customFormat="1" ht="34">
+      <c r="A27" s="5" t="s">
+        <v>404</v>
+      </c>
       <c r="B27" s="6" t="s">
         <v>42</v>
       </c>
@@ -2834,20 +3320,24 @@
       </c>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
-      <c r="X27" s="21"/>
-    </row>
-    <row r="28" spans="1:24" s="22" customFormat="1" ht="34">
-      <c r="A28" s="5"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
+    </row>
+    <row r="28" spans="1:24" s="21" customFormat="1" ht="34">
+      <c r="A28" s="5" t="s">
+        <v>405</v>
+      </c>
       <c r="B28" s="6" t="s">
         <v>43</v>
       </c>
@@ -2868,20 +3358,24 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="21"/>
-      <c r="W28" s="21"/>
-      <c r="X28" s="21"/>
-    </row>
-    <row r="29" spans="1:24" s="22" customFormat="1" ht="51">
-      <c r="A29" s="5"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+    </row>
+    <row r="29" spans="1:24" s="21" customFormat="1" ht="51">
+      <c r="A29" s="5" t="s">
+        <v>406</v>
+      </c>
       <c r="B29" s="6" t="s">
         <v>46</v>
       </c>
@@ -2902,20 +3396,24 @@
       </c>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="21"/>
-      <c r="X29" s="21"/>
-    </row>
-    <row r="30" spans="1:24" s="22" customFormat="1" ht="34">
-      <c r="A30" s="5"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20"/>
+    </row>
+    <row r="30" spans="1:24" s="21" customFormat="1" ht="34">
+      <c r="A30" s="5" t="s">
+        <v>407</v>
+      </c>
       <c r="B30" s="6" t="s">
         <v>48</v>
       </c>
@@ -2934,20 +3432,24 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="21"/>
-      <c r="X30" s="21"/>
-    </row>
-    <row r="31" spans="1:24" s="22" customFormat="1" ht="34">
-      <c r="A31" s="5"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="20"/>
+    </row>
+    <row r="31" spans="1:24" s="21" customFormat="1" ht="34">
+      <c r="A31" s="5" t="s">
+        <v>408</v>
+      </c>
       <c r="B31" s="6" t="s">
         <v>50</v>
       </c>
@@ -2966,20 +3468,24 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="21"/>
-    </row>
-    <row r="32" spans="1:24" s="22" customFormat="1" ht="51">
-      <c r="A32" s="5"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="20"/>
+    </row>
+    <row r="32" spans="1:24" s="21" customFormat="1" ht="51">
+      <c r="A32" s="5" t="s">
+        <v>409</v>
+      </c>
       <c r="B32" s="6" t="s">
         <v>267</v>
       </c>
@@ -2998,20 +3504,24 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
-      <c r="X32" s="21"/>
-    </row>
-    <row r="33" spans="1:24" s="22" customFormat="1" ht="51">
-      <c r="A33" s="5"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="20"/>
+    </row>
+    <row r="33" spans="1:24" s="21" customFormat="1" ht="51">
+      <c r="A33" s="5" t="s">
+        <v>410</v>
+      </c>
       <c r="B33" s="6" t="s">
         <v>268</v>
       </c>
@@ -3030,20 +3540,24 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="21"/>
-      <c r="X33" s="21"/>
-    </row>
-    <row r="34" spans="1:24" s="22" customFormat="1" ht="85">
-      <c r="A34" s="5"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="20"/>
+      <c r="X33" s="20"/>
+    </row>
+    <row r="34" spans="1:24" s="21" customFormat="1" ht="85">
+      <c r="A34" s="5" t="s">
+        <v>411</v>
+      </c>
       <c r="B34" s="6" t="s">
         <v>52</v>
       </c>
@@ -3068,20 +3582,24 @@
         <v>41</v>
       </c>
       <c r="M34" s="5"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="21"/>
-      <c r="V34" s="21"/>
-      <c r="W34" s="21"/>
-      <c r="X34" s="21"/>
-    </row>
-    <row r="35" spans="1:24" s="22" customFormat="1" ht="51">
-      <c r="A35" s="5"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="20"/>
+      <c r="X34" s="20"/>
+    </row>
+    <row r="35" spans="1:24" s="21" customFormat="1" ht="51">
+      <c r="A35" s="5" t="s">
+        <v>412</v>
+      </c>
       <c r="B35" s="6" t="s">
         <v>55</v>
       </c>
@@ -3102,20 +3620,24 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
-      <c r="S35" s="21"/>
-      <c r="T35" s="21"/>
-      <c r="U35" s="21"/>
-      <c r="V35" s="21"/>
-      <c r="W35" s="21"/>
-      <c r="X35" s="21"/>
-    </row>
-    <row r="36" spans="1:24" s="22" customFormat="1" ht="34">
-      <c r="A36" s="5"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="20"/>
+      <c r="X35" s="20"/>
+    </row>
+    <row r="36" spans="1:24" s="21" customFormat="1" ht="34">
+      <c r="A36" s="5" t="s">
+        <v>413</v>
+      </c>
       <c r="B36" s="6" t="s">
         <v>305</v>
       </c>
@@ -3134,20 +3656,24 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
-      <c r="N36" s="39"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="21"/>
-      <c r="S36" s="21"/>
-      <c r="T36" s="21"/>
-      <c r="U36" s="21"/>
-      <c r="V36" s="21"/>
-      <c r="W36" s="21"/>
-      <c r="X36" s="21"/>
-    </row>
-    <row r="37" spans="1:24" s="22" customFormat="1" ht="34">
-      <c r="A37" s="5"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="20"/>
+      <c r="X36" s="20"/>
+    </row>
+    <row r="37" spans="1:24" s="21" customFormat="1" ht="34">
+      <c r="A37" s="5" t="s">
+        <v>414</v>
+      </c>
       <c r="B37" s="6" t="s">
         <v>58</v>
       </c>
@@ -3167,20 +3693,24 @@
       </c>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
-      <c r="N37" s="39"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="21"/>
-      <c r="V37" s="21"/>
-      <c r="W37" s="21"/>
-      <c r="X37" s="21"/>
-    </row>
-    <row r="38" spans="1:24" s="22" customFormat="1" ht="34">
-      <c r="A38" s="5"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="20"/>
+    </row>
+    <row r="38" spans="1:24" s="21" customFormat="1" ht="34">
+      <c r="A38" s="5" t="s">
+        <v>415</v>
+      </c>
       <c r="B38" s="6" t="s">
         <v>260</v>
       </c>
@@ -3200,20 +3730,24 @@
       </c>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
-      <c r="N38" s="39"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="21"/>
-      <c r="V38" s="21"/>
-      <c r="W38" s="21"/>
-      <c r="X38" s="21"/>
-    </row>
-    <row r="39" spans="1:24" s="22" customFormat="1" ht="51">
-      <c r="A39" s="5"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="20"/>
+    </row>
+    <row r="39" spans="1:24" s="21" customFormat="1" ht="51">
+      <c r="A39" s="5" t="s">
+        <v>416</v>
+      </c>
       <c r="B39" s="6" t="s">
         <v>60</v>
       </c>
@@ -3231,20 +3765,24 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
-      <c r="N39" s="39"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="21"/>
-      <c r="S39" s="21"/>
-      <c r="T39" s="21"/>
-      <c r="U39" s="21"/>
-      <c r="V39" s="21"/>
-      <c r="W39" s="21"/>
-      <c r="X39" s="21"/>
-    </row>
-    <row r="40" spans="1:24" s="22" customFormat="1" ht="34">
-      <c r="A40" s="5"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="20"/>
+      <c r="X39" s="20"/>
+    </row>
+    <row r="40" spans="1:24" s="21" customFormat="1" ht="34">
+      <c r="A40" s="5" t="s">
+        <v>417</v>
+      </c>
       <c r="B40" s="6" t="s">
         <v>261</v>
       </c>
@@ -3262,20 +3800,24 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="21"/>
-      <c r="S40" s="21"/>
-      <c r="T40" s="21"/>
-      <c r="U40" s="21"/>
-      <c r="V40" s="21"/>
-      <c r="W40" s="21"/>
-      <c r="X40" s="21"/>
-    </row>
-    <row r="41" spans="1:24" s="22" customFormat="1" ht="34">
-      <c r="A41" s="5"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="20"/>
+      <c r="U40" s="20"/>
+      <c r="V40" s="20"/>
+      <c r="W40" s="20"/>
+      <c r="X40" s="20"/>
+    </row>
+    <row r="41" spans="1:24" s="21" customFormat="1" ht="34">
+      <c r="A41" s="5" t="s">
+        <v>418</v>
+      </c>
       <c r="B41" s="6" t="s">
         <v>62</v>
       </c>
@@ -3296,20 +3838,24 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
-      <c r="R41" s="21"/>
-      <c r="S41" s="21"/>
-      <c r="T41" s="21"/>
-      <c r="U41" s="21"/>
-      <c r="V41" s="21"/>
-      <c r="W41" s="21"/>
-      <c r="X41" s="21"/>
-    </row>
-    <row r="42" spans="1:24" s="22" customFormat="1" ht="68">
-      <c r="A42" s="5"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="20"/>
+      <c r="W41" s="20"/>
+      <c r="X41" s="20"/>
+    </row>
+    <row r="42" spans="1:24" s="21" customFormat="1" ht="68">
+      <c r="A42" s="5" t="s">
+        <v>419</v>
+      </c>
       <c r="B42" s="6" t="s">
         <v>65</v>
       </c>
@@ -3328,20 +3874,24 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
-      <c r="R42" s="21"/>
-      <c r="S42" s="21"/>
-      <c r="T42" s="21"/>
-      <c r="U42" s="21"/>
-      <c r="V42" s="21"/>
-      <c r="W42" s="21"/>
-      <c r="X42" s="21"/>
-    </row>
-    <row r="43" spans="1:24" s="22" customFormat="1" ht="34">
-      <c r="A43" s="5"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="20"/>
+      <c r="U42" s="20"/>
+      <c r="V42" s="20"/>
+      <c r="W42" s="20"/>
+      <c r="X42" s="20"/>
+    </row>
+    <row r="43" spans="1:24" s="21" customFormat="1" ht="34">
+      <c r="A43" s="5" t="s">
+        <v>420</v>
+      </c>
       <c r="B43" s="6" t="s">
         <v>66</v>
       </c>
@@ -3360,20 +3910,24 @@
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
-      <c r="N43" s="39"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="21"/>
-      <c r="S43" s="21"/>
-      <c r="T43" s="21"/>
-      <c r="U43" s="21"/>
-      <c r="V43" s="21"/>
-      <c r="W43" s="21"/>
-      <c r="X43" s="21"/>
-    </row>
-    <row r="44" spans="1:24" s="22" customFormat="1" ht="68">
-      <c r="A44" s="5"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="20"/>
+      <c r="U43" s="20"/>
+      <c r="V43" s="20"/>
+      <c r="W43" s="20"/>
+      <c r="X43" s="20"/>
+    </row>
+    <row r="44" spans="1:24" s="21" customFormat="1" ht="68">
+      <c r="A44" s="5" t="s">
+        <v>421</v>
+      </c>
       <c r="B44" s="6" t="s">
         <v>68</v>
       </c>
@@ -3394,20 +3948,24 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
-      <c r="N44" s="39"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="21"/>
-      <c r="R44" s="21"/>
-      <c r="S44" s="21"/>
-      <c r="T44" s="21"/>
-      <c r="U44" s="21"/>
-      <c r="V44" s="21"/>
-      <c r="W44" s="21"/>
-      <c r="X44" s="21"/>
-    </row>
-    <row r="45" spans="1:24" s="22" customFormat="1" ht="51">
-      <c r="A45" s="5"/>
+      <c r="N44" s="38"/>
+      <c r="O44" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="20"/>
+      <c r="T44" s="20"/>
+      <c r="U44" s="20"/>
+      <c r="V44" s="20"/>
+      <c r="W44" s="20"/>
+      <c r="X44" s="20"/>
+    </row>
+    <row r="45" spans="1:24" s="21" customFormat="1" ht="51">
+      <c r="A45" s="5" t="s">
+        <v>422</v>
+      </c>
       <c r="B45" s="6" t="s">
         <v>71</v>
       </c>
@@ -3428,20 +3986,24 @@
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
-      <c r="N45" s="39"/>
-      <c r="O45" s="21"/>
-      <c r="P45" s="21"/>
-      <c r="Q45" s="21"/>
-      <c r="R45" s="21"/>
-      <c r="S45" s="21"/>
-      <c r="T45" s="21"/>
-      <c r="U45" s="21"/>
-      <c r="V45" s="21"/>
-      <c r="W45" s="21"/>
-      <c r="X45" s="21"/>
-    </row>
-    <row r="46" spans="1:24" s="22" customFormat="1" ht="51">
-      <c r="A46" s="5"/>
+      <c r="N45" s="38"/>
+      <c r="O45" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="20"/>
+      <c r="X45" s="20"/>
+    </row>
+    <row r="46" spans="1:24" s="21" customFormat="1" ht="51">
+      <c r="A46" s="5" t="s">
+        <v>423</v>
+      </c>
       <c r="B46" s="6" t="s">
         <v>74</v>
       </c>
@@ -3460,20 +4022,24 @@
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
-      <c r="N46" s="39"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="21"/>
-      <c r="R46" s="21"/>
-      <c r="S46" s="21"/>
-      <c r="T46" s="21"/>
-      <c r="U46" s="21"/>
-      <c r="V46" s="21"/>
-      <c r="W46" s="21"/>
-      <c r="X46" s="21"/>
-    </row>
-    <row r="47" spans="1:24" s="22" customFormat="1" ht="34">
-      <c r="A47" s="5"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="20"/>
+      <c r="T46" s="20"/>
+      <c r="U46" s="20"/>
+      <c r="V46" s="20"/>
+      <c r="W46" s="20"/>
+      <c r="X46" s="20"/>
+    </row>
+    <row r="47" spans="1:24" s="21" customFormat="1" ht="34">
+      <c r="A47" s="5" t="s">
+        <v>424</v>
+      </c>
       <c r="B47" s="6" t="s">
         <v>76</v>
       </c>
@@ -3487,25 +4053,29 @@
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
-      <c r="N47" s="39"/>
-      <c r="O47" s="21"/>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="21"/>
-      <c r="R47" s="21"/>
-      <c r="S47" s="21"/>
-      <c r="T47" s="21"/>
-      <c r="U47" s="21"/>
-      <c r="V47" s="21"/>
-      <c r="W47" s="21"/>
-      <c r="X47" s="21"/>
-    </row>
-    <row r="48" spans="1:24" s="22" customFormat="1" ht="34">
-      <c r="A48" s="5"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="20"/>
+      <c r="S47" s="20"/>
+      <c r="T47" s="20"/>
+      <c r="U47" s="20"/>
+      <c r="V47" s="20"/>
+      <c r="W47" s="20"/>
+      <c r="X47" s="20"/>
+    </row>
+    <row r="48" spans="1:24" s="21" customFormat="1" ht="34">
+      <c r="A48" s="5" t="s">
+        <v>425</v>
+      </c>
       <c r="B48" s="6" t="s">
         <v>78</v>
       </c>
@@ -3526,20 +4096,24 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
-      <c r="N48" s="39"/>
-      <c r="O48" s="21"/>
-      <c r="P48" s="21"/>
-      <c r="Q48" s="21"/>
-      <c r="R48" s="21"/>
-      <c r="S48" s="21"/>
-      <c r="T48" s="21"/>
-      <c r="U48" s="21"/>
-      <c r="V48" s="21"/>
-      <c r="W48" s="21"/>
-      <c r="X48" s="21"/>
-    </row>
-    <row r="49" spans="1:24" s="22" customFormat="1" ht="34">
-      <c r="A49" s="5"/>
+      <c r="N48" s="38"/>
+      <c r="O48" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="20"/>
+      <c r="T48" s="20"/>
+      <c r="U48" s="20"/>
+      <c r="V48" s="20"/>
+      <c r="W48" s="20"/>
+      <c r="X48" s="20"/>
+    </row>
+    <row r="49" spans="1:24" s="21" customFormat="1" ht="34">
+      <c r="A49" s="5" t="s">
+        <v>426</v>
+      </c>
       <c r="B49" s="6" t="s">
         <v>282</v>
       </c>
@@ -3560,20 +4134,24 @@
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
-      <c r="N49" s="39"/>
-      <c r="O49" s="21"/>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="21"/>
-      <c r="R49" s="21"/>
-      <c r="S49" s="21"/>
-      <c r="T49" s="21"/>
-      <c r="U49" s="21"/>
-      <c r="V49" s="21"/>
-      <c r="W49" s="21"/>
-      <c r="X49" s="21"/>
-    </row>
-    <row r="50" spans="1:24" s="22" customFormat="1" ht="51">
-      <c r="A50" s="5"/>
+      <c r="N49" s="38"/>
+      <c r="O49" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="20"/>
+      <c r="S49" s="20"/>
+      <c r="T49" s="20"/>
+      <c r="U49" s="20"/>
+      <c r="V49" s="20"/>
+      <c r="W49" s="20"/>
+      <c r="X49" s="20"/>
+    </row>
+    <row r="50" spans="1:24" s="21" customFormat="1" ht="51">
+      <c r="A50" s="5" t="s">
+        <v>427</v>
+      </c>
       <c r="B50" s="6" t="s">
         <v>270</v>
       </c>
@@ -3592,20 +4170,24 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
-      <c r="N50" s="39"/>
-      <c r="O50" s="21"/>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="21"/>
-      <c r="R50" s="21"/>
-      <c r="S50" s="21"/>
-      <c r="T50" s="21"/>
-      <c r="U50" s="21"/>
-      <c r="V50" s="21"/>
-      <c r="W50" s="21"/>
-      <c r="X50" s="21"/>
-    </row>
-    <row r="51" spans="1:24" s="22" customFormat="1" ht="51">
-      <c r="A51" s="5"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="20"/>
+      <c r="T50" s="20"/>
+      <c r="U50" s="20"/>
+      <c r="V50" s="20"/>
+      <c r="W50" s="20"/>
+      <c r="X50" s="20"/>
+    </row>
+    <row r="51" spans="1:24" s="21" customFormat="1" ht="51">
+      <c r="A51" s="5" t="s">
+        <v>428</v>
+      </c>
       <c r="B51" s="6" t="s">
         <v>271</v>
       </c>
@@ -3624,20 +4206,24 @@
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
-      <c r="N51" s="39"/>
-      <c r="O51" s="21"/>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="21"/>
-      <c r="R51" s="21"/>
-      <c r="S51" s="21"/>
-      <c r="T51" s="21"/>
-      <c r="U51" s="21"/>
-      <c r="V51" s="21"/>
-      <c r="W51" s="21"/>
-      <c r="X51" s="21"/>
-    </row>
-    <row r="52" spans="1:24" s="22" customFormat="1" ht="51">
-      <c r="A52" s="5"/>
+      <c r="N51" s="38"/>
+      <c r="O51" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="20"/>
+      <c r="T51" s="20"/>
+      <c r="U51" s="20"/>
+      <c r="V51" s="20"/>
+      <c r="W51" s="20"/>
+      <c r="X51" s="20"/>
+    </row>
+    <row r="52" spans="1:24" s="21" customFormat="1" ht="51">
+      <c r="A52" s="5" t="s">
+        <v>429</v>
+      </c>
       <c r="B52" s="6" t="s">
         <v>299</v>
       </c>
@@ -3656,20 +4242,24 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
-      <c r="N52" s="39"/>
-      <c r="O52" s="21"/>
-      <c r="P52" s="21"/>
-      <c r="Q52" s="21"/>
-      <c r="R52" s="21"/>
-      <c r="S52" s="21"/>
-      <c r="T52" s="21"/>
-      <c r="U52" s="21"/>
-      <c r="V52" s="21"/>
-      <c r="W52" s="21"/>
-      <c r="X52" s="21"/>
-    </row>
-    <row r="53" spans="1:24" s="22" customFormat="1" ht="34">
-      <c r="A53" s="5"/>
+      <c r="N52" s="38"/>
+      <c r="O52" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="20"/>
+      <c r="S52" s="20"/>
+      <c r="T52" s="20"/>
+      <c r="U52" s="20"/>
+      <c r="V52" s="20"/>
+      <c r="W52" s="20"/>
+      <c r="X52" s="20"/>
+    </row>
+    <row r="53" spans="1:24" s="21" customFormat="1" ht="34">
+      <c r="A53" s="5" t="s">
+        <v>430</v>
+      </c>
       <c r="B53" s="6" t="s">
         <v>81</v>
       </c>
@@ -3690,20 +4280,24 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
-      <c r="N53" s="39"/>
-      <c r="O53" s="21"/>
-      <c r="P53" s="21"/>
-      <c r="Q53" s="21"/>
-      <c r="R53" s="21"/>
-      <c r="S53" s="21"/>
-      <c r="T53" s="21"/>
-      <c r="U53" s="21"/>
-      <c r="V53" s="21"/>
-      <c r="W53" s="21"/>
-      <c r="X53" s="21"/>
-    </row>
-    <row r="54" spans="1:24" s="22" customFormat="1" ht="68">
-      <c r="A54" s="5"/>
+      <c r="N53" s="38"/>
+      <c r="O53" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="20"/>
+      <c r="R53" s="20"/>
+      <c r="S53" s="20"/>
+      <c r="T53" s="20"/>
+      <c r="U53" s="20"/>
+      <c r="V53" s="20"/>
+      <c r="W53" s="20"/>
+      <c r="X53" s="20"/>
+    </row>
+    <row r="54" spans="1:24" s="21" customFormat="1" ht="68">
+      <c r="A54" s="5" t="s">
+        <v>431</v>
+      </c>
       <c r="B54" s="6" t="s">
         <v>84</v>
       </c>
@@ -3726,20 +4320,24 @@
       </c>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
-      <c r="N54" s="39"/>
-      <c r="O54" s="21"/>
-      <c r="P54" s="21"/>
-      <c r="Q54" s="21"/>
-      <c r="R54" s="21"/>
-      <c r="S54" s="21"/>
-      <c r="T54" s="21"/>
-      <c r="U54" s="21"/>
-      <c r="V54" s="21"/>
-      <c r="W54" s="21"/>
-      <c r="X54" s="21"/>
-    </row>
-    <row r="55" spans="1:24" s="22" customFormat="1" ht="51">
-      <c r="A55" s="5"/>
+      <c r="N54" s="38"/>
+      <c r="O54" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="20"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="20"/>
+      <c r="T54" s="20"/>
+      <c r="U54" s="20"/>
+      <c r="V54" s="20"/>
+      <c r="W54" s="20"/>
+      <c r="X54" s="20"/>
+    </row>
+    <row r="55" spans="1:24" s="21" customFormat="1" ht="51">
+      <c r="A55" s="5" t="s">
+        <v>432</v>
+      </c>
       <c r="B55" s="6" t="s">
         <v>87</v>
       </c>
@@ -3758,22 +4356,26 @@
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="26"/>
+      <c r="L55" s="25"/>
       <c r="M55" s="5"/>
-      <c r="N55" s="39"/>
-      <c r="O55" s="21"/>
-      <c r="P55" s="21"/>
-      <c r="Q55" s="21"/>
-      <c r="R55" s="21"/>
-      <c r="S55" s="21"/>
-      <c r="T55" s="21"/>
-      <c r="U55" s="21"/>
-      <c r="V55" s="21"/>
-      <c r="W55" s="21"/>
-      <c r="X55" s="21"/>
-    </row>
-    <row r="56" spans="1:24" s="22" customFormat="1" ht="34">
-      <c r="A56" s="5"/>
+      <c r="N55" s="38"/>
+      <c r="O55" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="20"/>
+      <c r="S55" s="20"/>
+      <c r="T55" s="20"/>
+      <c r="U55" s="20"/>
+      <c r="V55" s="20"/>
+      <c r="W55" s="20"/>
+      <c r="X55" s="20"/>
+    </row>
+    <row r="56" spans="1:24" s="21" customFormat="1" ht="34">
+      <c r="A56" s="5" t="s">
+        <v>433</v>
+      </c>
       <c r="B56" s="6" t="s">
         <v>300</v>
       </c>
@@ -3790,22 +4392,26 @@
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="26"/>
+      <c r="L56" s="25"/>
       <c r="M56" s="5"/>
-      <c r="N56" s="39"/>
-      <c r="O56" s="21"/>
-      <c r="P56" s="21"/>
-      <c r="Q56" s="21"/>
-      <c r="R56" s="21"/>
-      <c r="S56" s="21"/>
-      <c r="T56" s="21"/>
-      <c r="U56" s="21"/>
-      <c r="V56" s="21"/>
-      <c r="W56" s="21"/>
-      <c r="X56" s="21"/>
-    </row>
-    <row r="57" spans="1:24" s="22" customFormat="1" ht="51">
-      <c r="A57" s="5"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="20"/>
+      <c r="S56" s="20"/>
+      <c r="T56" s="20"/>
+      <c r="U56" s="20"/>
+      <c r="V56" s="20"/>
+      <c r="W56" s="20"/>
+      <c r="X56" s="20"/>
+    </row>
+    <row r="57" spans="1:24" s="21" customFormat="1" ht="51">
+      <c r="A57" s="5" t="s">
+        <v>434</v>
+      </c>
       <c r="B57" s="6" t="s">
         <v>90</v>
       </c>
@@ -3824,20 +4430,24 @@
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
-      <c r="N57" s="39"/>
-      <c r="O57" s="21"/>
-      <c r="P57" s="21"/>
-      <c r="Q57" s="21"/>
-      <c r="R57" s="21"/>
-      <c r="S57" s="21"/>
-      <c r="T57" s="21"/>
-      <c r="U57" s="21"/>
-      <c r="V57" s="21"/>
-      <c r="W57" s="21"/>
-      <c r="X57" s="21"/>
-    </row>
-    <row r="58" spans="1:24" s="22" customFormat="1" ht="51">
-      <c r="A58" s="5"/>
+      <c r="N57" s="38"/>
+      <c r="O57" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P57" s="20"/>
+      <c r="Q57" s="20"/>
+      <c r="R57" s="20"/>
+      <c r="S57" s="20"/>
+      <c r="T57" s="20"/>
+      <c r="U57" s="20"/>
+      <c r="V57" s="20"/>
+      <c r="W57" s="20"/>
+      <c r="X57" s="20"/>
+    </row>
+    <row r="58" spans="1:24" s="21" customFormat="1" ht="51">
+      <c r="A58" s="5" t="s">
+        <v>435</v>
+      </c>
       <c r="B58" s="6" t="s">
         <v>348</v>
       </c>
@@ -3856,20 +4466,24 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
-      <c r="N58" s="39"/>
-      <c r="O58" s="21"/>
-      <c r="P58" s="21"/>
-      <c r="Q58" s="21"/>
-      <c r="R58" s="21"/>
-      <c r="S58" s="21"/>
-      <c r="T58" s="21"/>
-      <c r="U58" s="21"/>
-      <c r="V58" s="21"/>
-      <c r="W58" s="21"/>
-      <c r="X58" s="21"/>
-    </row>
-    <row r="59" spans="1:24" s="22" customFormat="1" ht="51">
-      <c r="A59" s="5"/>
+      <c r="N58" s="38"/>
+      <c r="O58" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="20"/>
+      <c r="R58" s="20"/>
+      <c r="S58" s="20"/>
+      <c r="T58" s="20"/>
+      <c r="U58" s="20"/>
+      <c r="V58" s="20"/>
+      <c r="W58" s="20"/>
+      <c r="X58" s="20"/>
+    </row>
+    <row r="59" spans="1:24" s="21" customFormat="1" ht="51">
+      <c r="A59" s="5" t="s">
+        <v>436</v>
+      </c>
       <c r="B59" s="6" t="s">
         <v>96</v>
       </c>
@@ -3888,20 +4502,24 @@
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
-      <c r="N59" s="39"/>
-      <c r="O59" s="21"/>
-      <c r="P59" s="21"/>
-      <c r="Q59" s="21"/>
-      <c r="R59" s="21"/>
-      <c r="S59" s="21"/>
-      <c r="T59" s="21"/>
-      <c r="U59" s="21"/>
-      <c r="V59" s="21"/>
-      <c r="W59" s="21"/>
-      <c r="X59" s="21"/>
-    </row>
-    <row r="60" spans="1:24" s="22" customFormat="1" ht="51">
-      <c r="A60" s="5"/>
+      <c r="N59" s="38"/>
+      <c r="O59" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P59" s="20"/>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="20"/>
+      <c r="S59" s="20"/>
+      <c r="T59" s="20"/>
+      <c r="U59" s="20"/>
+      <c r="V59" s="20"/>
+      <c r="W59" s="20"/>
+      <c r="X59" s="20"/>
+    </row>
+    <row r="60" spans="1:24" s="21" customFormat="1" ht="51">
+      <c r="A60" s="5" t="s">
+        <v>437</v>
+      </c>
       <c r="B60" s="6" t="s">
         <v>252</v>
       </c>
@@ -3922,20 +4540,24 @@
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
-      <c r="N60" s="39"/>
-      <c r="O60" s="21"/>
-      <c r="P60" s="21"/>
-      <c r="Q60" s="21"/>
-      <c r="R60" s="21"/>
-      <c r="S60" s="21"/>
-      <c r="T60" s="21"/>
-      <c r="U60" s="21"/>
-      <c r="V60" s="21"/>
-      <c r="W60" s="21"/>
-      <c r="X60" s="21"/>
-    </row>
-    <row r="61" spans="1:24" s="22" customFormat="1" ht="51">
-      <c r="A61" s="5"/>
+      <c r="N60" s="38"/>
+      <c r="O60" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="20"/>
+      <c r="R60" s="20"/>
+      <c r="S60" s="20"/>
+      <c r="T60" s="20"/>
+      <c r="U60" s="20"/>
+      <c r="V60" s="20"/>
+      <c r="W60" s="20"/>
+      <c r="X60" s="20"/>
+    </row>
+    <row r="61" spans="1:24" s="21" customFormat="1" ht="51">
+      <c r="A61" s="5" t="s">
+        <v>438</v>
+      </c>
       <c r="B61" s="6" t="s">
         <v>258</v>
       </c>
@@ -3954,20 +4576,24 @@
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
-      <c r="N61" s="39"/>
-      <c r="O61" s="21"/>
-      <c r="P61" s="21"/>
-      <c r="Q61" s="21"/>
-      <c r="R61" s="21"/>
-      <c r="S61" s="21"/>
-      <c r="T61" s="21"/>
-      <c r="U61" s="21"/>
-      <c r="V61" s="21"/>
-      <c r="W61" s="21"/>
-      <c r="X61" s="21"/>
-    </row>
-    <row r="62" spans="1:24" s="22" customFormat="1" ht="68">
-      <c r="A62" s="5"/>
+      <c r="N61" s="38"/>
+      <c r="O61" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P61" s="20"/>
+      <c r="Q61" s="20"/>
+      <c r="R61" s="20"/>
+      <c r="S61" s="20"/>
+      <c r="T61" s="20"/>
+      <c r="U61" s="20"/>
+      <c r="V61" s="20"/>
+      <c r="W61" s="20"/>
+      <c r="X61" s="20"/>
+    </row>
+    <row r="62" spans="1:24" s="21" customFormat="1" ht="68">
+      <c r="A62" s="5" t="s">
+        <v>439</v>
+      </c>
       <c r="B62" s="6" t="s">
         <v>312</v>
       </c>
@@ -3988,20 +4614,24 @@
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
-      <c r="N62" s="39"/>
-      <c r="O62" s="21"/>
-      <c r="P62" s="21"/>
-      <c r="Q62" s="21"/>
-      <c r="R62" s="21"/>
-      <c r="S62" s="21"/>
-      <c r="T62" s="21"/>
-      <c r="U62" s="21"/>
-      <c r="V62" s="21"/>
-      <c r="W62" s="21"/>
-      <c r="X62" s="21"/>
-    </row>
-    <row r="63" spans="1:24" s="22" customFormat="1" ht="34">
-      <c r="A63" s="5"/>
+      <c r="N62" s="38"/>
+      <c r="O62" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P62" s="20"/>
+      <c r="Q62" s="20"/>
+      <c r="R62" s="20"/>
+      <c r="S62" s="20"/>
+      <c r="T62" s="20"/>
+      <c r="U62" s="20"/>
+      <c r="V62" s="20"/>
+      <c r="W62" s="20"/>
+      <c r="X62" s="20"/>
+    </row>
+    <row r="63" spans="1:24" s="21" customFormat="1" ht="34">
+      <c r="A63" s="5" t="s">
+        <v>440</v>
+      </c>
       <c r="B63" s="6" t="s">
         <v>309</v>
       </c>
@@ -4020,20 +4650,24 @@
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
-      <c r="N63" s="39"/>
-      <c r="O63" s="21"/>
-      <c r="P63" s="21"/>
-      <c r="Q63" s="21"/>
-      <c r="R63" s="21"/>
-      <c r="S63" s="21"/>
-      <c r="T63" s="21"/>
-      <c r="U63" s="21"/>
-      <c r="V63" s="21"/>
-      <c r="W63" s="21"/>
-      <c r="X63" s="21"/>
-    </row>
-    <row r="64" spans="1:24" s="22" customFormat="1" ht="34">
-      <c r="A64" s="5"/>
+      <c r="N63" s="38"/>
+      <c r="O63" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P63" s="20"/>
+      <c r="Q63" s="20"/>
+      <c r="R63" s="20"/>
+      <c r="S63" s="20"/>
+      <c r="T63" s="20"/>
+      <c r="U63" s="20"/>
+      <c r="V63" s="20"/>
+      <c r="W63" s="20"/>
+      <c r="X63" s="20"/>
+    </row>
+    <row r="64" spans="1:24" s="21" customFormat="1" ht="34">
+      <c r="A64" s="5" t="s">
+        <v>441</v>
+      </c>
       <c r="B64" s="6" t="s">
         <v>94</v>
       </c>
@@ -4052,20 +4686,24 @@
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
-      <c r="N64" s="39"/>
-      <c r="O64" s="21"/>
-      <c r="P64" s="21"/>
-      <c r="Q64" s="21"/>
-      <c r="R64" s="21"/>
-      <c r="S64" s="21"/>
-      <c r="T64" s="21"/>
-      <c r="U64" s="21"/>
-      <c r="V64" s="21"/>
-      <c r="W64" s="21"/>
-      <c r="X64" s="21"/>
-    </row>
-    <row r="65" spans="1:24" s="22" customFormat="1" ht="34">
-      <c r="A65" s="5"/>
+      <c r="N64" s="38"/>
+      <c r="O64" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="20"/>
+      <c r="R64" s="20"/>
+      <c r="S64" s="20"/>
+      <c r="T64" s="20"/>
+      <c r="U64" s="20"/>
+      <c r="V64" s="20"/>
+      <c r="W64" s="20"/>
+      <c r="X64" s="20"/>
+    </row>
+    <row r="65" spans="1:24" s="21" customFormat="1" ht="34">
+      <c r="A65" s="5" t="s">
+        <v>442</v>
+      </c>
       <c r="B65" s="6" t="s">
         <v>349</v>
       </c>
@@ -4084,20 +4722,24 @@
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
-      <c r="N65" s="39"/>
-      <c r="O65" s="21"/>
-      <c r="P65" s="21"/>
-      <c r="Q65" s="21"/>
-      <c r="R65" s="21"/>
-      <c r="S65" s="21"/>
-      <c r="T65" s="21"/>
-      <c r="U65" s="21"/>
-      <c r="V65" s="21"/>
-      <c r="W65" s="21"/>
-      <c r="X65" s="21"/>
-    </row>
-    <row r="66" spans="1:24" s="22" customFormat="1" ht="34">
-      <c r="A66" s="5"/>
+      <c r="N65" s="38"/>
+      <c r="O65" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P65" s="20"/>
+      <c r="Q65" s="20"/>
+      <c r="R65" s="20"/>
+      <c r="S65" s="20"/>
+      <c r="T65" s="20"/>
+      <c r="U65" s="20"/>
+      <c r="V65" s="20"/>
+      <c r="W65" s="20"/>
+      <c r="X65" s="20"/>
+    </row>
+    <row r="66" spans="1:24" s="21" customFormat="1" ht="34">
+      <c r="A66" s="5" t="s">
+        <v>443</v>
+      </c>
       <c r="B66" s="6" t="s">
         <v>350</v>
       </c>
@@ -4116,20 +4758,24 @@
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
-      <c r="N66" s="39"/>
-      <c r="O66" s="21"/>
-      <c r="P66" s="21"/>
-      <c r="Q66" s="21"/>
-      <c r="R66" s="21"/>
-      <c r="S66" s="21"/>
-      <c r="T66" s="21"/>
-      <c r="U66" s="21"/>
-      <c r="V66" s="21"/>
-      <c r="W66" s="21"/>
-      <c r="X66" s="21"/>
-    </row>
-    <row r="67" spans="1:24" s="22" customFormat="1" ht="34">
-      <c r="A67" s="5"/>
+      <c r="N66" s="38"/>
+      <c r="O66" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P66" s="20"/>
+      <c r="Q66" s="20"/>
+      <c r="R66" s="20"/>
+      <c r="S66" s="20"/>
+      <c r="T66" s="20"/>
+      <c r="U66" s="20"/>
+      <c r="V66" s="20"/>
+      <c r="W66" s="20"/>
+      <c r="X66" s="20"/>
+    </row>
+    <row r="67" spans="1:24" s="21" customFormat="1" ht="34">
+      <c r="A67" s="5" t="s">
+        <v>444</v>
+      </c>
       <c r="B67" s="6" t="s">
         <v>100</v>
       </c>
@@ -4149,20 +4795,24 @@
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
-      <c r="N67" s="39"/>
-      <c r="O67" s="21"/>
-      <c r="P67" s="21"/>
-      <c r="Q67" s="21"/>
-      <c r="R67" s="21"/>
-      <c r="S67" s="21"/>
-      <c r="T67" s="21"/>
-      <c r="U67" s="21"/>
-      <c r="V67" s="21"/>
-      <c r="W67" s="21"/>
-      <c r="X67" s="21"/>
-    </row>
-    <row r="68" spans="1:24" s="22" customFormat="1" ht="34">
-      <c r="A68" s="5"/>
+      <c r="N67" s="38"/>
+      <c r="O67" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P67" s="20"/>
+      <c r="Q67" s="20"/>
+      <c r="R67" s="20"/>
+      <c r="S67" s="20"/>
+      <c r="T67" s="20"/>
+      <c r="U67" s="20"/>
+      <c r="V67" s="20"/>
+      <c r="W67" s="20"/>
+      <c r="X67" s="20"/>
+    </row>
+    <row r="68" spans="1:24" s="21" customFormat="1" ht="34">
+      <c r="A68" s="5" t="s">
+        <v>445</v>
+      </c>
       <c r="B68" s="6" t="s">
         <v>351</v>
       </c>
@@ -4182,20 +4832,24 @@
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
-      <c r="N68" s="39"/>
-      <c r="O68" s="21"/>
-      <c r="P68" s="21"/>
-      <c r="Q68" s="21"/>
-      <c r="R68" s="21"/>
-      <c r="S68" s="21"/>
-      <c r="T68" s="21"/>
-      <c r="U68" s="21"/>
-      <c r="V68" s="21"/>
-      <c r="W68" s="21"/>
-      <c r="X68" s="21"/>
-    </row>
-    <row r="69" spans="1:24" s="22" customFormat="1" ht="85">
-      <c r="A69" s="5"/>
+      <c r="N68" s="38"/>
+      <c r="O68" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P68" s="20"/>
+      <c r="Q68" s="20"/>
+      <c r="R68" s="20"/>
+      <c r="S68" s="20"/>
+      <c r="T68" s="20"/>
+      <c r="U68" s="20"/>
+      <c r="V68" s="20"/>
+      <c r="W68" s="20"/>
+      <c r="X68" s="20"/>
+    </row>
+    <row r="69" spans="1:24" s="21" customFormat="1" ht="85">
+      <c r="A69" s="5" t="s">
+        <v>446</v>
+      </c>
       <c r="B69" s="6" t="s">
         <v>352</v>
       </c>
@@ -4218,20 +4872,24 @@
       <c r="M69" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="N69" s="39"/>
-      <c r="O69" s="21"/>
-      <c r="P69" s="21"/>
-      <c r="Q69" s="21"/>
-      <c r="R69" s="21"/>
-      <c r="S69" s="21"/>
-      <c r="T69" s="21"/>
-      <c r="U69" s="21"/>
-      <c r="V69" s="21"/>
-      <c r="W69" s="21"/>
-      <c r="X69" s="21"/>
-    </row>
-    <row r="70" spans="1:24" s="22" customFormat="1" ht="34">
-      <c r="A70" s="5"/>
+      <c r="N69" s="38"/>
+      <c r="O69" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P69" s="20"/>
+      <c r="Q69" s="20"/>
+      <c r="R69" s="20"/>
+      <c r="S69" s="20"/>
+      <c r="T69" s="20"/>
+      <c r="U69" s="20"/>
+      <c r="V69" s="20"/>
+      <c r="W69" s="20"/>
+      <c r="X69" s="20"/>
+    </row>
+    <row r="70" spans="1:24" s="21" customFormat="1" ht="34">
+      <c r="A70" s="5" t="s">
+        <v>447</v>
+      </c>
       <c r="B70" s="6" t="s">
         <v>104</v>
       </c>
@@ -4250,52 +4908,60 @@
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
       <c r="M70" s="5"/>
-      <c r="N70" s="39"/>
-      <c r="O70" s="21"/>
-      <c r="P70" s="21"/>
-      <c r="Q70" s="21"/>
-      <c r="R70" s="21"/>
-      <c r="S70" s="21"/>
-      <c r="T70" s="21"/>
-      <c r="U70" s="21"/>
-      <c r="V70" s="21"/>
-      <c r="W70" s="21"/>
-      <c r="X70" s="21"/>
-    </row>
-    <row r="71" spans="1:24" s="22" customFormat="1" ht="51">
-      <c r="A71" s="5"/>
+      <c r="N70" s="38"/>
+      <c r="O70" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P70" s="20"/>
+      <c r="Q70" s="20"/>
+      <c r="R70" s="20"/>
+      <c r="S70" s="20"/>
+      <c r="T70" s="20"/>
+      <c r="U70" s="20"/>
+      <c r="V70" s="20"/>
+      <c r="W70" s="20"/>
+      <c r="X70" s="20"/>
+    </row>
+    <row r="71" spans="1:24" s="21" customFormat="1" ht="51">
+      <c r="A71" s="5" t="s">
+        <v>448</v>
+      </c>
       <c r="B71" s="6" t="s">
         <v>353</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D71" s="27" t="s">
+      <c r="D71" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="26"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
-      <c r="I71" s="26"/>
-      <c r="J71" s="26"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
-      <c r="N71" s="39"/>
-      <c r="O71" s="21"/>
-      <c r="P71" s="21"/>
-      <c r="Q71" s="21"/>
-      <c r="R71" s="21"/>
-      <c r="S71" s="21"/>
-      <c r="T71" s="21"/>
-      <c r="U71" s="21"/>
-      <c r="V71" s="21"/>
-      <c r="W71" s="21"/>
-      <c r="X71" s="21"/>
-    </row>
-    <row r="72" spans="1:24" s="22" customFormat="1" ht="68">
-      <c r="A72" s="5"/>
+      <c r="N71" s="38"/>
+      <c r="O71" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P71" s="20"/>
+      <c r="Q71" s="20"/>
+      <c r="R71" s="20"/>
+      <c r="S71" s="20"/>
+      <c r="T71" s="20"/>
+      <c r="U71" s="20"/>
+      <c r="V71" s="20"/>
+      <c r="W71" s="20"/>
+      <c r="X71" s="20"/>
+    </row>
+    <row r="72" spans="1:24" s="21" customFormat="1" ht="68">
+      <c r="A72" s="5" t="s">
+        <v>449</v>
+      </c>
       <c r="B72" s="6" t="s">
         <v>107</v>
       </c>
@@ -4316,20 +4982,24 @@
         <v>109</v>
       </c>
       <c r="M72" s="5"/>
-      <c r="N72" s="39"/>
-      <c r="O72" s="21"/>
-      <c r="P72" s="21"/>
-      <c r="Q72" s="21"/>
-      <c r="R72" s="21"/>
-      <c r="S72" s="21"/>
-      <c r="T72" s="21"/>
-      <c r="U72" s="21"/>
-      <c r="V72" s="21"/>
-      <c r="W72" s="21"/>
-      <c r="X72" s="21"/>
-    </row>
-    <row r="73" spans="1:24" s="22" customFormat="1" ht="85">
-      <c r="A73" s="5"/>
+      <c r="N72" s="38"/>
+      <c r="O72" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P72" s="20"/>
+      <c r="Q72" s="20"/>
+      <c r="R72" s="20"/>
+      <c r="S72" s="20"/>
+      <c r="T72" s="20"/>
+      <c r="U72" s="20"/>
+      <c r="V72" s="20"/>
+      <c r="W72" s="20"/>
+      <c r="X72" s="20"/>
+    </row>
+    <row r="73" spans="1:24" s="21" customFormat="1" ht="85">
+      <c r="A73" s="5" t="s">
+        <v>450</v>
+      </c>
       <c r="B73" s="6" t="s">
         <v>354</v>
       </c>
@@ -4350,20 +5020,24 @@
         <v>111</v>
       </c>
       <c r="M73" s="5"/>
-      <c r="N73" s="39"/>
-      <c r="O73" s="21"/>
-      <c r="P73" s="21"/>
-      <c r="Q73" s="21"/>
-      <c r="R73" s="21"/>
-      <c r="S73" s="21"/>
-      <c r="T73" s="21"/>
-      <c r="U73" s="21"/>
-      <c r="V73" s="21"/>
-      <c r="W73" s="21"/>
-      <c r="X73" s="21"/>
-    </row>
-    <row r="74" spans="1:24" s="22" customFormat="1" ht="51">
-      <c r="A74" s="5"/>
+      <c r="N73" s="38"/>
+      <c r="O73" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P73" s="20"/>
+      <c r="Q73" s="20"/>
+      <c r="R73" s="20"/>
+      <c r="S73" s="20"/>
+      <c r="T73" s="20"/>
+      <c r="U73" s="20"/>
+      <c r="V73" s="20"/>
+      <c r="W73" s="20"/>
+      <c r="X73" s="20"/>
+    </row>
+    <row r="74" spans="1:24" s="21" customFormat="1" ht="51">
+      <c r="A74" s="5" t="s">
+        <v>451</v>
+      </c>
       <c r="B74" s="6" t="s">
         <v>112</v>
       </c>
@@ -4378,27 +5052,31 @@
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
       <c r="I74" s="6"/>
-      <c r="J74" s="44"/>
-      <c r="K74" s="14"/>
-      <c r="L74" s="28" t="s">
+      <c r="J74" s="43"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="27" t="s">
         <v>114</v>
       </c>
       <c r="M74" s="5"/>
-      <c r="N74" s="39"/>
-      <c r="O74" s="21"/>
-      <c r="P74" s="21"/>
-      <c r="Q74" s="21"/>
-      <c r="R74" s="21"/>
-      <c r="S74" s="21"/>
-      <c r="T74" s="21"/>
-      <c r="U74" s="21"/>
-      <c r="V74" s="21"/>
-      <c r="W74" s="21"/>
-      <c r="X74" s="21"/>
-    </row>
-    <row r="75" spans="1:24" s="22" customFormat="1" ht="34">
-      <c r="A75" s="5"/>
-      <c r="B75" s="29" t="s">
+      <c r="N74" s="38"/>
+      <c r="O74" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P74" s="20"/>
+      <c r="Q74" s="20"/>
+      <c r="R74" s="20"/>
+      <c r="S74" s="20"/>
+      <c r="T74" s="20"/>
+      <c r="U74" s="20"/>
+      <c r="V74" s="20"/>
+      <c r="W74" s="20"/>
+      <c r="X74" s="20"/>
+    </row>
+    <row r="75" spans="1:24" s="21" customFormat="1" ht="34">
+      <c r="A75" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B75" s="28" t="s">
         <v>115</v>
       </c>
       <c r="C75" s="5" t="s">
@@ -4414,26 +5092,30 @@
       </c>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
-      <c r="J75" s="14"/>
-      <c r="K75" s="14" t="s">
+      <c r="J75" s="13"/>
+      <c r="K75" s="13" t="s">
         <v>242</v>
       </c>
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
-      <c r="N75" s="39"/>
-      <c r="O75" s="21"/>
-      <c r="P75" s="21"/>
-      <c r="Q75" s="21"/>
-      <c r="R75" s="21"/>
-      <c r="S75" s="21"/>
-      <c r="T75" s="21"/>
-      <c r="U75" s="21"/>
-      <c r="V75" s="21"/>
-      <c r="W75" s="21"/>
-      <c r="X75" s="21"/>
-    </row>
-    <row r="76" spans="1:24" s="22" customFormat="1" ht="51">
-      <c r="A76" s="5"/>
+      <c r="N75" s="38"/>
+      <c r="O75" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P75" s="20"/>
+      <c r="Q75" s="20"/>
+      <c r="R75" s="20"/>
+      <c r="S75" s="20"/>
+      <c r="T75" s="20"/>
+      <c r="U75" s="20"/>
+      <c r="V75" s="20"/>
+      <c r="W75" s="20"/>
+      <c r="X75" s="20"/>
+    </row>
+    <row r="76" spans="1:24" s="21" customFormat="1" ht="51">
+      <c r="A76" s="5" t="s">
+        <v>453</v>
+      </c>
       <c r="B76" s="6" t="s">
         <v>117</v>
       </c>
@@ -4455,20 +5137,24 @@
       <c r="J76" s="8"/>
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
-      <c r="N76" s="39"/>
-      <c r="O76" s="21"/>
-      <c r="P76" s="21"/>
-      <c r="Q76" s="21"/>
-      <c r="R76" s="21"/>
-      <c r="S76" s="21"/>
-      <c r="T76" s="21"/>
-      <c r="U76" s="21"/>
-      <c r="V76" s="21"/>
-      <c r="W76" s="21"/>
-      <c r="X76" s="21"/>
-    </row>
-    <row r="77" spans="1:24" s="22" customFormat="1" ht="34">
-      <c r="A77" s="5"/>
+      <c r="N76" s="38"/>
+      <c r="O76" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P76" s="20"/>
+      <c r="Q76" s="20"/>
+      <c r="R76" s="20"/>
+      <c r="S76" s="20"/>
+      <c r="T76" s="20"/>
+      <c r="U76" s="20"/>
+      <c r="V76" s="20"/>
+      <c r="W76" s="20"/>
+      <c r="X76" s="20"/>
+    </row>
+    <row r="77" spans="1:24" s="21" customFormat="1" ht="34">
+      <c r="A77" s="5" t="s">
+        <v>454</v>
+      </c>
       <c r="B77" s="6" t="s">
         <v>318</v>
       </c>
@@ -4489,20 +5175,24 @@
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
-      <c r="N77" s="39"/>
-      <c r="O77" s="21"/>
-      <c r="P77" s="21"/>
-      <c r="Q77" s="21"/>
-      <c r="R77" s="21"/>
-      <c r="S77" s="21"/>
-      <c r="T77" s="21"/>
-      <c r="U77" s="21"/>
-      <c r="V77" s="21"/>
-      <c r="W77" s="21"/>
-      <c r="X77" s="21"/>
-    </row>
-    <row r="78" spans="1:24" s="22" customFormat="1" ht="34">
-      <c r="A78" s="14"/>
+      <c r="N77" s="38"/>
+      <c r="O77" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P77" s="20"/>
+      <c r="Q77" s="20"/>
+      <c r="R77" s="20"/>
+      <c r="S77" s="20"/>
+      <c r="T77" s="20"/>
+      <c r="U77" s="20"/>
+      <c r="V77" s="20"/>
+      <c r="W77" s="20"/>
+      <c r="X77" s="20"/>
+    </row>
+    <row r="78" spans="1:24" s="21" customFormat="1" ht="34">
+      <c r="A78" s="5" t="s">
+        <v>455</v>
+      </c>
       <c r="B78" s="6" t="s">
         <v>355</v>
       </c>
@@ -4519,24 +5209,28 @@
         <v>320</v>
       </c>
       <c r="I78" s="5"/>
-      <c r="J78" s="14"/>
-      <c r="K78" s="14"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
       <c r="L78" s="5"/>
       <c r="M78" s="5"/>
-      <c r="N78" s="39"/>
-      <c r="O78" s="21"/>
-      <c r="P78" s="21"/>
-      <c r="Q78" s="21"/>
-      <c r="R78" s="21"/>
-      <c r="S78" s="21"/>
-      <c r="T78" s="21"/>
-      <c r="U78" s="21"/>
-      <c r="V78" s="21"/>
-      <c r="W78" s="21"/>
-      <c r="X78" s="21"/>
-    </row>
-    <row r="79" spans="1:24" s="22" customFormat="1" ht="51">
-      <c r="A79" s="14"/>
+      <c r="N78" s="38"/>
+      <c r="O78" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P78" s="20"/>
+      <c r="Q78" s="20"/>
+      <c r="R78" s="20"/>
+      <c r="S78" s="20"/>
+      <c r="T78" s="20"/>
+      <c r="U78" s="20"/>
+      <c r="V78" s="20"/>
+      <c r="W78" s="20"/>
+      <c r="X78" s="20"/>
+    </row>
+    <row r="79" spans="1:24" s="21" customFormat="1" ht="51">
+      <c r="A79" s="5" t="s">
+        <v>456</v>
+      </c>
       <c r="B79" s="6" t="s">
         <v>339</v>
       </c>
@@ -4553,24 +5247,28 @@
         <v>321</v>
       </c>
       <c r="I79" s="5"/>
-      <c r="J79" s="14"/>
-      <c r="K79" s="14"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="13"/>
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
-      <c r="N79" s="39"/>
-      <c r="O79" s="21"/>
-      <c r="P79" s="21"/>
-      <c r="Q79" s="21"/>
-      <c r="R79" s="21"/>
-      <c r="S79" s="21"/>
-      <c r="T79" s="21"/>
-      <c r="U79" s="21"/>
-      <c r="V79" s="21"/>
-      <c r="W79" s="21"/>
-      <c r="X79" s="21"/>
-    </row>
-    <row r="80" spans="1:24" s="22" customFormat="1" ht="51">
-      <c r="A80" s="14"/>
+      <c r="N79" s="38"/>
+      <c r="O79" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P79" s="20"/>
+      <c r="Q79" s="20"/>
+      <c r="R79" s="20"/>
+      <c r="S79" s="20"/>
+      <c r="T79" s="20"/>
+      <c r="U79" s="20"/>
+      <c r="V79" s="20"/>
+      <c r="W79" s="20"/>
+      <c r="X79" s="20"/>
+    </row>
+    <row r="80" spans="1:24" s="21" customFormat="1" ht="51">
+      <c r="A80" s="5" t="s">
+        <v>457</v>
+      </c>
       <c r="B80" s="6" t="s">
         <v>322</v>
       </c>
@@ -4587,24 +5285,28 @@
         <v>325</v>
       </c>
       <c r="I80" s="5"/>
-      <c r="J80" s="14"/>
-      <c r="K80" s="14"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="13"/>
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
-      <c r="N80" s="39"/>
-      <c r="O80" s="21"/>
-      <c r="P80" s="21"/>
-      <c r="Q80" s="21"/>
-      <c r="R80" s="21"/>
-      <c r="S80" s="21"/>
-      <c r="T80" s="21"/>
-      <c r="U80" s="21"/>
-      <c r="V80" s="21"/>
-      <c r="W80" s="21"/>
-      <c r="X80" s="21"/>
-    </row>
-    <row r="81" spans="1:24" s="22" customFormat="1" ht="34">
-      <c r="A81" s="14"/>
+      <c r="N80" s="38"/>
+      <c r="O80" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P80" s="20"/>
+      <c r="Q80" s="20"/>
+      <c r="R80" s="20"/>
+      <c r="S80" s="20"/>
+      <c r="T80" s="20"/>
+      <c r="U80" s="20"/>
+      <c r="V80" s="20"/>
+      <c r="W80" s="20"/>
+      <c r="X80" s="20"/>
+    </row>
+    <row r="81" spans="1:24" s="21" customFormat="1" ht="34">
+      <c r="A81" s="5" t="s">
+        <v>458</v>
+      </c>
       <c r="B81" s="6" t="s">
         <v>327</v>
       </c>
@@ -4621,24 +5323,28 @@
         <v>326</v>
       </c>
       <c r="I81" s="5"/>
-      <c r="J81" s="14"/>
-      <c r="K81" s="14"/>
+      <c r="J81" s="13"/>
+      <c r="K81" s="13"/>
       <c r="L81" s="5"/>
       <c r="M81" s="5"/>
-      <c r="N81" s="39"/>
-      <c r="O81" s="21"/>
-      <c r="P81" s="21"/>
-      <c r="Q81" s="21"/>
-      <c r="R81" s="21"/>
-      <c r="S81" s="21"/>
-      <c r="T81" s="21"/>
-      <c r="U81" s="21"/>
-      <c r="V81" s="21"/>
-      <c r="W81" s="21"/>
-      <c r="X81" s="21"/>
-    </row>
-    <row r="82" spans="1:24" s="22" customFormat="1" ht="51">
-      <c r="A82" s="14"/>
+      <c r="N81" s="38"/>
+      <c r="O81" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P81" s="20"/>
+      <c r="Q81" s="20"/>
+      <c r="R81" s="20"/>
+      <c r="S81" s="20"/>
+      <c r="T81" s="20"/>
+      <c r="U81" s="20"/>
+      <c r="V81" s="20"/>
+      <c r="W81" s="20"/>
+      <c r="X81" s="20"/>
+    </row>
+    <row r="82" spans="1:24" s="21" customFormat="1" ht="51">
+      <c r="A82" s="5" t="s">
+        <v>459</v>
+      </c>
       <c r="B82" s="6" t="s">
         <v>330</v>
       </c>
@@ -4655,24 +5361,28 @@
         <v>332</v>
       </c>
       <c r="I82" s="5"/>
-      <c r="J82" s="14"/>
-      <c r="K82" s="14"/>
+      <c r="J82" s="13"/>
+      <c r="K82" s="13"/>
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
-      <c r="N82" s="39"/>
-      <c r="O82" s="21"/>
-      <c r="P82" s="21"/>
-      <c r="Q82" s="21"/>
-      <c r="R82" s="21"/>
-      <c r="S82" s="21"/>
-      <c r="T82" s="21"/>
-      <c r="U82" s="21"/>
-      <c r="V82" s="21"/>
-      <c r="W82" s="21"/>
-      <c r="X82" s="21"/>
-    </row>
-    <row r="83" spans="1:24" s="22" customFormat="1" ht="34">
-      <c r="A83" s="14"/>
+      <c r="N82" s="38"/>
+      <c r="O82" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P82" s="20"/>
+      <c r="Q82" s="20"/>
+      <c r="R82" s="20"/>
+      <c r="S82" s="20"/>
+      <c r="T82" s="20"/>
+      <c r="U82" s="20"/>
+      <c r="V82" s="20"/>
+      <c r="W82" s="20"/>
+      <c r="X82" s="20"/>
+    </row>
+    <row r="83" spans="1:24" s="21" customFormat="1" ht="34">
+      <c r="A83" s="5" t="s">
+        <v>460</v>
+      </c>
       <c r="B83" s="6" t="s">
         <v>121</v>
       </c>
@@ -4689,24 +5399,28 @@
         <v>123</v>
       </c>
       <c r="I83" s="5"/>
-      <c r="J83" s="14"/>
-      <c r="K83" s="14"/>
+      <c r="J83" s="13"/>
+      <c r="K83" s="13"/>
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
-      <c r="N83" s="39"/>
-      <c r="O83" s="21"/>
-      <c r="P83" s="21"/>
-      <c r="Q83" s="21"/>
-      <c r="R83" s="21"/>
-      <c r="S83" s="21"/>
-      <c r="T83" s="21"/>
-      <c r="U83" s="21"/>
-      <c r="V83" s="21"/>
-      <c r="W83" s="21"/>
-      <c r="X83" s="21"/>
-    </row>
-    <row r="84" spans="1:24" s="22" customFormat="1" ht="34">
-      <c r="A84" s="14"/>
+      <c r="N83" s="38"/>
+      <c r="O83" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P83" s="20"/>
+      <c r="Q83" s="20"/>
+      <c r="R83" s="20"/>
+      <c r="S83" s="20"/>
+      <c r="T83" s="20"/>
+      <c r="U83" s="20"/>
+      <c r="V83" s="20"/>
+      <c r="W83" s="20"/>
+      <c r="X83" s="20"/>
+    </row>
+    <row r="84" spans="1:24" s="21" customFormat="1" ht="34">
+      <c r="A84" s="5" t="s">
+        <v>461</v>
+      </c>
       <c r="B84" s="6" t="s">
         <v>356</v>
       </c>
@@ -4723,20 +5437,24 @@
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
       <c r="M84" s="5"/>
-      <c r="N84" s="39"/>
-      <c r="O84" s="21"/>
-      <c r="P84" s="21"/>
-      <c r="Q84" s="21"/>
-      <c r="R84" s="21"/>
-      <c r="S84" s="21"/>
-      <c r="T84" s="21"/>
-      <c r="U84" s="21"/>
-      <c r="V84" s="21"/>
-      <c r="W84" s="21"/>
-      <c r="X84" s="21"/>
+      <c r="N84" s="38"/>
+      <c r="O84" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P84" s="20"/>
+      <c r="Q84" s="20"/>
+      <c r="R84" s="20"/>
+      <c r="S84" s="20"/>
+      <c r="T84" s="20"/>
+      <c r="U84" s="20"/>
+      <c r="V84" s="20"/>
+      <c r="W84" s="20"/>
+      <c r="X84" s="20"/>
     </row>
     <row r="85" spans="1:24" ht="51">
-      <c r="A85" s="5"/>
+      <c r="A85" s="5" t="s">
+        <v>462</v>
+      </c>
       <c r="B85" s="6" t="s">
         <v>139</v>
       </c>
@@ -4747,11 +5465,16 @@
         <v>140</v>
       </c>
       <c r="H85" s="5"/>
-      <c r="M85" s="37"/>
-      <c r="N85" s="41"/>
+      <c r="M85" s="36"/>
+      <c r="N85" s="40"/>
+      <c r="O85" s="18" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="86" spans="1:24" ht="34">
-      <c r="A86" s="5"/>
+      <c r="A86" s="5" t="s">
+        <v>463</v>
+      </c>
       <c r="B86" s="6" t="s">
         <v>141</v>
       </c>
@@ -4765,11 +5488,16 @@
       <c r="I86" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="M86" s="37"/>
-      <c r="N86" s="41"/>
+      <c r="M86" s="36"/>
+      <c r="N86" s="40"/>
+      <c r="O86" s="18" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="87" spans="1:24" ht="34">
-      <c r="A87" s="5"/>
+      <c r="A87" s="5" t="s">
+        <v>464</v>
+      </c>
       <c r="B87" s="6" t="s">
         <v>144</v>
       </c>
@@ -4783,11 +5511,16 @@
       <c r="I87" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="M87" s="37"/>
-      <c r="N87" s="41"/>
+      <c r="M87" s="36"/>
+      <c r="N87" s="40"/>
+      <c r="O87" s="18" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="88" spans="1:24" ht="34">
-      <c r="A88" s="5"/>
+      <c r="A88" s="5" t="s">
+        <v>465</v>
+      </c>
       <c r="B88" s="6" t="s">
         <v>146</v>
       </c>
@@ -4800,11 +5533,16 @@
       <c r="H88" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="M88" s="37"/>
-      <c r="N88" s="41"/>
+      <c r="M88" s="36"/>
+      <c r="N88" s="40"/>
+      <c r="O88" s="18" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="89" spans="1:24" ht="34">
-      <c r="A89" s="5"/>
+      <c r="A89" s="5" t="s">
+        <v>466</v>
+      </c>
       <c r="B89" s="6" t="s">
         <v>149</v>
       </c>
@@ -4821,11 +5559,16 @@
       <c r="K89" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="M89" s="37"/>
-      <c r="N89" s="41"/>
+      <c r="M89" s="36"/>
+      <c r="N89" s="40"/>
+      <c r="O89" s="18" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="90" spans="1:24" ht="34">
-      <c r="A90" s="5"/>
+      <c r="A90" s="5" t="s">
+        <v>467</v>
+      </c>
       <c r="B90" s="6" t="s">
         <v>357</v>
       </c>
@@ -4839,11 +5582,16 @@
       <c r="I90" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="M90" s="37"/>
-      <c r="N90" s="41"/>
+      <c r="M90" s="36"/>
+      <c r="N90" s="40"/>
+      <c r="O90" s="18" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="91" spans="1:24" ht="51">
-      <c r="A91" s="5"/>
+      <c r="A91" s="5" t="s">
+        <v>468</v>
+      </c>
       <c r="B91" s="6" t="s">
         <v>152</v>
       </c>
@@ -4857,11 +5605,16 @@
       <c r="L91" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="M91" s="37"/>
-      <c r="N91" s="41"/>
+      <c r="M91" s="36"/>
+      <c r="N91" s="40"/>
+      <c r="O91" s="18" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="92" spans="1:24" ht="34">
-      <c r="A92" s="5"/>
+      <c r="A92" s="5" t="s">
+        <v>469</v>
+      </c>
       <c r="B92" s="6" t="s">
         <v>155</v>
       </c>
@@ -4872,11 +5625,16 @@
         <v>156</v>
       </c>
       <c r="H92" s="5"/>
-      <c r="M92" s="37"/>
-      <c r="N92" s="41"/>
+      <c r="M92" s="36"/>
+      <c r="N92" s="40"/>
+      <c r="O92" s="18" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="93" spans="1:24" ht="34">
-      <c r="A93" s="5"/>
+      <c r="A93" s="5" t="s">
+        <v>470</v>
+      </c>
       <c r="B93" s="6" t="s">
         <v>157</v>
       </c>
@@ -4889,11 +5647,16 @@
       <c r="H93" s="5"/>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
-      <c r="M93" s="37"/>
-      <c r="N93" s="41"/>
+      <c r="M93" s="36"/>
+      <c r="N93" s="40"/>
+      <c r="O93" s="18" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="94" spans="1:24" ht="34">
-      <c r="A94" s="5"/>
+      <c r="A94" s="5" t="s">
+        <v>471</v>
+      </c>
       <c r="B94" s="6" t="s">
         <v>159</v>
       </c>
@@ -4904,11 +5667,16 @@
         <v>160</v>
       </c>
       <c r="H94" s="5"/>
-      <c r="M94" s="37"/>
-      <c r="N94" s="41"/>
+      <c r="M94" s="36"/>
+      <c r="N94" s="40"/>
+      <c r="O94" s="18" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="95" spans="1:24" ht="34">
-      <c r="A95" s="5"/>
+      <c r="A95" s="5" t="s">
+        <v>472</v>
+      </c>
       <c r="B95" s="6" t="s">
         <v>161</v>
       </c>
@@ -4919,11 +5687,16 @@
         <v>162</v>
       </c>
       <c r="H95" s="5"/>
-      <c r="M95" s="37"/>
-      <c r="N95" s="41"/>
+      <c r="M95" s="36"/>
+      <c r="N95" s="40"/>
+      <c r="O95" s="18" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="96" spans="1:24" ht="34">
-      <c r="A96" s="5"/>
+      <c r="A96" s="5" t="s">
+        <v>473</v>
+      </c>
       <c r="B96" s="6" t="s">
         <v>163</v>
       </c>
@@ -4936,11 +5709,16 @@
       <c r="H96" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="M96" s="37"/>
-      <c r="N96" s="41"/>
-    </row>
-    <row r="97" spans="1:14" ht="34">
-      <c r="A97" s="5"/>
+      <c r="M96" s="36"/>
+      <c r="N96" s="40"/>
+      <c r="O96" s="18" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="34">
+      <c r="A97" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="B97" s="6" t="s">
         <v>165</v>
       </c>
@@ -4953,11 +5731,16 @@
       <c r="H97" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="M97" s="37"/>
-      <c r="N97" s="41"/>
-    </row>
-    <row r="98" spans="1:14" ht="51">
-      <c r="A98" s="5"/>
+      <c r="M97" s="36"/>
+      <c r="N97" s="40"/>
+      <c r="O97" s="18" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="51">
+      <c r="A98" s="5" t="s">
+        <v>475</v>
+      </c>
       <c r="B98" s="6" t="s">
         <v>247</v>
       </c>
@@ -4968,11 +5751,16 @@
         <v>248</v>
       </c>
       <c r="H98" s="5"/>
-      <c r="M98" s="37"/>
-      <c r="N98" s="41"/>
-    </row>
-    <row r="99" spans="1:14" ht="34">
-      <c r="A99" s="5"/>
+      <c r="M98" s="36"/>
+      <c r="N98" s="40"/>
+      <c r="O98" s="18" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="34">
+      <c r="A99" s="5" t="s">
+        <v>476</v>
+      </c>
       <c r="B99" s="6" t="s">
         <v>168</v>
       </c>
@@ -4985,11 +5773,16 @@
       <c r="H99" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="M99" s="37"/>
-      <c r="N99" s="41"/>
-    </row>
-    <row r="100" spans="1:14" ht="34">
-      <c r="A100" s="5"/>
+      <c r="M99" s="36"/>
+      <c r="N99" s="40"/>
+      <c r="O99" s="18" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="34">
+      <c r="A100" s="5" t="s">
+        <v>477</v>
+      </c>
       <c r="B100" s="6" t="s">
         <v>171</v>
       </c>
@@ -5000,11 +5793,16 @@
         <v>333</v>
       </c>
       <c r="H100" s="5"/>
-      <c r="M100" s="37"/>
-      <c r="N100" s="41"/>
-    </row>
-    <row r="101" spans="1:14" ht="34">
-      <c r="A101" s="5"/>
+      <c r="M100" s="36"/>
+      <c r="N100" s="40"/>
+      <c r="O100" s="18" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" ht="34">
+      <c r="A101" s="5" t="s">
+        <v>478</v>
+      </c>
       <c r="B101" s="6" t="s">
         <v>174</v>
       </c>
@@ -5015,11 +5813,16 @@
         <v>175</v>
       </c>
       <c r="H101" s="5"/>
-      <c r="M101" s="37"/>
-      <c r="N101" s="41"/>
-    </row>
-    <row r="102" spans="1:14" ht="34">
-      <c r="A102" s="5"/>
+      <c r="M101" s="36"/>
+      <c r="N101" s="40"/>
+      <c r="O101" s="18" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" ht="34">
+      <c r="A102" s="5" t="s">
+        <v>479</v>
+      </c>
       <c r="B102" s="6" t="s">
         <v>176</v>
       </c>
@@ -5030,11 +5833,16 @@
         <v>177</v>
       </c>
       <c r="H102" s="5"/>
-      <c r="M102" s="37"/>
-      <c r="N102" s="41"/>
-    </row>
-    <row r="103" spans="1:14" ht="34">
-      <c r="A103" s="5"/>
+      <c r="M102" s="36"/>
+      <c r="N102" s="40"/>
+      <c r="O102" s="18" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="34">
+      <c r="A103" s="5" t="s">
+        <v>480</v>
+      </c>
       <c r="B103" s="6" t="s">
         <v>178</v>
       </c>
@@ -5045,11 +5853,16 @@
         <v>179</v>
       </c>
       <c r="H103" s="5"/>
-      <c r="M103" s="37"/>
-      <c r="N103" s="41"/>
-    </row>
-    <row r="104" spans="1:14" ht="34">
-      <c r="A104" s="5"/>
+      <c r="M103" s="36"/>
+      <c r="N103" s="40"/>
+      <c r="O103" s="18" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" ht="34">
+      <c r="A104" s="5" t="s">
+        <v>481</v>
+      </c>
       <c r="B104" s="6" t="s">
         <v>180</v>
       </c>
@@ -5063,11 +5876,16 @@
       <c r="K104" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="M104" s="37"/>
-      <c r="N104" s="41"/>
-    </row>
-    <row r="105" spans="1:14" ht="85">
-      <c r="A105" s="5"/>
+      <c r="M104" s="36"/>
+      <c r="N104" s="40"/>
+      <c r="O104" s="18" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" ht="85">
+      <c r="A105" s="5" t="s">
+        <v>482</v>
+      </c>
       <c r="B105" s="6" t="s">
         <v>183</v>
       </c>
@@ -5081,11 +5899,16 @@
       <c r="L105" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="M105" s="37"/>
-      <c r="N105" s="41"/>
-    </row>
-    <row r="106" spans="1:14" ht="34">
-      <c r="A106" s="5"/>
+      <c r="M105" s="36"/>
+      <c r="N105" s="40"/>
+      <c r="O105" s="18" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" ht="34">
+      <c r="A106" s="5" t="s">
+        <v>483</v>
+      </c>
       <c r="B106" s="6" t="s">
         <v>371</v>
       </c>
@@ -5099,15 +5922,20 @@
       <c r="K106" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="M106" s="37"/>
-      <c r="N106" s="41"/>
-    </row>
-    <row r="107" spans="1:14" ht="34">
-      <c r="A107" s="5"/>
+      <c r="M106" s="36"/>
+      <c r="N106" s="40"/>
+      <c r="O106" s="18" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" ht="34">
+      <c r="A107" s="5" t="s">
+        <v>484</v>
+      </c>
       <c r="B107" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C107" s="14" t="s">
+      <c r="C107" s="13" t="s">
         <v>128</v>
       </c>
       <c r="D107" s="5" t="s">
@@ -5115,11 +5943,16 @@
       </c>
       <c r="E107" s="7"/>
       <c r="H107" s="5"/>
-      <c r="M107" s="37"/>
-      <c r="N107" s="41"/>
-    </row>
-    <row r="108" spans="1:14" ht="34">
-      <c r="A108" s="5"/>
+      <c r="M107" s="36"/>
+      <c r="N107" s="40"/>
+      <c r="O107" s="18" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" ht="34">
+      <c r="A108" s="5" t="s">
+        <v>485</v>
+      </c>
       <c r="B108" s="6" t="s">
         <v>190</v>
       </c>
@@ -5130,11 +5963,16 @@
         <v>191</v>
       </c>
       <c r="H108" s="5"/>
-      <c r="M108" s="37"/>
-      <c r="N108" s="41"/>
-    </row>
-    <row r="109" spans="1:14" ht="34">
-      <c r="A109" s="5"/>
+      <c r="M108" s="36"/>
+      <c r="N108" s="40"/>
+      <c r="O108" s="18" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" ht="34">
+      <c r="A109" s="5" t="s">
+        <v>486</v>
+      </c>
       <c r="B109" s="6" t="s">
         <v>192</v>
       </c>
@@ -5147,11 +5985,16 @@
       <c r="H109" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="M109" s="37"/>
-      <c r="N109" s="41"/>
-    </row>
-    <row r="110" spans="1:14" ht="51">
-      <c r="A110" s="5"/>
+      <c r="M109" s="36"/>
+      <c r="N109" s="40"/>
+      <c r="O109" s="18" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" ht="51">
+      <c r="A110" s="5" t="s">
+        <v>487</v>
+      </c>
       <c r="B110" s="6" t="s">
         <v>195</v>
       </c>
@@ -5162,11 +6005,16 @@
         <v>196</v>
       </c>
       <c r="H110" s="5"/>
-      <c r="M110" s="37"/>
-      <c r="N110" s="41"/>
-    </row>
-    <row r="111" spans="1:14" ht="51">
-      <c r="A111" s="5"/>
+      <c r="M110" s="36"/>
+      <c r="N110" s="40"/>
+      <c r="O110" s="18" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" ht="51">
+      <c r="A111" s="5" t="s">
+        <v>488</v>
+      </c>
       <c r="B111" s="6" t="s">
         <v>292</v>
       </c>
@@ -5180,15 +6028,20 @@
       <c r="K111" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M111" s="37"/>
-      <c r="N111" s="41"/>
-    </row>
-    <row r="112" spans="1:14" ht="51">
-      <c r="A112" s="5"/>
+      <c r="M111" s="36"/>
+      <c r="N111" s="40"/>
+      <c r="O111" s="18" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" ht="51">
+      <c r="A112" s="5" t="s">
+        <v>489</v>
+      </c>
       <c r="B112" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C112" s="14" t="s">
+      <c r="C112" s="13" t="s">
         <v>128</v>
       </c>
       <c r="D112" s="5" t="s">
@@ -5196,15 +6049,20 @@
       </c>
       <c r="E112" s="7"/>
       <c r="H112" s="5"/>
-      <c r="M112" s="37"/>
-      <c r="N112" s="41"/>
+      <c r="M112" s="36"/>
+      <c r="N112" s="40"/>
+      <c r="O112" s="18" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="113" spans="1:24" ht="34">
-      <c r="A113" s="5"/>
+      <c r="A113" s="5" t="s">
+        <v>490</v>
+      </c>
       <c r="B113" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C113" s="14" t="s">
+      <c r="C113" s="13" t="s">
         <v>128</v>
       </c>
       <c r="D113" s="5" t="s">
@@ -5212,11 +6070,16 @@
       </c>
       <c r="E113" s="7"/>
       <c r="H113" s="5"/>
-      <c r="M113" s="37"/>
-      <c r="N113" s="41"/>
+      <c r="M113" s="36"/>
+      <c r="N113" s="40"/>
+      <c r="O113" s="18" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="114" spans="1:24" ht="34">
-      <c r="A114" s="5"/>
+      <c r="A114" s="5" t="s">
+        <v>491</v>
+      </c>
       <c r="B114" s="6" t="s">
         <v>201</v>
       </c>
@@ -5230,11 +6093,16 @@
       <c r="K114" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="M114" s="37"/>
-      <c r="N114" s="41"/>
+      <c r="M114" s="36"/>
+      <c r="N114" s="40"/>
+      <c r="O114" s="18" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="115" spans="1:24" ht="48">
-      <c r="A115" s="5"/>
+      <c r="A115" s="5" t="s">
+        <v>492</v>
+      </c>
       <c r="B115" s="6" t="s">
         <v>204</v>
       </c>
@@ -5244,7 +6112,7 @@
       <c r="D115" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="G115" s="30" t="s">
+      <c r="G115" s="29" t="s">
         <v>289</v>
       </c>
       <c r="H115" s="5" t="s">
@@ -5253,11 +6121,16 @@
       <c r="I115" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="M115" s="37"/>
-      <c r="N115" s="41"/>
+      <c r="M115" s="36"/>
+      <c r="N115" s="40"/>
+      <c r="O115" s="18" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="116" spans="1:24" ht="34">
-      <c r="A116" s="5"/>
+      <c r="A116" s="5" t="s">
+        <v>493</v>
+      </c>
       <c r="B116" s="6" t="s">
         <v>207</v>
       </c>
@@ -5268,11 +6141,16 @@
         <v>208</v>
       </c>
       <c r="H116" s="5"/>
-      <c r="M116" s="37"/>
-      <c r="N116" s="41"/>
+      <c r="M116" s="36"/>
+      <c r="N116" s="40"/>
+      <c r="O116" s="18" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="117" spans="1:24" ht="34">
-      <c r="A117" s="5"/>
+      <c r="A117" s="5" t="s">
+        <v>494</v>
+      </c>
       <c r="B117" s="6" t="s">
         <v>259</v>
       </c>
@@ -5283,11 +6161,16 @@
         <v>338</v>
       </c>
       <c r="H117" s="5"/>
-      <c r="M117" s="37"/>
-      <c r="N117" s="41"/>
+      <c r="M117" s="36"/>
+      <c r="N117" s="40"/>
+      <c r="O117" s="18" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="118" spans="1:24" ht="34">
-      <c r="A118" s="5"/>
+      <c r="A118" s="5" t="s">
+        <v>495</v>
+      </c>
       <c r="B118" s="6" t="s">
         <v>209</v>
       </c>
@@ -5298,11 +6181,16 @@
         <v>288</v>
       </c>
       <c r="H118" s="5"/>
-      <c r="M118" s="37"/>
-      <c r="N118" s="41"/>
+      <c r="M118" s="36"/>
+      <c r="N118" s="40"/>
+      <c r="O118" s="18" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="119" spans="1:24" ht="34">
-      <c r="A119" s="5"/>
+      <c r="A119" s="5" t="s">
+        <v>496</v>
+      </c>
       <c r="B119" s="6" t="s">
         <v>297</v>
       </c>
@@ -5312,15 +6200,20 @@
       <c r="D119" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="H119" s="22"/>
+      <c r="H119" s="21"/>
       <c r="K119" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="M119" s="37"/>
-      <c r="N119" s="41"/>
+      <c r="M119" s="36"/>
+      <c r="N119" s="40"/>
+      <c r="O119" s="18" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="120" spans="1:24" ht="51">
-      <c r="A120" s="5"/>
+      <c r="A120" s="5" t="s">
+        <v>497</v>
+      </c>
       <c r="B120" s="6" t="s">
         <v>210</v>
       </c>
@@ -5334,11 +6227,16 @@
       <c r="L120" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="M120" s="37"/>
-      <c r="N120" s="41"/>
+      <c r="M120" s="36"/>
+      <c r="N120" s="40"/>
+      <c r="O120" s="18" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="121" spans="1:24" ht="34">
-      <c r="A121" s="5"/>
+      <c r="A121" s="5" t="s">
+        <v>498</v>
+      </c>
       <c r="B121" s="6" t="s">
         <v>255</v>
       </c>
@@ -5349,11 +6247,16 @@
         <v>256</v>
       </c>
       <c r="H121" s="5"/>
-      <c r="M121" s="37"/>
-      <c r="N121" s="41"/>
-    </row>
-    <row r="122" spans="1:24" s="31" customFormat="1" ht="34">
-      <c r="A122" s="5"/>
+      <c r="M121" s="36"/>
+      <c r="N121" s="40"/>
+      <c r="O121" s="18" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" s="30" customFormat="1" ht="34">
+      <c r="A122" s="5" t="s">
+        <v>499</v>
+      </c>
       <c r="B122" s="6" t="s">
         <v>249</v>
       </c>
@@ -5370,31 +6273,35 @@
         <v>251</v>
       </c>
       <c r="I122" s="5"/>
-      <c r="J122" s="14"/>
-      <c r="K122" s="14"/>
+      <c r="J122" s="13"/>
+      <c r="K122" s="13"/>
       <c r="L122" s="5"/>
-      <c r="M122" s="37"/>
-      <c r="N122" s="41"/>
-      <c r="O122" s="21"/>
-      <c r="P122" s="21"/>
-      <c r="Q122" s="21"/>
-      <c r="R122" s="21"/>
-      <c r="S122" s="21"/>
-      <c r="T122" s="21"/>
-      <c r="U122" s="21"/>
-      <c r="V122" s="21"/>
-      <c r="W122" s="21"/>
-      <c r="X122" s="21"/>
-    </row>
-    <row r="123" spans="1:24" s="31" customFormat="1" ht="34">
-      <c r="A123" s="5"/>
+      <c r="M122" s="36"/>
+      <c r="N122" s="40"/>
+      <c r="O122" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P122" s="20"/>
+      <c r="Q122" s="20"/>
+      <c r="R122" s="20"/>
+      <c r="S122" s="20"/>
+      <c r="T122" s="20"/>
+      <c r="U122" s="20"/>
+      <c r="V122" s="20"/>
+      <c r="W122" s="20"/>
+      <c r="X122" s="20"/>
+    </row>
+    <row r="123" spans="1:24" s="30" customFormat="1" ht="34">
+      <c r="A123" s="5" t="s">
+        <v>500</v>
+      </c>
       <c r="B123" s="6" t="s">
         <v>293</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D123" s="19" t="s">
+      <c r="D123" s="18" t="s">
         <v>296</v>
       </c>
       <c r="E123" s="5"/>
@@ -5407,21 +6314,25 @@
         <v>241</v>
       </c>
       <c r="L123" s="5"/>
-      <c r="M123" s="37"/>
-      <c r="N123" s="41"/>
-      <c r="O123" s="21"/>
-      <c r="P123" s="21"/>
-      <c r="Q123" s="21"/>
-      <c r="R123" s="21"/>
-      <c r="S123" s="21"/>
-      <c r="T123" s="21"/>
-      <c r="U123" s="21"/>
-      <c r="V123" s="21"/>
-      <c r="W123" s="21"/>
-      <c r="X123" s="21"/>
-    </row>
-    <row r="124" spans="1:24" s="21" customFormat="1" ht="34">
-      <c r="A124" s="5"/>
+      <c r="M123" s="36"/>
+      <c r="N123" s="40"/>
+      <c r="O123" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P123" s="20"/>
+      <c r="Q123" s="20"/>
+      <c r="R123" s="20"/>
+      <c r="S123" s="20"/>
+      <c r="T123" s="20"/>
+      <c r="U123" s="20"/>
+      <c r="V123" s="20"/>
+      <c r="W123" s="20"/>
+      <c r="X123" s="20"/>
+    </row>
+    <row r="124" spans="1:24" s="20" customFormat="1" ht="34">
+      <c r="A124" s="5" t="s">
+        <v>501</v>
+      </c>
       <c r="B124" s="6" t="s">
         <v>213</v>
       </c>
@@ -5436,14 +6347,19 @@
       <c r="G124" s="5"/>
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
-      <c r="J124" s="14"/>
-      <c r="K124" s="14"/>
+      <c r="J124" s="13"/>
+      <c r="K124" s="13"/>
       <c r="L124" s="5"/>
       <c r="M124" s="5"/>
-      <c r="N124" s="39"/>
-    </row>
-    <row r="125" spans="1:24" s="21" customFormat="1" ht="34">
-      <c r="A125" s="5"/>
+      <c r="N124" s="38"/>
+      <c r="O124" s="18" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" s="20" customFormat="1" ht="34">
+      <c r="A125" s="5" t="s">
+        <v>502</v>
+      </c>
       <c r="B125" s="6" t="s">
         <v>215</v>
       </c>
@@ -5458,14 +6374,19 @@
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
-      <c r="J125" s="14"/>
-      <c r="K125" s="14"/>
+      <c r="J125" s="13"/>
+      <c r="K125" s="13"/>
       <c r="L125" s="5"/>
       <c r="M125" s="5"/>
-      <c r="N125" s="39"/>
-    </row>
-    <row r="126" spans="1:24" s="21" customFormat="1" ht="34">
-      <c r="A126" s="5"/>
+      <c r="N125" s="38"/>
+      <c r="O125" s="18" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24" s="20" customFormat="1" ht="34">
+      <c r="A126" s="5" t="s">
+        <v>503</v>
+      </c>
       <c r="B126" s="6" t="s">
         <v>358</v>
       </c>
@@ -5480,16 +6401,21 @@
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
-      <c r="J126" s="14"/>
-      <c r="K126" s="14" t="s">
+      <c r="J126" s="13"/>
+      <c r="K126" s="13" t="s">
         <v>123</v>
       </c>
       <c r="L126" s="5"/>
       <c r="M126" s="5"/>
-      <c r="N126" s="39"/>
-    </row>
-    <row r="127" spans="1:24" s="21" customFormat="1" ht="34">
-      <c r="A127" s="5"/>
+      <c r="N126" s="38"/>
+      <c r="O126" s="18" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24" s="20" customFormat="1" ht="34">
+      <c r="A127" s="5" t="s">
+        <v>504</v>
+      </c>
       <c r="B127" s="6" t="s">
         <v>218</v>
       </c>
@@ -5504,14 +6430,19 @@
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
-      <c r="J127" s="14"/>
-      <c r="K127" s="14"/>
+      <c r="J127" s="13"/>
+      <c r="K127" s="13"/>
       <c r="L127" s="5"/>
       <c r="M127" s="5"/>
-      <c r="N127" s="39"/>
-    </row>
-    <row r="128" spans="1:24" s="21" customFormat="1" ht="102">
-      <c r="A128" s="5"/>
+      <c r="N127" s="38"/>
+      <c r="O127" s="18" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" s="20" customFormat="1" ht="102">
+      <c r="A128" s="5" t="s">
+        <v>505</v>
+      </c>
       <c r="B128" s="6" t="s">
         <v>359</v>
       </c>
@@ -5528,14 +6459,19 @@
       <c r="I128" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="J128" s="14"/>
-      <c r="K128" s="14"/>
+      <c r="J128" s="13"/>
+      <c r="K128" s="13"/>
       <c r="L128" s="5"/>
       <c r="M128" s="5"/>
-      <c r="N128" s="39"/>
-    </row>
-    <row r="129" spans="1:14" s="21" customFormat="1" ht="34">
-      <c r="A129" s="5"/>
+      <c r="N128" s="38"/>
+      <c r="O128" s="18" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" s="20" customFormat="1" ht="34">
+      <c r="A129" s="5" t="s">
+        <v>506</v>
+      </c>
       <c r="B129" s="6" t="s">
         <v>290</v>
       </c>
@@ -5555,11 +6491,16 @@
       <c r="J129" s="5"/>
       <c r="K129" s="5"/>
       <c r="L129" s="5"/>
-      <c r="M129" s="37"/>
-      <c r="N129" s="41"/>
-    </row>
-    <row r="130" spans="1:14" ht="119">
-      <c r="A130" s="5"/>
+      <c r="M129" s="36"/>
+      <c r="N129" s="40"/>
+      <c r="O129" s="18" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" ht="119">
+      <c r="A130" s="5" t="s">
+        <v>507</v>
+      </c>
       <c r="B130" s="6" t="s">
         <v>360</v>
       </c>
@@ -5576,11 +6517,16 @@
       <c r="K130" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="M130" s="37"/>
-      <c r="N130" s="41"/>
-    </row>
-    <row r="131" spans="1:14" s="21" customFormat="1" ht="34">
-      <c r="A131" s="14"/>
+      <c r="M130" s="36"/>
+      <c r="N130" s="40"/>
+      <c r="O130" s="18" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" s="20" customFormat="1" ht="34">
+      <c r="A131" s="5" t="s">
+        <v>508</v>
+      </c>
       <c r="B131" s="6" t="s">
         <v>223</v>
       </c>
@@ -5597,14 +6543,19 @@
       </c>
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
-      <c r="J131" s="14"/>
-      <c r="K131" s="14"/>
+      <c r="J131" s="13"/>
+      <c r="K131" s="13"/>
       <c r="L131" s="5"/>
       <c r="M131" s="5"/>
-      <c r="N131" s="39"/>
-    </row>
-    <row r="132" spans="1:14" s="21" customFormat="1" ht="34">
-      <c r="A132" s="14"/>
+      <c r="N131" s="38"/>
+      <c r="O131" s="18" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" s="20" customFormat="1" ht="34">
+      <c r="A132" s="5" t="s">
+        <v>509</v>
+      </c>
       <c r="B132" s="6" t="s">
         <v>245</v>
       </c>
@@ -5619,14 +6570,19 @@
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
-      <c r="J132" s="14"/>
-      <c r="K132" s="14"/>
+      <c r="J132" s="13"/>
+      <c r="K132" s="13"/>
       <c r="L132" s="5"/>
       <c r="M132" s="5"/>
-      <c r="N132" s="39"/>
-    </row>
-    <row r="133" spans="1:14" ht="68">
-      <c r="A133" s="5"/>
+      <c r="N132" s="38"/>
+      <c r="O132" s="18" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" ht="68">
+      <c r="A133" s="5" t="s">
+        <v>510</v>
+      </c>
       <c r="B133" s="6" t="s">
         <v>225</v>
       </c>
@@ -5640,11 +6596,16 @@
       <c r="K133" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="M133" s="38"/>
-      <c r="N133" s="42"/>
-    </row>
-    <row r="134" spans="1:14" ht="68">
-      <c r="A134" s="14"/>
+      <c r="M133" s="37"/>
+      <c r="N133" s="41"/>
+      <c r="O133" s="18" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" ht="68">
+      <c r="A134" s="5" t="s">
+        <v>511</v>
+      </c>
       <c r="B134" s="6" t="s">
         <v>229</v>
       </c>
@@ -5661,11 +6622,16 @@
       <c r="K134" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="M134" s="38"/>
-      <c r="N134" s="42"/>
-    </row>
-    <row r="135" spans="1:14" ht="85">
-      <c r="A135" s="14"/>
+      <c r="M134" s="37"/>
+      <c r="N134" s="41"/>
+      <c r="O134" s="18" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" ht="85">
+      <c r="A135" s="5" t="s">
+        <v>512</v>
+      </c>
       <c r="B135" s="6" t="s">
         <v>233</v>
       </c>
@@ -5685,11 +6651,16 @@
       <c r="L135" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="M135" s="38"/>
-      <c r="N135" s="42"/>
-    </row>
-    <row r="136" spans="1:14" ht="68">
-      <c r="A136" s="14"/>
+      <c r="M135" s="37"/>
+      <c r="N135" s="41"/>
+      <c r="O135" s="18" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" ht="68">
+      <c r="A136" s="5" t="s">
+        <v>513</v>
+      </c>
       <c r="B136" s="6" t="s">
         <v>361</v>
       </c>
@@ -5703,1768 +6674,1773 @@
       <c r="K136" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="M136" s="38"/>
-      <c r="N136" s="42"/>
-    </row>
-    <row r="137" spans="1:14" s="21" customFormat="1">
-      <c r="A137" s="16"/>
-      <c r="M137" s="19"/>
-      <c r="N137" s="19"/>
-    </row>
-    <row r="138" spans="1:14" s="21" customFormat="1">
-      <c r="A138" s="16"/>
-      <c r="M138" s="19"/>
-      <c r="N138" s="19"/>
-    </row>
-    <row r="139" spans="1:14" s="21" customFormat="1">
-      <c r="A139" s="16"/>
-      <c r="B139" s="32"/>
-      <c r="C139" s="19"/>
-      <c r="D139" s="19"/>
-      <c r="E139" s="19"/>
-      <c r="F139" s="19"/>
-      <c r="G139" s="19"/>
-      <c r="H139" s="19"/>
-      <c r="I139" s="19"/>
-      <c r="J139" s="19"/>
-      <c r="K139" s="19"/>
-      <c r="L139" s="19"/>
-      <c r="M139" s="19"/>
-      <c r="N139" s="19"/>
-    </row>
-    <row r="140" spans="1:14" s="21" customFormat="1">
-      <c r="A140" s="16"/>
-      <c r="B140" s="32"/>
-      <c r="C140" s="19"/>
-      <c r="D140" s="19"/>
-      <c r="E140" s="19"/>
-      <c r="F140" s="19"/>
-      <c r="G140" s="19"/>
-      <c r="H140" s="19"/>
-      <c r="I140" s="19"/>
-      <c r="J140" s="19"/>
-      <c r="K140" s="19"/>
-      <c r="L140" s="19"/>
-      <c r="M140" s="19"/>
-      <c r="N140" s="19"/>
-    </row>
-    <row r="141" spans="1:14" s="21" customFormat="1">
-      <c r="A141" s="16"/>
-      <c r="B141" s="32"/>
-      <c r="C141" s="19"/>
-      <c r="D141" s="19"/>
-      <c r="E141" s="19"/>
-      <c r="F141" s="19"/>
-      <c r="G141" s="19"/>
-      <c r="H141" s="19"/>
-      <c r="I141" s="19"/>
-      <c r="J141" s="19"/>
-      <c r="K141" s="19"/>
-      <c r="L141" s="19"/>
-      <c r="M141" s="19"/>
-      <c r="N141" s="19"/>
-    </row>
-    <row r="142" spans="1:14" s="21" customFormat="1">
-      <c r="A142" s="16"/>
-      <c r="B142" s="32"/>
-      <c r="C142" s="19"/>
-      <c r="D142" s="19"/>
-      <c r="E142" s="19"/>
-      <c r="F142" s="19"/>
-      <c r="G142" s="19"/>
-      <c r="H142" s="19"/>
-      <c r="I142" s="19"/>
-      <c r="J142" s="19"/>
-      <c r="K142" s="19"/>
-      <c r="L142" s="19"/>
-      <c r="M142" s="19"/>
-      <c r="N142" s="19"/>
-    </row>
-    <row r="143" spans="1:14" s="21" customFormat="1">
-      <c r="A143" s="16"/>
-      <c r="B143" s="32"/>
-      <c r="C143" s="19"/>
-      <c r="D143" s="19"/>
-      <c r="E143" s="19"/>
-      <c r="F143" s="19"/>
-      <c r="G143" s="19"/>
-      <c r="H143" s="19"/>
-      <c r="I143" s="19"/>
-      <c r="J143" s="19"/>
-      <c r="K143" s="19"/>
-      <c r="L143" s="19"/>
-      <c r="M143" s="19"/>
-      <c r="N143" s="19"/>
-    </row>
-    <row r="144" spans="1:14" s="21" customFormat="1">
-      <c r="A144" s="16"/>
-      <c r="B144" s="32"/>
-      <c r="C144" s="19"/>
-      <c r="D144" s="19"/>
-      <c r="E144" s="19"/>
-      <c r="F144" s="19"/>
-      <c r="G144" s="19"/>
-      <c r="H144" s="19"/>
-      <c r="I144" s="19"/>
-      <c r="J144" s="19"/>
-      <c r="K144" s="19"/>
-      <c r="L144" s="19"/>
-      <c r="M144" s="19"/>
-      <c r="N144" s="19"/>
-    </row>
-    <row r="145" spans="1:14" s="21" customFormat="1">
-      <c r="A145" s="16"/>
-      <c r="B145" s="32"/>
-      <c r="C145" s="19"/>
-      <c r="D145" s="19"/>
-      <c r="E145" s="19"/>
-      <c r="F145" s="19"/>
-      <c r="G145" s="19"/>
-      <c r="H145" s="19"/>
-      <c r="I145" s="19"/>
-      <c r="J145" s="19"/>
-      <c r="K145" s="19"/>
-      <c r="L145" s="19"/>
-      <c r="M145" s="19"/>
-      <c r="N145" s="19"/>
-    </row>
-    <row r="146" spans="1:14" s="21" customFormat="1">
-      <c r="A146" s="16"/>
-      <c r="B146" s="32"/>
-      <c r="C146" s="19"/>
-      <c r="D146" s="19"/>
-      <c r="E146" s="19"/>
-      <c r="F146" s="19"/>
-      <c r="G146" s="19"/>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
-      <c r="J146" s="19"/>
-      <c r="K146" s="19"/>
-      <c r="L146" s="19"/>
-      <c r="M146" s="19"/>
-      <c r="N146" s="19"/>
-    </row>
-    <row r="147" spans="1:14" s="21" customFormat="1">
-      <c r="A147" s="16"/>
-      <c r="B147" s="32"/>
-      <c r="C147" s="19"/>
-      <c r="D147" s="19"/>
-      <c r="E147" s="19"/>
-      <c r="F147" s="19"/>
-      <c r="G147" s="19"/>
-      <c r="H147" s="19"/>
-      <c r="I147" s="19"/>
-      <c r="J147" s="19"/>
-      <c r="K147" s="19"/>
-      <c r="L147" s="19"/>
-      <c r="M147" s="19"/>
-      <c r="N147" s="19"/>
-    </row>
-    <row r="148" spans="1:14" s="21" customFormat="1">
-      <c r="A148" s="16"/>
-      <c r="B148" s="32"/>
-      <c r="C148" s="19"/>
-      <c r="D148" s="19"/>
-      <c r="E148" s="19"/>
-      <c r="F148" s="19"/>
-      <c r="G148" s="19"/>
-      <c r="H148" s="19"/>
-      <c r="I148" s="19"/>
-      <c r="J148" s="19"/>
-      <c r="K148" s="19"/>
-      <c r="L148" s="19"/>
-      <c r="M148" s="19"/>
-      <c r="N148" s="19"/>
-    </row>
-    <row r="149" spans="1:14" s="21" customFormat="1">
-      <c r="A149" s="16"/>
-      <c r="B149" s="32"/>
-      <c r="C149" s="19"/>
-      <c r="D149" s="19"/>
-      <c r="E149" s="19"/>
-      <c r="F149" s="19"/>
-      <c r="G149" s="19"/>
-      <c r="H149" s="19"/>
-      <c r="I149" s="19"/>
-      <c r="J149" s="19"/>
-      <c r="K149" s="19"/>
-      <c r="L149" s="19"/>
-      <c r="M149" s="19"/>
-      <c r="N149" s="19"/>
-    </row>
-    <row r="150" spans="1:14" s="21" customFormat="1">
-      <c r="A150" s="16"/>
-      <c r="B150" s="32"/>
-      <c r="C150" s="19"/>
-      <c r="D150" s="19"/>
-      <c r="E150" s="19"/>
-      <c r="F150" s="19"/>
-      <c r="G150" s="19"/>
-      <c r="H150" s="19"/>
-      <c r="I150" s="19"/>
-      <c r="J150" s="19"/>
-      <c r="K150" s="19"/>
-      <c r="L150" s="19"/>
-      <c r="M150" s="19"/>
-      <c r="N150" s="19"/>
-    </row>
-    <row r="151" spans="1:14" s="21" customFormat="1">
-      <c r="A151" s="16"/>
-      <c r="B151" s="32"/>
-      <c r="C151" s="19"/>
-      <c r="D151" s="19"/>
-      <c r="E151" s="19"/>
-      <c r="F151" s="19"/>
-      <c r="G151" s="19"/>
-      <c r="H151" s="19"/>
-      <c r="I151" s="19"/>
-      <c r="J151" s="19"/>
-      <c r="K151" s="19"/>
-      <c r="L151" s="19"/>
-      <c r="M151" s="19"/>
-      <c r="N151" s="19"/>
-    </row>
-    <row r="152" spans="1:14" s="21" customFormat="1">
-      <c r="A152" s="16"/>
-      <c r="B152" s="32"/>
-      <c r="C152" s="19"/>
-      <c r="D152" s="19"/>
-      <c r="E152" s="19"/>
-      <c r="F152" s="19"/>
-      <c r="G152" s="19"/>
-      <c r="H152" s="19"/>
-      <c r="I152" s="19"/>
-      <c r="J152" s="19"/>
-      <c r="K152" s="19"/>
-      <c r="L152" s="19"/>
-      <c r="M152" s="19"/>
-      <c r="N152" s="19"/>
-    </row>
-    <row r="153" spans="1:14" s="21" customFormat="1">
-      <c r="A153" s="16"/>
-      <c r="B153" s="32"/>
-      <c r="C153" s="19"/>
-      <c r="D153" s="19"/>
-      <c r="E153" s="19"/>
-      <c r="F153" s="19"/>
-      <c r="G153" s="19"/>
-      <c r="H153" s="19"/>
-      <c r="I153" s="19"/>
-      <c r="J153" s="19"/>
-      <c r="K153" s="19"/>
-      <c r="L153" s="19"/>
-      <c r="M153" s="19"/>
-      <c r="N153" s="19"/>
-    </row>
-    <row r="154" spans="1:14" s="21" customFormat="1">
-      <c r="A154" s="16"/>
-      <c r="B154" s="32"/>
-      <c r="C154" s="19"/>
-      <c r="D154" s="19"/>
-      <c r="E154" s="19"/>
-      <c r="F154" s="19"/>
-      <c r="G154" s="19"/>
-      <c r="H154" s="19"/>
-      <c r="I154" s="19"/>
-      <c r="J154" s="19"/>
-      <c r="K154" s="19"/>
-      <c r="L154" s="19"/>
-      <c r="M154" s="19"/>
-      <c r="N154" s="19"/>
-    </row>
-    <row r="155" spans="1:14" s="21" customFormat="1">
-      <c r="A155" s="16"/>
-      <c r="B155" s="32"/>
-      <c r="C155" s="19"/>
-      <c r="D155" s="19"/>
-      <c r="E155" s="19"/>
-      <c r="F155" s="19"/>
-      <c r="G155" s="19"/>
-      <c r="H155" s="19"/>
-      <c r="I155" s="19"/>
-      <c r="J155" s="19"/>
-      <c r="K155" s="19"/>
-      <c r="L155" s="19"/>
-      <c r="M155" s="19"/>
-      <c r="N155" s="19"/>
-    </row>
-    <row r="156" spans="1:14" s="21" customFormat="1">
-      <c r="A156" s="16"/>
-      <c r="B156" s="32"/>
-      <c r="C156" s="19"/>
-      <c r="D156" s="19"/>
-      <c r="E156" s="19"/>
-      <c r="F156" s="19"/>
-      <c r="G156" s="19"/>
-      <c r="H156" s="19"/>
-      <c r="I156" s="19"/>
-      <c r="J156" s="19"/>
-      <c r="K156" s="19"/>
-      <c r="L156" s="19"/>
-      <c r="M156" s="19"/>
-      <c r="N156" s="19"/>
-    </row>
-    <row r="157" spans="1:14" s="21" customFormat="1">
-      <c r="A157" s="16"/>
-      <c r="B157" s="32"/>
-      <c r="C157" s="19"/>
-      <c r="D157" s="19"/>
-      <c r="E157" s="19"/>
-      <c r="F157" s="19"/>
-      <c r="G157" s="19"/>
-      <c r="H157" s="19"/>
-      <c r="I157" s="19"/>
-      <c r="J157" s="19"/>
-      <c r="K157" s="19"/>
-      <c r="L157" s="19"/>
-      <c r="M157" s="19"/>
-      <c r="N157" s="19"/>
-    </row>
-    <row r="158" spans="1:14" s="21" customFormat="1">
-      <c r="A158" s="16"/>
-      <c r="B158" s="32"/>
-      <c r="C158" s="19"/>
-      <c r="D158" s="19"/>
-      <c r="E158" s="19"/>
-      <c r="F158" s="19"/>
-      <c r="G158" s="19"/>
-      <c r="H158" s="19"/>
-      <c r="I158" s="19"/>
-      <c r="J158" s="19"/>
-      <c r="K158" s="19"/>
-      <c r="L158" s="19"/>
-      <c r="M158" s="19"/>
-      <c r="N158" s="19"/>
-    </row>
-    <row r="159" spans="1:14" s="21" customFormat="1">
-      <c r="A159" s="16"/>
-      <c r="B159" s="32"/>
-      <c r="C159" s="19"/>
-      <c r="D159" s="19"/>
-      <c r="E159" s="19"/>
-      <c r="F159" s="19"/>
-      <c r="G159" s="19"/>
-      <c r="H159" s="19"/>
-      <c r="I159" s="19"/>
-      <c r="J159" s="19"/>
-      <c r="K159" s="19"/>
-      <c r="L159" s="19"/>
-      <c r="M159" s="19"/>
-      <c r="N159" s="19"/>
-    </row>
-    <row r="160" spans="1:14" s="21" customFormat="1">
-      <c r="A160" s="16"/>
-      <c r="B160" s="32"/>
-      <c r="C160" s="19"/>
-      <c r="D160" s="19"/>
-      <c r="E160" s="19"/>
-      <c r="F160" s="19"/>
-      <c r="G160" s="19"/>
-      <c r="H160" s="19"/>
-      <c r="I160" s="19"/>
-      <c r="J160" s="19"/>
-      <c r="K160" s="19"/>
-      <c r="L160" s="19"/>
-      <c r="M160" s="19"/>
-      <c r="N160" s="19"/>
-    </row>
-    <row r="161" spans="1:14" s="21" customFormat="1">
-      <c r="A161" s="16"/>
-      <c r="B161" s="32"/>
-      <c r="C161" s="19"/>
-      <c r="D161" s="19"/>
-      <c r="E161" s="19"/>
-      <c r="F161" s="19"/>
-      <c r="G161" s="19"/>
-      <c r="H161" s="19"/>
-      <c r="I161" s="19"/>
-      <c r="J161" s="19"/>
-      <c r="K161" s="19"/>
-      <c r="L161" s="19"/>
-      <c r="M161" s="19"/>
-      <c r="N161" s="19"/>
-    </row>
-    <row r="162" spans="1:14" s="21" customFormat="1">
-      <c r="A162" s="16"/>
-      <c r="B162" s="32"/>
-      <c r="C162" s="19"/>
-      <c r="D162" s="19"/>
-      <c r="E162" s="19"/>
-      <c r="F162" s="19"/>
-      <c r="G162" s="19"/>
-      <c r="H162" s="19"/>
-      <c r="I162" s="19"/>
-      <c r="J162" s="19"/>
-      <c r="K162" s="19"/>
-      <c r="L162" s="19"/>
-      <c r="M162" s="19"/>
-      <c r="N162" s="19"/>
-    </row>
-    <row r="163" spans="1:14" s="21" customFormat="1">
-      <c r="A163" s="16"/>
-      <c r="B163" s="32"/>
-      <c r="C163" s="19"/>
-      <c r="D163" s="19"/>
-      <c r="E163" s="19"/>
-      <c r="F163" s="19"/>
-      <c r="G163" s="19"/>
-      <c r="H163" s="19"/>
-      <c r="I163" s="19"/>
-      <c r="J163" s="19"/>
-      <c r="K163" s="19"/>
-      <c r="L163" s="19"/>
-      <c r="M163" s="19"/>
-      <c r="N163" s="19"/>
-    </row>
-    <row r="164" spans="1:14" s="21" customFormat="1">
-      <c r="A164" s="16"/>
-      <c r="B164" s="32"/>
-      <c r="C164" s="19"/>
-      <c r="D164" s="19"/>
-      <c r="E164" s="19"/>
-      <c r="F164" s="19"/>
-      <c r="G164" s="19"/>
-      <c r="H164" s="19"/>
-      <c r="I164" s="19"/>
-      <c r="J164" s="19"/>
-      <c r="K164" s="19"/>
-      <c r="L164" s="19"/>
-      <c r="M164" s="19"/>
-      <c r="N164" s="19"/>
-    </row>
-    <row r="165" spans="1:14" s="21" customFormat="1">
-      <c r="A165" s="16"/>
-      <c r="B165" s="32"/>
-      <c r="C165" s="19"/>
-      <c r="D165" s="19"/>
-      <c r="E165" s="19"/>
-      <c r="F165" s="19"/>
-      <c r="G165" s="19"/>
-      <c r="H165" s="19"/>
-      <c r="I165" s="19"/>
-      <c r="J165" s="19"/>
-      <c r="K165" s="19"/>
-      <c r="L165" s="19"/>
-      <c r="M165" s="19"/>
-      <c r="N165" s="19"/>
-    </row>
-    <row r="166" spans="1:14" s="21" customFormat="1">
-      <c r="A166" s="16"/>
-      <c r="B166" s="32"/>
-      <c r="C166" s="19"/>
-      <c r="D166" s="19"/>
-      <c r="E166" s="19"/>
-      <c r="F166" s="19"/>
-      <c r="G166" s="19"/>
-      <c r="H166" s="19"/>
-      <c r="I166" s="19"/>
-      <c r="J166" s="19"/>
-      <c r="K166" s="19"/>
-      <c r="L166" s="19"/>
-      <c r="M166" s="19"/>
-      <c r="N166" s="19"/>
-    </row>
-    <row r="167" spans="1:14" s="21" customFormat="1">
-      <c r="A167" s="16"/>
-      <c r="B167" s="32"/>
-      <c r="C167" s="19"/>
-      <c r="D167" s="19"/>
-      <c r="E167" s="19"/>
-      <c r="F167" s="19"/>
-      <c r="G167" s="19"/>
-      <c r="H167" s="19"/>
-      <c r="I167" s="19"/>
-      <c r="J167" s="19"/>
-      <c r="K167" s="19"/>
-      <c r="L167" s="19"/>
-      <c r="M167" s="19"/>
-      <c r="N167" s="19"/>
-    </row>
-    <row r="168" spans="1:14" s="21" customFormat="1">
-      <c r="A168" s="16"/>
-      <c r="B168" s="32"/>
-      <c r="C168" s="19"/>
-      <c r="D168" s="19"/>
-      <c r="E168" s="19"/>
-      <c r="F168" s="19"/>
-      <c r="G168" s="19"/>
-      <c r="H168" s="19"/>
-      <c r="I168" s="19"/>
-      <c r="J168" s="19"/>
-      <c r="K168" s="19"/>
-      <c r="L168" s="19"/>
-      <c r="M168" s="19"/>
-      <c r="N168" s="19"/>
-    </row>
-    <row r="169" spans="1:14" s="21" customFormat="1">
-      <c r="A169" s="16"/>
-      <c r="B169" s="32"/>
-      <c r="C169" s="19"/>
-      <c r="D169" s="19"/>
-      <c r="E169" s="19"/>
-      <c r="F169" s="19"/>
-      <c r="G169" s="19"/>
-      <c r="H169" s="19"/>
-      <c r="I169" s="19"/>
-      <c r="J169" s="19"/>
-      <c r="K169" s="19"/>
-      <c r="L169" s="19"/>
-      <c r="M169" s="19"/>
-      <c r="N169" s="19"/>
-    </row>
-    <row r="170" spans="1:14" s="21" customFormat="1">
-      <c r="A170" s="16"/>
-      <c r="B170" s="32"/>
-      <c r="C170" s="19"/>
-      <c r="D170" s="19"/>
-      <c r="E170" s="19"/>
-      <c r="F170" s="19"/>
-      <c r="G170" s="19"/>
-      <c r="H170" s="19"/>
-      <c r="I170" s="19"/>
-      <c r="J170" s="19"/>
-      <c r="K170" s="19"/>
-      <c r="L170" s="19"/>
-      <c r="M170" s="19"/>
-      <c r="N170" s="19"/>
-    </row>
-    <row r="171" spans="1:14" s="21" customFormat="1">
-      <c r="A171" s="16"/>
-      <c r="B171" s="32"/>
-      <c r="C171" s="19"/>
-      <c r="D171" s="19"/>
-      <c r="E171" s="19"/>
-      <c r="F171" s="19"/>
-      <c r="G171" s="19"/>
-      <c r="H171" s="19"/>
-      <c r="I171" s="19"/>
-      <c r="J171" s="19"/>
-      <c r="K171" s="19"/>
-      <c r="L171" s="19"/>
-      <c r="M171" s="19"/>
-      <c r="N171" s="19"/>
-    </row>
-    <row r="172" spans="1:14" s="21" customFormat="1">
-      <c r="A172" s="16"/>
-      <c r="B172" s="32"/>
-      <c r="C172" s="19"/>
-      <c r="D172" s="19"/>
-      <c r="E172" s="19"/>
-      <c r="F172" s="19"/>
-      <c r="G172" s="19"/>
-      <c r="H172" s="19"/>
-      <c r="I172" s="19"/>
-      <c r="J172" s="19"/>
-      <c r="K172" s="19"/>
-      <c r="L172" s="19"/>
-      <c r="M172" s="19"/>
-      <c r="N172" s="19"/>
-    </row>
-    <row r="173" spans="1:14" s="21" customFormat="1">
-      <c r="A173" s="16"/>
-      <c r="B173" s="32"/>
-      <c r="C173" s="19"/>
-      <c r="D173" s="19"/>
-      <c r="E173" s="19"/>
-      <c r="F173" s="19"/>
-      <c r="G173" s="19"/>
-      <c r="H173" s="19"/>
-      <c r="I173" s="19"/>
-      <c r="J173" s="19"/>
-      <c r="K173" s="19"/>
-      <c r="L173" s="19"/>
-      <c r="M173" s="19"/>
-      <c r="N173" s="19"/>
-    </row>
-    <row r="174" spans="1:14" s="21" customFormat="1">
-      <c r="A174" s="16"/>
-      <c r="B174" s="32"/>
-      <c r="C174" s="19"/>
-      <c r="D174" s="19"/>
-      <c r="E174" s="19"/>
-      <c r="F174" s="19"/>
-      <c r="G174" s="19"/>
-      <c r="H174" s="19"/>
-      <c r="I174" s="19"/>
-      <c r="J174" s="19"/>
-      <c r="K174" s="19"/>
-      <c r="L174" s="19"/>
-      <c r="M174" s="19"/>
-      <c r="N174" s="19"/>
-    </row>
-    <row r="175" spans="1:14" s="21" customFormat="1">
-      <c r="A175" s="16"/>
-      <c r="B175" s="32"/>
-      <c r="C175" s="19"/>
-      <c r="D175" s="19"/>
-      <c r="E175" s="19"/>
-      <c r="F175" s="19"/>
-      <c r="G175" s="19"/>
-      <c r="H175" s="19"/>
-      <c r="I175" s="19"/>
-      <c r="J175" s="19"/>
-      <c r="K175" s="19"/>
-      <c r="L175" s="19"/>
-      <c r="M175" s="19"/>
-      <c r="N175" s="19"/>
-    </row>
-    <row r="176" spans="1:14" s="21" customFormat="1">
-      <c r="A176" s="16"/>
-      <c r="B176" s="32"/>
-      <c r="C176" s="19"/>
-      <c r="D176" s="19"/>
-      <c r="E176" s="19"/>
-      <c r="F176" s="19"/>
-      <c r="G176" s="19"/>
-      <c r="H176" s="19"/>
-      <c r="I176" s="19"/>
-      <c r="J176" s="19"/>
-      <c r="K176" s="19"/>
-      <c r="L176" s="19"/>
-      <c r="M176" s="19"/>
-      <c r="N176" s="19"/>
-    </row>
-    <row r="177" spans="1:14" s="21" customFormat="1">
-      <c r="A177" s="16"/>
-      <c r="B177" s="32"/>
-      <c r="C177" s="19"/>
-      <c r="D177" s="19"/>
-      <c r="E177" s="19"/>
-      <c r="F177" s="19"/>
-      <c r="G177" s="19"/>
-      <c r="H177" s="19"/>
-      <c r="I177" s="19"/>
-      <c r="J177" s="19"/>
-      <c r="K177" s="19"/>
-      <c r="L177" s="19"/>
-      <c r="M177" s="19"/>
-      <c r="N177" s="19"/>
-    </row>
-    <row r="178" spans="1:14" s="21" customFormat="1">
-      <c r="A178" s="16"/>
-      <c r="B178" s="32"/>
-      <c r="C178" s="19"/>
-      <c r="D178" s="19"/>
-      <c r="E178" s="19"/>
-      <c r="F178" s="19"/>
-      <c r="G178" s="19"/>
-      <c r="H178" s="19"/>
-      <c r="I178" s="19"/>
-      <c r="J178" s="19"/>
-      <c r="K178" s="19"/>
-      <c r="L178" s="19"/>
-      <c r="M178" s="19"/>
-      <c r="N178" s="19"/>
-    </row>
-    <row r="179" spans="1:14" s="21" customFormat="1">
-      <c r="A179" s="16"/>
-      <c r="B179" s="32"/>
-      <c r="C179" s="19"/>
-      <c r="D179" s="19"/>
-      <c r="E179" s="19"/>
-      <c r="F179" s="19"/>
-      <c r="G179" s="19"/>
-      <c r="H179" s="19"/>
-      <c r="I179" s="19"/>
-      <c r="J179" s="19"/>
-      <c r="K179" s="19"/>
-      <c r="L179" s="19"/>
-      <c r="M179" s="19"/>
-      <c r="N179" s="19"/>
-    </row>
-    <row r="180" spans="1:14" s="21" customFormat="1">
-      <c r="A180" s="16"/>
-      <c r="B180" s="32"/>
-      <c r="C180" s="19"/>
-      <c r="D180" s="19"/>
-      <c r="E180" s="19"/>
-      <c r="F180" s="19"/>
-      <c r="G180" s="19"/>
-      <c r="H180" s="19"/>
-      <c r="I180" s="19"/>
-      <c r="J180" s="19"/>
-      <c r="K180" s="19"/>
-      <c r="L180" s="19"/>
-      <c r="M180" s="19"/>
-      <c r="N180" s="19"/>
-    </row>
-    <row r="181" spans="1:14" s="21" customFormat="1">
-      <c r="A181" s="16"/>
-      <c r="B181" s="32"/>
-      <c r="C181" s="19"/>
-      <c r="D181" s="19"/>
-      <c r="E181" s="19"/>
-      <c r="F181" s="19"/>
-      <c r="G181" s="19"/>
-      <c r="H181" s="19"/>
-      <c r="I181" s="19"/>
-      <c r="J181" s="19"/>
-      <c r="K181" s="19"/>
-      <c r="L181" s="19"/>
-      <c r="M181" s="19"/>
-      <c r="N181" s="19"/>
-    </row>
-    <row r="182" spans="1:14" s="21" customFormat="1">
-      <c r="A182" s="16"/>
-      <c r="B182" s="32"/>
-      <c r="C182" s="19"/>
-      <c r="D182" s="19"/>
-      <c r="E182" s="19"/>
-      <c r="F182" s="19"/>
-      <c r="G182" s="19"/>
-      <c r="H182" s="19"/>
-      <c r="I182" s="19"/>
-      <c r="J182" s="19"/>
-      <c r="K182" s="19"/>
-      <c r="L182" s="19"/>
-      <c r="M182" s="19"/>
-      <c r="N182" s="19"/>
-    </row>
-    <row r="183" spans="1:14" s="21" customFormat="1">
-      <c r="A183" s="16"/>
-      <c r="B183" s="32"/>
-      <c r="C183" s="19"/>
-      <c r="D183" s="19"/>
-      <c r="E183" s="19"/>
-      <c r="F183" s="19"/>
-      <c r="G183" s="19"/>
-      <c r="H183" s="19"/>
-      <c r="I183" s="19"/>
-      <c r="J183" s="19"/>
-      <c r="K183" s="19"/>
-      <c r="L183" s="19"/>
-      <c r="M183" s="19"/>
-      <c r="N183" s="19"/>
-    </row>
-    <row r="184" spans="1:14" s="21" customFormat="1">
-      <c r="A184" s="16"/>
-      <c r="B184" s="32"/>
-      <c r="C184" s="19"/>
-      <c r="D184" s="19"/>
-      <c r="E184" s="19"/>
-      <c r="F184" s="19"/>
-      <c r="G184" s="19"/>
-      <c r="H184" s="19"/>
-      <c r="I184" s="19"/>
-      <c r="J184" s="19"/>
-      <c r="K184" s="19"/>
-      <c r="L184" s="19"/>
-      <c r="M184" s="19"/>
-      <c r="N184" s="19"/>
-    </row>
-    <row r="185" spans="1:14" s="21" customFormat="1">
-      <c r="A185" s="16"/>
-      <c r="B185" s="32"/>
-      <c r="C185" s="19"/>
-      <c r="D185" s="19"/>
-      <c r="E185" s="19"/>
-      <c r="F185" s="19"/>
-      <c r="G185" s="19"/>
-      <c r="H185" s="19"/>
-      <c r="I185" s="19"/>
-      <c r="J185" s="19"/>
-      <c r="K185" s="19"/>
-      <c r="L185" s="19"/>
-      <c r="M185" s="19"/>
-      <c r="N185" s="19"/>
-    </row>
-    <row r="186" spans="1:14" s="21" customFormat="1">
-      <c r="A186" s="16"/>
-      <c r="B186" s="32"/>
-      <c r="C186" s="19"/>
-      <c r="D186" s="19"/>
-      <c r="E186" s="19"/>
-      <c r="F186" s="19"/>
-      <c r="G186" s="19"/>
-      <c r="H186" s="19"/>
-      <c r="I186" s="19"/>
-      <c r="J186" s="19"/>
-      <c r="K186" s="19"/>
-      <c r="L186" s="19"/>
-      <c r="M186" s="19"/>
-      <c r="N186" s="19"/>
-    </row>
-    <row r="187" spans="1:14" s="21" customFormat="1">
-      <c r="A187" s="16"/>
-      <c r="B187" s="32"/>
-      <c r="C187" s="19"/>
-      <c r="D187" s="19"/>
-      <c r="E187" s="19"/>
-      <c r="F187" s="19"/>
-      <c r="G187" s="19"/>
-      <c r="H187" s="19"/>
-      <c r="I187" s="19"/>
-      <c r="J187" s="19"/>
-      <c r="K187" s="19"/>
-      <c r="L187" s="19"/>
-      <c r="M187" s="19"/>
-      <c r="N187" s="19"/>
-    </row>
-    <row r="188" spans="1:14" s="21" customFormat="1">
-      <c r="A188" s="16"/>
-      <c r="B188" s="32"/>
-      <c r="C188" s="19"/>
-      <c r="D188" s="19"/>
-      <c r="E188" s="19"/>
-      <c r="F188" s="19"/>
-      <c r="G188" s="19"/>
-      <c r="H188" s="19"/>
-      <c r="I188" s="19"/>
-      <c r="J188" s="19"/>
-      <c r="K188" s="19"/>
-      <c r="L188" s="19"/>
-      <c r="M188" s="19"/>
-      <c r="N188" s="19"/>
-    </row>
-    <row r="189" spans="1:14" s="21" customFormat="1">
-      <c r="A189" s="16"/>
-      <c r="B189" s="32"/>
-      <c r="C189" s="19"/>
-      <c r="D189" s="19"/>
-      <c r="E189" s="19"/>
-      <c r="F189" s="19"/>
-      <c r="G189" s="19"/>
-      <c r="H189" s="19"/>
-      <c r="I189" s="19"/>
-      <c r="J189" s="19"/>
-      <c r="K189" s="19"/>
-      <c r="L189" s="19"/>
-      <c r="M189" s="19"/>
-      <c r="N189" s="19"/>
-    </row>
-    <row r="190" spans="1:14" s="21" customFormat="1">
-      <c r="A190" s="16"/>
-      <c r="B190" s="32"/>
-      <c r="C190" s="19"/>
-      <c r="D190" s="19"/>
-      <c r="E190" s="19"/>
-      <c r="F190" s="19"/>
-      <c r="G190" s="19"/>
-      <c r="H190" s="19"/>
-      <c r="I190" s="19"/>
-      <c r="J190" s="19"/>
-      <c r="K190" s="19"/>
-      <c r="L190" s="19"/>
-      <c r="M190" s="19"/>
-      <c r="N190" s="19"/>
-    </row>
-    <row r="191" spans="1:14" s="21" customFormat="1">
-      <c r="A191" s="16"/>
-      <c r="B191" s="32"/>
-      <c r="C191" s="19"/>
-      <c r="D191" s="19"/>
-      <c r="E191" s="19"/>
-      <c r="F191" s="19"/>
-      <c r="G191" s="19"/>
-      <c r="H191" s="19"/>
-      <c r="I191" s="19"/>
-      <c r="J191" s="19"/>
-      <c r="K191" s="19"/>
-      <c r="L191" s="19"/>
-      <c r="M191" s="19"/>
-      <c r="N191" s="19"/>
-    </row>
-    <row r="192" spans="1:14" s="21" customFormat="1">
-      <c r="A192" s="16"/>
-      <c r="B192" s="32"/>
-      <c r="C192" s="19"/>
-      <c r="D192" s="19"/>
-      <c r="E192" s="19"/>
-      <c r="F192" s="19"/>
-      <c r="G192" s="19"/>
-      <c r="H192" s="19"/>
-      <c r="I192" s="19"/>
-      <c r="J192" s="19"/>
-      <c r="K192" s="19"/>
-      <c r="L192" s="19"/>
-      <c r="M192" s="19"/>
-      <c r="N192" s="19"/>
-    </row>
-    <row r="193" spans="1:14" s="21" customFormat="1">
-      <c r="A193" s="16"/>
-      <c r="B193" s="32"/>
-      <c r="C193" s="19"/>
-      <c r="D193" s="19"/>
-      <c r="E193" s="19"/>
-      <c r="F193" s="19"/>
-      <c r="G193" s="19"/>
-      <c r="H193" s="19"/>
-      <c r="I193" s="19"/>
-      <c r="J193" s="19"/>
-      <c r="K193" s="19"/>
-      <c r="L193" s="19"/>
-      <c r="M193" s="19"/>
-      <c r="N193" s="19"/>
-    </row>
-    <row r="194" spans="1:14" s="21" customFormat="1">
-      <c r="A194" s="16"/>
-      <c r="B194" s="32"/>
-      <c r="C194" s="19"/>
-      <c r="D194" s="19"/>
-      <c r="E194" s="19"/>
-      <c r="F194" s="19"/>
-      <c r="G194" s="19"/>
-      <c r="H194" s="19"/>
-      <c r="I194" s="19"/>
-      <c r="J194" s="19"/>
-      <c r="K194" s="19"/>
-      <c r="L194" s="19"/>
-      <c r="M194" s="19"/>
-      <c r="N194" s="19"/>
-    </row>
-    <row r="195" spans="1:14" s="21" customFormat="1">
-      <c r="A195" s="16"/>
-      <c r="B195" s="32"/>
-      <c r="C195" s="19"/>
-      <c r="D195" s="19"/>
-      <c r="E195" s="19"/>
-      <c r="F195" s="19"/>
-      <c r="G195" s="19"/>
-      <c r="H195" s="19"/>
-      <c r="I195" s="19"/>
-      <c r="J195" s="19"/>
-      <c r="K195" s="19"/>
-      <c r="L195" s="19"/>
-      <c r="M195" s="19"/>
-      <c r="N195" s="19"/>
-    </row>
-    <row r="196" spans="1:14" s="21" customFormat="1">
-      <c r="A196" s="16"/>
-      <c r="B196" s="32"/>
-      <c r="C196" s="19"/>
-      <c r="D196" s="19"/>
-      <c r="E196" s="19"/>
-      <c r="F196" s="19"/>
-      <c r="G196" s="19"/>
-      <c r="H196" s="19"/>
-      <c r="I196" s="19"/>
-      <c r="J196" s="19"/>
-      <c r="K196" s="19"/>
-      <c r="L196" s="19"/>
-      <c r="M196" s="19"/>
-      <c r="N196" s="19"/>
-    </row>
-    <row r="197" spans="1:14" s="21" customFormat="1">
-      <c r="A197" s="16"/>
-      <c r="B197" s="32"/>
-      <c r="C197" s="19"/>
-      <c r="D197" s="19"/>
-      <c r="E197" s="19"/>
-      <c r="F197" s="19"/>
-      <c r="G197" s="19"/>
-      <c r="H197" s="19"/>
-      <c r="I197" s="19"/>
-      <c r="J197" s="19"/>
-      <c r="K197" s="19"/>
-      <c r="L197" s="19"/>
-      <c r="M197" s="19"/>
-      <c r="N197" s="19"/>
-    </row>
-    <row r="198" spans="1:14" s="21" customFormat="1">
-      <c r="A198" s="16"/>
-      <c r="B198" s="32"/>
-      <c r="C198" s="19"/>
-      <c r="D198" s="19"/>
-      <c r="E198" s="19"/>
-      <c r="F198" s="19"/>
-      <c r="G198" s="19"/>
-      <c r="H198" s="19"/>
-      <c r="I198" s="19"/>
-      <c r="J198" s="19"/>
-      <c r="K198" s="19"/>
-      <c r="L198" s="19"/>
-      <c r="M198" s="19"/>
-      <c r="N198" s="19"/>
-    </row>
-    <row r="199" spans="1:14" s="21" customFormat="1">
-      <c r="A199" s="16"/>
-      <c r="B199" s="32"/>
-      <c r="C199" s="19"/>
-      <c r="D199" s="19"/>
-      <c r="E199" s="19"/>
-      <c r="F199" s="19"/>
-      <c r="G199" s="19"/>
-      <c r="H199" s="19"/>
-      <c r="I199" s="19"/>
-      <c r="J199" s="19"/>
-      <c r="K199" s="19"/>
-      <c r="L199" s="19"/>
-      <c r="M199" s="19"/>
-      <c r="N199" s="19"/>
-    </row>
-    <row r="200" spans="1:14" s="21" customFormat="1">
-      <c r="A200" s="16"/>
-      <c r="B200" s="32"/>
-      <c r="C200" s="19"/>
-      <c r="D200" s="19"/>
-      <c r="E200" s="19"/>
-      <c r="F200" s="19"/>
-      <c r="G200" s="19"/>
-      <c r="H200" s="19"/>
-      <c r="I200" s="19"/>
-      <c r="J200" s="19"/>
-      <c r="K200" s="19"/>
-      <c r="L200" s="19"/>
-      <c r="M200" s="19"/>
-      <c r="N200" s="19"/>
-    </row>
-    <row r="201" spans="1:14" s="21" customFormat="1">
-      <c r="A201" s="16"/>
-      <c r="B201" s="32"/>
-      <c r="C201" s="19"/>
-      <c r="D201" s="19"/>
-      <c r="E201" s="19"/>
-      <c r="F201" s="19"/>
-      <c r="G201" s="19"/>
-      <c r="H201" s="19"/>
-      <c r="I201" s="19"/>
-      <c r="J201" s="19"/>
-      <c r="K201" s="19"/>
-      <c r="L201" s="19"/>
-      <c r="M201" s="19"/>
-      <c r="N201" s="19"/>
-    </row>
-    <row r="202" spans="1:14" s="21" customFormat="1">
-      <c r="A202" s="16"/>
-      <c r="B202" s="32"/>
-      <c r="C202" s="19"/>
-      <c r="D202" s="19"/>
-      <c r="E202" s="19"/>
-      <c r="F202" s="19"/>
-      <c r="G202" s="19"/>
-      <c r="H202" s="19"/>
-      <c r="I202" s="19"/>
-      <c r="J202" s="19"/>
-      <c r="K202" s="19"/>
-      <c r="L202" s="19"/>
-      <c r="M202" s="19"/>
-      <c r="N202" s="19"/>
-    </row>
-    <row r="203" spans="1:14" s="21" customFormat="1">
-      <c r="A203" s="16"/>
-      <c r="B203" s="32"/>
-      <c r="C203" s="19"/>
-      <c r="D203" s="19"/>
-      <c r="E203" s="19"/>
-      <c r="F203" s="19"/>
-      <c r="G203" s="19"/>
-      <c r="H203" s="19"/>
-      <c r="I203" s="19"/>
-      <c r="J203" s="19"/>
-      <c r="K203" s="19"/>
-      <c r="L203" s="19"/>
-      <c r="M203" s="19"/>
-      <c r="N203" s="19"/>
-    </row>
-    <row r="204" spans="1:14" s="21" customFormat="1">
-      <c r="A204" s="16"/>
-      <c r="B204" s="32"/>
-      <c r="C204" s="19"/>
-      <c r="D204" s="19"/>
-      <c r="E204" s="19"/>
-      <c r="F204" s="19"/>
-      <c r="G204" s="19"/>
-      <c r="H204" s="19"/>
-      <c r="I204" s="19"/>
-      <c r="J204" s="19"/>
-      <c r="K204" s="19"/>
-      <c r="L204" s="19"/>
-      <c r="M204" s="19"/>
-      <c r="N204" s="19"/>
-    </row>
-    <row r="205" spans="1:14" s="21" customFormat="1">
-      <c r="A205" s="16"/>
-      <c r="B205" s="32"/>
-      <c r="C205" s="19"/>
-      <c r="D205" s="19"/>
-      <c r="E205" s="19"/>
-      <c r="F205" s="19"/>
-      <c r="G205" s="19"/>
-      <c r="H205" s="19"/>
-      <c r="I205" s="19"/>
-      <c r="J205" s="19"/>
-      <c r="K205" s="19"/>
-      <c r="L205" s="19"/>
-      <c r="M205" s="19"/>
-      <c r="N205" s="19"/>
-    </row>
-    <row r="206" spans="1:14" s="21" customFormat="1">
-      <c r="A206" s="16"/>
-      <c r="B206" s="32"/>
-      <c r="C206" s="19"/>
-      <c r="D206" s="19"/>
-      <c r="E206" s="19"/>
-      <c r="F206" s="19"/>
-      <c r="G206" s="19"/>
-      <c r="H206" s="19"/>
-      <c r="I206" s="19"/>
-      <c r="J206" s="19"/>
-      <c r="K206" s="19"/>
-      <c r="L206" s="19"/>
-      <c r="M206" s="19"/>
-      <c r="N206" s="19"/>
-    </row>
-    <row r="207" spans="1:14" s="21" customFormat="1">
-      <c r="A207" s="16"/>
-      <c r="B207" s="32"/>
-      <c r="C207" s="19"/>
-      <c r="D207" s="19"/>
-      <c r="E207" s="19"/>
-      <c r="F207" s="19"/>
-      <c r="G207" s="19"/>
-      <c r="H207" s="19"/>
-      <c r="I207" s="19"/>
-      <c r="J207" s="19"/>
-      <c r="K207" s="19"/>
-      <c r="L207" s="19"/>
-      <c r="M207" s="19"/>
-      <c r="N207" s="19"/>
-    </row>
-    <row r="208" spans="1:14" s="21" customFormat="1">
-      <c r="A208" s="16"/>
-      <c r="B208" s="32"/>
-      <c r="C208" s="19"/>
-      <c r="D208" s="19"/>
-      <c r="E208" s="19"/>
-      <c r="F208" s="19"/>
-      <c r="G208" s="19"/>
-      <c r="H208" s="19"/>
-      <c r="I208" s="19"/>
-      <c r="J208" s="19"/>
-      <c r="K208" s="19"/>
-      <c r="L208" s="19"/>
-      <c r="M208" s="19"/>
-      <c r="N208" s="19"/>
-    </row>
-    <row r="209" spans="1:14" s="21" customFormat="1">
-      <c r="A209" s="16"/>
-      <c r="B209" s="32"/>
-      <c r="C209" s="19"/>
-      <c r="D209" s="19"/>
-      <c r="E209" s="19"/>
-      <c r="F209" s="19"/>
-      <c r="G209" s="19"/>
-      <c r="H209" s="19"/>
-      <c r="I209" s="19"/>
-      <c r="J209" s="19"/>
-      <c r="K209" s="19"/>
-      <c r="L209" s="19"/>
-      <c r="M209" s="19"/>
-      <c r="N209" s="19"/>
-    </row>
-    <row r="210" spans="1:14" s="21" customFormat="1">
-      <c r="A210" s="16"/>
-      <c r="B210" s="32"/>
-      <c r="C210" s="19"/>
-      <c r="D210" s="19"/>
-      <c r="E210" s="19"/>
-      <c r="F210" s="19"/>
-      <c r="G210" s="19"/>
-      <c r="H210" s="19"/>
-      <c r="I210" s="19"/>
-      <c r="J210" s="19"/>
-      <c r="K210" s="19"/>
-      <c r="L210" s="19"/>
-      <c r="M210" s="19"/>
-      <c r="N210" s="19"/>
-    </row>
-    <row r="211" spans="1:14" s="21" customFormat="1">
-      <c r="A211" s="16"/>
-      <c r="B211" s="32"/>
-      <c r="C211" s="19"/>
-      <c r="D211" s="19"/>
-      <c r="E211" s="19"/>
-      <c r="F211" s="19"/>
-      <c r="G211" s="19"/>
-      <c r="H211" s="19"/>
-      <c r="I211" s="19"/>
-      <c r="J211" s="19"/>
-      <c r="K211" s="19"/>
-      <c r="L211" s="19"/>
-      <c r="M211" s="19"/>
-      <c r="N211" s="19"/>
-    </row>
-    <row r="212" spans="1:14" s="21" customFormat="1">
-      <c r="A212" s="16"/>
-      <c r="B212" s="32"/>
-      <c r="C212" s="19"/>
-      <c r="D212" s="19"/>
-      <c r="E212" s="19"/>
-      <c r="F212" s="19"/>
-      <c r="G212" s="19"/>
-      <c r="H212" s="19"/>
-      <c r="I212" s="19"/>
-      <c r="J212" s="19"/>
-      <c r="K212" s="19"/>
-      <c r="L212" s="19"/>
-      <c r="M212" s="19"/>
-      <c r="N212" s="19"/>
-    </row>
-    <row r="213" spans="1:14" s="21" customFormat="1">
-      <c r="A213" s="16"/>
-      <c r="B213" s="32"/>
-      <c r="C213" s="19"/>
-      <c r="D213" s="19"/>
-      <c r="E213" s="19"/>
-      <c r="F213" s="19"/>
-      <c r="G213" s="19"/>
-      <c r="H213" s="19"/>
-      <c r="I213" s="19"/>
-      <c r="J213" s="19"/>
-      <c r="K213" s="19"/>
-      <c r="L213" s="19"/>
-      <c r="M213" s="19"/>
-      <c r="N213" s="19"/>
-    </row>
-    <row r="214" spans="1:14" s="21" customFormat="1">
-      <c r="A214" s="16"/>
-      <c r="B214" s="32"/>
-      <c r="C214" s="19"/>
-      <c r="D214" s="19"/>
-      <c r="E214" s="19"/>
-      <c r="F214" s="19"/>
-      <c r="G214" s="19"/>
-      <c r="H214" s="19"/>
-      <c r="I214" s="19"/>
-      <c r="J214" s="19"/>
-      <c r="K214" s="19"/>
-      <c r="L214" s="19"/>
-      <c r="M214" s="19"/>
-      <c r="N214" s="19"/>
-    </row>
-    <row r="215" spans="1:14" s="21" customFormat="1">
-      <c r="A215" s="16"/>
-      <c r="B215" s="32"/>
-      <c r="C215" s="19"/>
-      <c r="D215" s="19"/>
-      <c r="E215" s="19"/>
-      <c r="F215" s="19"/>
-      <c r="G215" s="19"/>
-      <c r="H215" s="19"/>
-      <c r="I215" s="19"/>
-      <c r="J215" s="19"/>
-      <c r="K215" s="19"/>
-      <c r="L215" s="19"/>
-      <c r="M215" s="19"/>
-      <c r="N215" s="19"/>
-    </row>
-    <row r="216" spans="1:14" s="21" customFormat="1">
-      <c r="A216" s="16"/>
-      <c r="B216" s="32"/>
-      <c r="C216" s="19"/>
-      <c r="D216" s="19"/>
-      <c r="E216" s="19"/>
-      <c r="F216" s="19"/>
-      <c r="G216" s="19"/>
-      <c r="H216" s="19"/>
-      <c r="I216" s="19"/>
-      <c r="J216" s="19"/>
-      <c r="K216" s="19"/>
-      <c r="L216" s="19"/>
-      <c r="M216" s="19"/>
-      <c r="N216" s="19"/>
-    </row>
-    <row r="217" spans="1:14" s="21" customFormat="1">
-      <c r="A217" s="16"/>
-      <c r="B217" s="32"/>
-      <c r="C217" s="19"/>
-      <c r="D217" s="19"/>
-      <c r="E217" s="19"/>
-      <c r="F217" s="19"/>
-      <c r="G217" s="19"/>
-      <c r="H217" s="19"/>
-      <c r="I217" s="19"/>
-      <c r="J217" s="19"/>
-      <c r="K217" s="19"/>
-      <c r="L217" s="19"/>
-      <c r="M217" s="19"/>
-      <c r="N217" s="19"/>
-    </row>
-    <row r="218" spans="1:14" s="21" customFormat="1">
-      <c r="A218" s="16"/>
-      <c r="B218" s="32"/>
-      <c r="C218" s="19"/>
-      <c r="D218" s="19"/>
-      <c r="E218" s="19"/>
-      <c r="F218" s="19"/>
-      <c r="G218" s="19"/>
-      <c r="H218" s="19"/>
-      <c r="I218" s="19"/>
-      <c r="J218" s="19"/>
-      <c r="K218" s="19"/>
-      <c r="L218" s="19"/>
-      <c r="M218" s="19"/>
-      <c r="N218" s="19"/>
-    </row>
-    <row r="219" spans="1:14" s="21" customFormat="1">
-      <c r="A219" s="16"/>
-      <c r="B219" s="32"/>
-      <c r="C219" s="19"/>
-      <c r="D219" s="19"/>
-      <c r="E219" s="19"/>
-      <c r="F219" s="19"/>
-      <c r="G219" s="19"/>
-      <c r="H219" s="19"/>
-      <c r="I219" s="19"/>
-      <c r="J219" s="19"/>
-      <c r="K219" s="19"/>
-      <c r="L219" s="19"/>
-      <c r="M219" s="19"/>
-      <c r="N219" s="19"/>
-    </row>
-    <row r="220" spans="1:14" s="21" customFormat="1">
-      <c r="A220" s="16"/>
-      <c r="B220" s="32"/>
-      <c r="C220" s="19"/>
-      <c r="D220" s="19"/>
-      <c r="E220" s="19"/>
-      <c r="F220" s="19"/>
-      <c r="G220" s="19"/>
-      <c r="H220" s="19"/>
-      <c r="I220" s="19"/>
-      <c r="J220" s="19"/>
-      <c r="K220" s="19"/>
-      <c r="L220" s="19"/>
-      <c r="M220" s="19"/>
-      <c r="N220" s="19"/>
-    </row>
-    <row r="221" spans="1:14" s="21" customFormat="1">
-      <c r="A221" s="16"/>
-      <c r="B221" s="32"/>
-      <c r="C221" s="19"/>
-      <c r="D221" s="19"/>
-      <c r="E221" s="19"/>
-      <c r="F221" s="19"/>
-      <c r="G221" s="19"/>
-      <c r="H221" s="19"/>
-      <c r="I221" s="19"/>
-      <c r="J221" s="19"/>
-      <c r="K221" s="19"/>
-      <c r="L221" s="19"/>
-      <c r="M221" s="19"/>
-      <c r="N221" s="19"/>
-    </row>
-    <row r="222" spans="1:14" s="21" customFormat="1">
-      <c r="A222" s="16"/>
-      <c r="B222" s="32"/>
-      <c r="C222" s="19"/>
-      <c r="D222" s="19"/>
-      <c r="E222" s="19"/>
-      <c r="F222" s="19"/>
-      <c r="G222" s="19"/>
-      <c r="H222" s="19"/>
-      <c r="I222" s="19"/>
-      <c r="J222" s="19"/>
-      <c r="K222" s="19"/>
-      <c r="L222" s="19"/>
-      <c r="M222" s="19"/>
-      <c r="N222" s="19"/>
-    </row>
-    <row r="223" spans="1:14" s="21" customFormat="1">
-      <c r="A223" s="16"/>
-      <c r="B223" s="32"/>
-      <c r="C223" s="19"/>
-      <c r="D223" s="19"/>
-      <c r="E223" s="19"/>
-      <c r="F223" s="19"/>
-      <c r="G223" s="19"/>
-      <c r="H223" s="19"/>
-      <c r="I223" s="19"/>
-      <c r="J223" s="19"/>
-      <c r="K223" s="19"/>
-      <c r="L223" s="19"/>
-      <c r="M223" s="19"/>
-      <c r="N223" s="19"/>
-    </row>
-    <row r="224" spans="1:14" s="21" customFormat="1">
-      <c r="A224" s="16"/>
-      <c r="B224" s="32"/>
-      <c r="C224" s="19"/>
-      <c r="D224" s="19"/>
-      <c r="E224" s="19"/>
-      <c r="F224" s="19"/>
-      <c r="G224" s="19"/>
-      <c r="H224" s="19"/>
-      <c r="I224" s="19"/>
-      <c r="J224" s="19"/>
-      <c r="K224" s="19"/>
-      <c r="L224" s="19"/>
-      <c r="M224" s="19"/>
-      <c r="N224" s="19"/>
-    </row>
-    <row r="225" spans="1:14" s="21" customFormat="1">
-      <c r="A225" s="16"/>
-      <c r="B225" s="32"/>
-      <c r="C225" s="19"/>
-      <c r="D225" s="19"/>
-      <c r="E225" s="19"/>
-      <c r="F225" s="19"/>
-      <c r="G225" s="19"/>
-      <c r="H225" s="19"/>
-      <c r="I225" s="19"/>
-      <c r="J225" s="19"/>
-      <c r="K225" s="19"/>
-      <c r="L225" s="19"/>
-      <c r="M225" s="19"/>
-      <c r="N225" s="19"/>
-    </row>
-    <row r="226" spans="1:14" s="21" customFormat="1">
-      <c r="A226" s="16"/>
-      <c r="B226" s="32"/>
-      <c r="C226" s="19"/>
-      <c r="D226" s="19"/>
-      <c r="E226" s="19"/>
-      <c r="F226" s="19"/>
-      <c r="G226" s="19"/>
-      <c r="H226" s="19"/>
-      <c r="I226" s="19"/>
-      <c r="J226" s="19"/>
-      <c r="K226" s="19"/>
-      <c r="L226" s="19"/>
-      <c r="M226" s="19"/>
-      <c r="N226" s="19"/>
-    </row>
-    <row r="227" spans="1:14" s="21" customFormat="1">
-      <c r="A227" s="16"/>
-      <c r="B227" s="32"/>
-      <c r="C227" s="19"/>
-      <c r="D227" s="19"/>
-      <c r="E227" s="19"/>
-      <c r="F227" s="19"/>
-      <c r="G227" s="19"/>
-      <c r="H227" s="19"/>
-      <c r="I227" s="19"/>
-      <c r="J227" s="19"/>
-      <c r="K227" s="19"/>
-      <c r="L227" s="19"/>
-      <c r="M227" s="19"/>
-      <c r="N227" s="19"/>
-    </row>
-    <row r="228" spans="1:14" s="21" customFormat="1">
-      <c r="A228" s="16"/>
-      <c r="B228" s="32"/>
-      <c r="C228" s="19"/>
-      <c r="D228" s="19"/>
-      <c r="E228" s="19"/>
-      <c r="F228" s="19"/>
-      <c r="G228" s="19"/>
-      <c r="H228" s="19"/>
-      <c r="I228" s="19"/>
-      <c r="J228" s="19"/>
-      <c r="K228" s="19"/>
-      <c r="L228" s="19"/>
-      <c r="M228" s="19"/>
-      <c r="N228" s="19"/>
-    </row>
-    <row r="229" spans="1:14" s="21" customFormat="1">
-      <c r="A229" s="16"/>
-      <c r="B229" s="32"/>
-      <c r="C229" s="19"/>
-      <c r="D229" s="19"/>
-      <c r="E229" s="19"/>
-      <c r="F229" s="19"/>
-      <c r="G229" s="19"/>
-      <c r="H229" s="19"/>
-      <c r="I229" s="19"/>
-      <c r="J229" s="19"/>
-      <c r="K229" s="19"/>
-      <c r="L229" s="19"/>
-      <c r="M229" s="19"/>
-      <c r="N229" s="19"/>
-    </row>
-    <row r="230" spans="1:14" s="21" customFormat="1">
-      <c r="A230" s="16"/>
-      <c r="B230" s="32"/>
-      <c r="C230" s="19"/>
-      <c r="D230" s="19"/>
-      <c r="E230" s="19"/>
-      <c r="F230" s="19"/>
-      <c r="G230" s="19"/>
-      <c r="H230" s="19"/>
-      <c r="I230" s="19"/>
-      <c r="J230" s="19"/>
-      <c r="K230" s="19"/>
-      <c r="L230" s="19"/>
-      <c r="M230" s="19"/>
-      <c r="N230" s="19"/>
-    </row>
-    <row r="231" spans="1:14" s="21" customFormat="1">
-      <c r="A231" s="16"/>
-      <c r="B231" s="32"/>
-      <c r="C231" s="19"/>
-      <c r="D231" s="19"/>
-      <c r="E231" s="19"/>
-      <c r="F231" s="19"/>
-      <c r="G231" s="19"/>
-      <c r="H231" s="19"/>
-      <c r="I231" s="19"/>
-      <c r="J231" s="19"/>
-      <c r="K231" s="19"/>
-      <c r="L231" s="19"/>
-      <c r="M231" s="19"/>
-      <c r="N231" s="19"/>
-    </row>
-    <row r="232" spans="1:14" s="21" customFormat="1">
-      <c r="A232" s="16"/>
-      <c r="B232" s="32"/>
-      <c r="C232" s="19"/>
-      <c r="D232" s="19"/>
-      <c r="E232" s="19"/>
-      <c r="F232" s="19"/>
-      <c r="G232" s="19"/>
-      <c r="H232" s="19"/>
-      <c r="I232" s="19"/>
-      <c r="J232" s="19"/>
-      <c r="K232" s="19"/>
-      <c r="L232" s="19"/>
-      <c r="M232" s="19"/>
-      <c r="N232" s="19"/>
-    </row>
-    <row r="233" spans="1:14" s="21" customFormat="1">
-      <c r="A233" s="16"/>
-      <c r="B233" s="32"/>
-      <c r="C233" s="19"/>
-      <c r="D233" s="19"/>
-      <c r="E233" s="19"/>
-      <c r="F233" s="19"/>
-      <c r="G233" s="19"/>
-      <c r="H233" s="19"/>
-      <c r="I233" s="19"/>
-      <c r="J233" s="19"/>
-      <c r="K233" s="19"/>
-      <c r="L233" s="19"/>
-      <c r="M233" s="19"/>
-      <c r="N233" s="19"/>
-    </row>
-    <row r="234" spans="1:14" s="21" customFormat="1">
-      <c r="A234" s="16"/>
-      <c r="B234" s="32"/>
-      <c r="C234" s="19"/>
-      <c r="D234" s="19"/>
-      <c r="E234" s="19"/>
-      <c r="F234" s="19"/>
-      <c r="G234" s="19"/>
-      <c r="H234" s="19"/>
-      <c r="I234" s="19"/>
-      <c r="J234" s="19"/>
-      <c r="K234" s="19"/>
-      <c r="L234" s="19"/>
-      <c r="M234" s="19"/>
-      <c r="N234" s="19"/>
-    </row>
-    <row r="235" spans="1:14" s="21" customFormat="1">
-      <c r="A235" s="16"/>
-      <c r="B235" s="32"/>
-      <c r="C235" s="19"/>
-      <c r="D235" s="19"/>
-      <c r="E235" s="19"/>
-      <c r="F235" s="19"/>
-      <c r="G235" s="19"/>
-      <c r="H235" s="19"/>
-      <c r="I235" s="19"/>
-      <c r="J235" s="19"/>
-      <c r="K235" s="19"/>
-      <c r="L235" s="19"/>
-      <c r="M235" s="19"/>
-      <c r="N235" s="19"/>
-    </row>
-    <row r="236" spans="1:14" s="21" customFormat="1">
-      <c r="A236" s="16"/>
-      <c r="B236" s="32"/>
-      <c r="C236" s="19"/>
-      <c r="D236" s="19"/>
-      <c r="E236" s="19"/>
-      <c r="F236" s="19"/>
-      <c r="G236" s="19"/>
-      <c r="H236" s="19"/>
-      <c r="I236" s="19"/>
-      <c r="J236" s="19"/>
-      <c r="K236" s="19"/>
-      <c r="L236" s="19"/>
-      <c r="M236" s="19"/>
-      <c r="N236" s="19"/>
-    </row>
-    <row r="237" spans="1:14" s="21" customFormat="1">
-      <c r="A237" s="16"/>
-      <c r="B237" s="32"/>
-      <c r="C237" s="19"/>
-      <c r="D237" s="19"/>
-      <c r="E237" s="19"/>
-      <c r="F237" s="19"/>
-      <c r="G237" s="19"/>
-      <c r="H237" s="19"/>
-      <c r="I237" s="19"/>
-      <c r="J237" s="19"/>
-      <c r="K237" s="19"/>
-      <c r="L237" s="19"/>
-      <c r="M237" s="19"/>
-      <c r="N237" s="19"/>
-    </row>
-    <row r="238" spans="1:14" s="21" customFormat="1">
-      <c r="A238" s="16"/>
-      <c r="B238" s="32"/>
-      <c r="C238" s="19"/>
-      <c r="D238" s="19"/>
-      <c r="E238" s="19"/>
-      <c r="F238" s="19"/>
-      <c r="G238" s="19"/>
-      <c r="H238" s="19"/>
-      <c r="I238" s="19"/>
-      <c r="J238" s="19"/>
-      <c r="K238" s="19"/>
-      <c r="L238" s="19"/>
-      <c r="M238" s="19"/>
-      <c r="N238" s="19"/>
-    </row>
-    <row r="239" spans="1:14" s="21" customFormat="1">
-      <c r="A239" s="16"/>
-      <c r="B239" s="32"/>
-      <c r="C239" s="19"/>
-      <c r="D239" s="19"/>
-      <c r="E239" s="19"/>
-      <c r="F239" s="19"/>
-      <c r="G239" s="19"/>
-      <c r="H239" s="19"/>
-      <c r="I239" s="19"/>
-      <c r="J239" s="19"/>
-      <c r="K239" s="19"/>
-      <c r="L239" s="19"/>
-      <c r="M239" s="19"/>
-      <c r="N239" s="19"/>
-    </row>
-    <row r="240" spans="1:14" s="21" customFormat="1">
-      <c r="A240" s="16"/>
-      <c r="B240" s="32"/>
-      <c r="C240" s="19"/>
-      <c r="D240" s="19"/>
-      <c r="E240" s="19"/>
-      <c r="F240" s="19"/>
-      <c r="G240" s="19"/>
-      <c r="H240" s="19"/>
-      <c r="I240" s="19"/>
-      <c r="J240" s="19"/>
-      <c r="K240" s="19"/>
-      <c r="L240" s="19"/>
-      <c r="M240" s="19"/>
-      <c r="N240" s="19"/>
-    </row>
-    <row r="241" spans="1:14" s="21" customFormat="1">
-      <c r="A241" s="16"/>
-      <c r="B241" s="32"/>
-      <c r="C241" s="19"/>
-      <c r="D241" s="19"/>
-      <c r="E241" s="19"/>
-      <c r="F241" s="19"/>
-      <c r="G241" s="19"/>
-      <c r="H241" s="19"/>
-      <c r="I241" s="19"/>
-      <c r="J241" s="19"/>
-      <c r="K241" s="19"/>
-      <c r="L241" s="19"/>
-      <c r="M241" s="19"/>
-      <c r="N241" s="19"/>
-    </row>
-    <row r="242" spans="1:14" s="21" customFormat="1">
-      <c r="A242" s="16"/>
-      <c r="B242" s="32"/>
-      <c r="C242" s="19"/>
-      <c r="D242" s="19"/>
-      <c r="E242" s="19"/>
-      <c r="F242" s="19"/>
-      <c r="G242" s="19"/>
-      <c r="H242" s="19"/>
-      <c r="I242" s="19"/>
-      <c r="J242" s="19"/>
-      <c r="K242" s="19"/>
-      <c r="L242" s="19"/>
-      <c r="M242" s="19"/>
-      <c r="N242" s="19"/>
-    </row>
-    <row r="243" spans="1:14" s="21" customFormat="1">
-      <c r="A243" s="16"/>
-      <c r="B243" s="32"/>
-      <c r="C243" s="19"/>
-      <c r="D243" s="19"/>
-      <c r="E243" s="19"/>
-      <c r="F243" s="19"/>
-      <c r="G243" s="19"/>
-      <c r="H243" s="19"/>
-      <c r="I243" s="19"/>
-      <c r="J243" s="19"/>
-      <c r="K243" s="19"/>
-      <c r="L243" s="19"/>
-      <c r="M243" s="19"/>
-      <c r="N243" s="19"/>
-    </row>
-    <row r="244" spans="1:14" s="21" customFormat="1">
-      <c r="A244" s="16"/>
-      <c r="B244" s="32"/>
-      <c r="C244" s="19"/>
-      <c r="D244" s="19"/>
-      <c r="E244" s="19"/>
-      <c r="F244" s="19"/>
-      <c r="G244" s="19"/>
-      <c r="H244" s="19"/>
-      <c r="I244" s="19"/>
-      <c r="J244" s="19"/>
-      <c r="K244" s="19"/>
-      <c r="L244" s="19"/>
-      <c r="M244" s="19"/>
-      <c r="N244" s="19"/>
-    </row>
-    <row r="245" spans="1:14" s="21" customFormat="1">
-      <c r="A245" s="16"/>
-      <c r="B245" s="32"/>
-      <c r="C245" s="19"/>
-      <c r="D245" s="19"/>
-      <c r="E245" s="19"/>
-      <c r="F245" s="19"/>
-      <c r="G245" s="19"/>
-      <c r="H245" s="19"/>
-      <c r="I245" s="19"/>
-      <c r="J245" s="19"/>
-      <c r="K245" s="19"/>
-      <c r="L245" s="19"/>
-      <c r="M245" s="19"/>
-      <c r="N245" s="19"/>
-    </row>
-    <row r="246" spans="1:14" s="21" customFormat="1">
-      <c r="A246" s="16"/>
-      <c r="B246" s="32"/>
-      <c r="C246" s="19"/>
-      <c r="D246" s="19"/>
-      <c r="E246" s="19"/>
-      <c r="F246" s="19"/>
-      <c r="G246" s="19"/>
-      <c r="H246" s="19"/>
-      <c r="I246" s="19"/>
-      <c r="J246" s="19"/>
-      <c r="K246" s="19"/>
-      <c r="L246" s="19"/>
-      <c r="M246" s="19"/>
-      <c r="N246" s="19"/>
-    </row>
-    <row r="247" spans="1:14" s="21" customFormat="1">
-      <c r="A247" s="16"/>
-      <c r="B247" s="32"/>
-      <c r="C247" s="19"/>
-      <c r="D247" s="19"/>
-      <c r="E247" s="19"/>
-      <c r="F247" s="19"/>
-      <c r="G247" s="19"/>
-      <c r="H247" s="19"/>
-      <c r="I247" s="19"/>
-      <c r="J247" s="19"/>
-      <c r="K247" s="19"/>
-      <c r="L247" s="19"/>
-      <c r="M247" s="19"/>
-      <c r="N247" s="19"/>
+      <c r="M136" s="37"/>
+      <c r="N136" s="41"/>
+      <c r="O136" s="18" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" s="20" customFormat="1">
+      <c r="A137" s="5"/>
+      <c r="M137" s="18"/>
+      <c r="N137" s="18"/>
+      <c r="O137" s="18"/>
+    </row>
+    <row r="138" spans="1:15" s="20" customFormat="1">
+      <c r="A138" s="15"/>
+      <c r="M138" s="18"/>
+      <c r="N138" s="18"/>
+    </row>
+    <row r="139" spans="1:15" s="20" customFormat="1">
+      <c r="A139" s="15"/>
+      <c r="B139" s="31"/>
+      <c r="C139" s="18"/>
+      <c r="D139" s="18"/>
+      <c r="E139" s="18"/>
+      <c r="F139" s="18"/>
+      <c r="G139" s="18"/>
+      <c r="H139" s="18"/>
+      <c r="I139" s="18"/>
+      <c r="J139" s="18"/>
+      <c r="K139" s="18"/>
+      <c r="L139" s="18"/>
+      <c r="M139" s="18"/>
+      <c r="N139" s="18"/>
+    </row>
+    <row r="140" spans="1:15" s="20" customFormat="1">
+      <c r="A140" s="15"/>
+      <c r="B140" s="31"/>
+      <c r="C140" s="18"/>
+      <c r="D140" s="18"/>
+      <c r="E140" s="18"/>
+      <c r="F140" s="18"/>
+      <c r="G140" s="18"/>
+      <c r="H140" s="18"/>
+      <c r="I140" s="18"/>
+      <c r="J140" s="18"/>
+      <c r="K140" s="18"/>
+      <c r="L140" s="18"/>
+      <c r="M140" s="18"/>
+      <c r="N140" s="18"/>
+    </row>
+    <row r="141" spans="1:15" s="20" customFormat="1">
+      <c r="A141" s="15"/>
+      <c r="B141" s="31"/>
+      <c r="C141" s="18"/>
+      <c r="D141" s="18"/>
+      <c r="E141" s="18"/>
+      <c r="F141" s="18"/>
+      <c r="G141" s="18"/>
+      <c r="H141" s="18"/>
+      <c r="I141" s="18"/>
+      <c r="J141" s="18"/>
+      <c r="K141" s="18"/>
+      <c r="L141" s="18"/>
+      <c r="M141" s="18"/>
+      <c r="N141" s="18"/>
+    </row>
+    <row r="142" spans="1:15" s="20" customFormat="1">
+      <c r="A142" s="15"/>
+      <c r="B142" s="31"/>
+      <c r="C142" s="18"/>
+      <c r="D142" s="18"/>
+      <c r="E142" s="18"/>
+      <c r="F142" s="18"/>
+      <c r="G142" s="18"/>
+      <c r="H142" s="18"/>
+      <c r="I142" s="18"/>
+      <c r="J142" s="18"/>
+      <c r="K142" s="18"/>
+      <c r="L142" s="18"/>
+      <c r="M142" s="18"/>
+      <c r="N142" s="18"/>
+    </row>
+    <row r="143" spans="1:15" s="20" customFormat="1">
+      <c r="A143" s="15"/>
+      <c r="B143" s="31"/>
+      <c r="C143" s="18"/>
+      <c r="D143" s="18"/>
+      <c r="E143" s="18"/>
+      <c r="F143" s="18"/>
+      <c r="G143" s="18"/>
+      <c r="H143" s="18"/>
+      <c r="I143" s="18"/>
+      <c r="J143" s="18"/>
+      <c r="K143" s="18"/>
+      <c r="L143" s="18"/>
+      <c r="M143" s="18"/>
+      <c r="N143" s="18"/>
+    </row>
+    <row r="144" spans="1:15" s="20" customFormat="1">
+      <c r="A144" s="15"/>
+      <c r="B144" s="31"/>
+      <c r="C144" s="18"/>
+      <c r="D144" s="18"/>
+      <c r="E144" s="18"/>
+      <c r="F144" s="18"/>
+      <c r="G144" s="18"/>
+      <c r="H144" s="18"/>
+      <c r="I144" s="18"/>
+      <c r="J144" s="18"/>
+      <c r="K144" s="18"/>
+      <c r="L144" s="18"/>
+      <c r="M144" s="18"/>
+      <c r="N144" s="18"/>
+    </row>
+    <row r="145" spans="1:14" s="20" customFormat="1">
+      <c r="A145" s="15"/>
+      <c r="B145" s="31"/>
+      <c r="C145" s="18"/>
+      <c r="D145" s="18"/>
+      <c r="E145" s="18"/>
+      <c r="F145" s="18"/>
+      <c r="G145" s="18"/>
+      <c r="H145" s="18"/>
+      <c r="I145" s="18"/>
+      <c r="J145" s="18"/>
+      <c r="K145" s="18"/>
+      <c r="L145" s="18"/>
+      <c r="M145" s="18"/>
+      <c r="N145" s="18"/>
+    </row>
+    <row r="146" spans="1:14" s="20" customFormat="1">
+      <c r="A146" s="15"/>
+      <c r="B146" s="31"/>
+      <c r="C146" s="18"/>
+      <c r="D146" s="18"/>
+      <c r="E146" s="18"/>
+      <c r="F146" s="18"/>
+      <c r="G146" s="18"/>
+      <c r="H146" s="18"/>
+      <c r="I146" s="18"/>
+      <c r="J146" s="18"/>
+      <c r="K146" s="18"/>
+      <c r="L146" s="18"/>
+      <c r="M146" s="18"/>
+      <c r="N146" s="18"/>
+    </row>
+    <row r="147" spans="1:14" s="20" customFormat="1">
+      <c r="A147" s="15"/>
+      <c r="B147" s="31"/>
+      <c r="C147" s="18"/>
+      <c r="D147" s="18"/>
+      <c r="E147" s="18"/>
+      <c r="F147" s="18"/>
+      <c r="G147" s="18"/>
+      <c r="H147" s="18"/>
+      <c r="I147" s="18"/>
+      <c r="J147" s="18"/>
+      <c r="K147" s="18"/>
+      <c r="L147" s="18"/>
+      <c r="M147" s="18"/>
+      <c r="N147" s="18"/>
+    </row>
+    <row r="148" spans="1:14" s="20" customFormat="1">
+      <c r="A148" s="15"/>
+      <c r="B148" s="31"/>
+      <c r="C148" s="18"/>
+      <c r="D148" s="18"/>
+      <c r="E148" s="18"/>
+      <c r="F148" s="18"/>
+      <c r="G148" s="18"/>
+      <c r="H148" s="18"/>
+      <c r="I148" s="18"/>
+      <c r="J148" s="18"/>
+      <c r="K148" s="18"/>
+      <c r="L148" s="18"/>
+      <c r="M148" s="18"/>
+      <c r="N148" s="18"/>
+    </row>
+    <row r="149" spans="1:14" s="20" customFormat="1">
+      <c r="A149" s="15"/>
+      <c r="B149" s="31"/>
+      <c r="C149" s="18"/>
+      <c r="D149" s="18"/>
+      <c r="E149" s="18"/>
+      <c r="F149" s="18"/>
+      <c r="G149" s="18"/>
+      <c r="H149" s="18"/>
+      <c r="I149" s="18"/>
+      <c r="J149" s="18"/>
+      <c r="K149" s="18"/>
+      <c r="L149" s="18"/>
+      <c r="M149" s="18"/>
+      <c r="N149" s="18"/>
+    </row>
+    <row r="150" spans="1:14" s="20" customFormat="1">
+      <c r="A150" s="15"/>
+      <c r="B150" s="31"/>
+      <c r="C150" s="18"/>
+      <c r="D150" s="18"/>
+      <c r="E150" s="18"/>
+      <c r="F150" s="18"/>
+      <c r="G150" s="18"/>
+      <c r="H150" s="18"/>
+      <c r="I150" s="18"/>
+      <c r="J150" s="18"/>
+      <c r="K150" s="18"/>
+      <c r="L150" s="18"/>
+      <c r="M150" s="18"/>
+      <c r="N150" s="18"/>
+    </row>
+    <row r="151" spans="1:14" s="20" customFormat="1">
+      <c r="A151" s="15"/>
+      <c r="B151" s="31"/>
+      <c r="C151" s="18"/>
+      <c r="D151" s="18"/>
+      <c r="E151" s="18"/>
+      <c r="F151" s="18"/>
+      <c r="G151" s="18"/>
+      <c r="H151" s="18"/>
+      <c r="I151" s="18"/>
+      <c r="J151" s="18"/>
+      <c r="K151" s="18"/>
+      <c r="L151" s="18"/>
+      <c r="M151" s="18"/>
+      <c r="N151" s="18"/>
+    </row>
+    <row r="152" spans="1:14" s="20" customFormat="1">
+      <c r="A152" s="15"/>
+      <c r="B152" s="31"/>
+      <c r="C152" s="18"/>
+      <c r="D152" s="18"/>
+      <c r="E152" s="18"/>
+      <c r="F152" s="18"/>
+      <c r="G152" s="18"/>
+      <c r="H152" s="18"/>
+      <c r="I152" s="18"/>
+      <c r="J152" s="18"/>
+      <c r="K152" s="18"/>
+      <c r="L152" s="18"/>
+      <c r="M152" s="18"/>
+      <c r="N152" s="18"/>
+    </row>
+    <row r="153" spans="1:14" s="20" customFormat="1">
+      <c r="A153" s="15"/>
+      <c r="B153" s="31"/>
+      <c r="C153" s="18"/>
+      <c r="D153" s="18"/>
+      <c r="E153" s="18"/>
+      <c r="F153" s="18"/>
+      <c r="G153" s="18"/>
+      <c r="H153" s="18"/>
+      <c r="I153" s="18"/>
+      <c r="J153" s="18"/>
+      <c r="K153" s="18"/>
+      <c r="L153" s="18"/>
+      <c r="M153" s="18"/>
+      <c r="N153" s="18"/>
+    </row>
+    <row r="154" spans="1:14" s="20" customFormat="1">
+      <c r="A154" s="15"/>
+      <c r="B154" s="31"/>
+      <c r="C154" s="18"/>
+      <c r="D154" s="18"/>
+      <c r="E154" s="18"/>
+      <c r="F154" s="18"/>
+      <c r="G154" s="18"/>
+      <c r="H154" s="18"/>
+      <c r="I154" s="18"/>
+      <c r="J154" s="18"/>
+      <c r="K154" s="18"/>
+      <c r="L154" s="18"/>
+      <c r="M154" s="18"/>
+      <c r="N154" s="18"/>
+    </row>
+    <row r="155" spans="1:14" s="20" customFormat="1">
+      <c r="A155" s="15"/>
+      <c r="B155" s="31"/>
+      <c r="C155" s="18"/>
+      <c r="D155" s="18"/>
+      <c r="E155" s="18"/>
+      <c r="F155" s="18"/>
+      <c r="G155" s="18"/>
+      <c r="H155" s="18"/>
+      <c r="I155" s="18"/>
+      <c r="J155" s="18"/>
+      <c r="K155" s="18"/>
+      <c r="L155" s="18"/>
+      <c r="M155" s="18"/>
+      <c r="N155" s="18"/>
+    </row>
+    <row r="156" spans="1:14" s="20" customFormat="1">
+      <c r="A156" s="15"/>
+      <c r="B156" s="31"/>
+      <c r="C156" s="18"/>
+      <c r="D156" s="18"/>
+      <c r="E156" s="18"/>
+      <c r="F156" s="18"/>
+      <c r="G156" s="18"/>
+      <c r="H156" s="18"/>
+      <c r="I156" s="18"/>
+      <c r="J156" s="18"/>
+      <c r="K156" s="18"/>
+      <c r="L156" s="18"/>
+      <c r="M156" s="18"/>
+      <c r="N156" s="18"/>
+    </row>
+    <row r="157" spans="1:14" s="20" customFormat="1">
+      <c r="A157" s="15"/>
+      <c r="B157" s="31"/>
+      <c r="C157" s="18"/>
+      <c r="D157" s="18"/>
+      <c r="E157" s="18"/>
+      <c r="F157" s="18"/>
+      <c r="G157" s="18"/>
+      <c r="H157" s="18"/>
+      <c r="I157" s="18"/>
+      <c r="J157" s="18"/>
+      <c r="K157" s="18"/>
+      <c r="L157" s="18"/>
+      <c r="M157" s="18"/>
+      <c r="N157" s="18"/>
+    </row>
+    <row r="158" spans="1:14" s="20" customFormat="1">
+      <c r="A158" s="15"/>
+      <c r="B158" s="31"/>
+      <c r="C158" s="18"/>
+      <c r="D158" s="18"/>
+      <c r="E158" s="18"/>
+      <c r="F158" s="18"/>
+      <c r="G158" s="18"/>
+      <c r="H158" s="18"/>
+      <c r="I158" s="18"/>
+      <c r="J158" s="18"/>
+      <c r="K158" s="18"/>
+      <c r="L158" s="18"/>
+      <c r="M158" s="18"/>
+      <c r="N158" s="18"/>
+    </row>
+    <row r="159" spans="1:14" s="20" customFormat="1">
+      <c r="A159" s="15"/>
+      <c r="B159" s="31"/>
+      <c r="C159" s="18"/>
+      <c r="D159" s="18"/>
+      <c r="E159" s="18"/>
+      <c r="F159" s="18"/>
+      <c r="G159" s="18"/>
+      <c r="H159" s="18"/>
+      <c r="I159" s="18"/>
+      <c r="J159" s="18"/>
+      <c r="K159" s="18"/>
+      <c r="L159" s="18"/>
+      <c r="M159" s="18"/>
+      <c r="N159" s="18"/>
+    </row>
+    <row r="160" spans="1:14" s="20" customFormat="1">
+      <c r="A160" s="15"/>
+      <c r="B160" s="31"/>
+      <c r="C160" s="18"/>
+      <c r="D160" s="18"/>
+      <c r="E160" s="18"/>
+      <c r="F160" s="18"/>
+      <c r="G160" s="18"/>
+      <c r="H160" s="18"/>
+      <c r="I160" s="18"/>
+      <c r="J160" s="18"/>
+      <c r="K160" s="18"/>
+      <c r="L160" s="18"/>
+      <c r="M160" s="18"/>
+      <c r="N160" s="18"/>
+    </row>
+    <row r="161" spans="1:14" s="20" customFormat="1">
+      <c r="A161" s="15"/>
+      <c r="B161" s="31"/>
+      <c r="C161" s="18"/>
+      <c r="D161" s="18"/>
+      <c r="E161" s="18"/>
+      <c r="F161" s="18"/>
+      <c r="G161" s="18"/>
+      <c r="H161" s="18"/>
+      <c r="I161" s="18"/>
+      <c r="J161" s="18"/>
+      <c r="K161" s="18"/>
+      <c r="L161" s="18"/>
+      <c r="M161" s="18"/>
+      <c r="N161" s="18"/>
+    </row>
+    <row r="162" spans="1:14" s="20" customFormat="1">
+      <c r="A162" s="15"/>
+      <c r="B162" s="31"/>
+      <c r="C162" s="18"/>
+      <c r="D162" s="18"/>
+      <c r="E162" s="18"/>
+      <c r="F162" s="18"/>
+      <c r="G162" s="18"/>
+      <c r="H162" s="18"/>
+      <c r="I162" s="18"/>
+      <c r="J162" s="18"/>
+      <c r="K162" s="18"/>
+      <c r="L162" s="18"/>
+      <c r="M162" s="18"/>
+      <c r="N162" s="18"/>
+    </row>
+    <row r="163" spans="1:14" s="20" customFormat="1">
+      <c r="A163" s="15"/>
+      <c r="B163" s="31"/>
+      <c r="C163" s="18"/>
+      <c r="D163" s="18"/>
+      <c r="E163" s="18"/>
+      <c r="F163" s="18"/>
+      <c r="G163" s="18"/>
+      <c r="H163" s="18"/>
+      <c r="I163" s="18"/>
+      <c r="J163" s="18"/>
+      <c r="K163" s="18"/>
+      <c r="L163" s="18"/>
+      <c r="M163" s="18"/>
+      <c r="N163" s="18"/>
+    </row>
+    <row r="164" spans="1:14" s="20" customFormat="1">
+      <c r="A164" s="15"/>
+      <c r="B164" s="31"/>
+      <c r="C164" s="18"/>
+      <c r="D164" s="18"/>
+      <c r="E164" s="18"/>
+      <c r="F164" s="18"/>
+      <c r="G164" s="18"/>
+      <c r="H164" s="18"/>
+      <c r="I164" s="18"/>
+      <c r="J164" s="18"/>
+      <c r="K164" s="18"/>
+      <c r="L164" s="18"/>
+      <c r="M164" s="18"/>
+      <c r="N164" s="18"/>
+    </row>
+    <row r="165" spans="1:14" s="20" customFormat="1">
+      <c r="A165" s="15"/>
+      <c r="B165" s="31"/>
+      <c r="C165" s="18"/>
+      <c r="D165" s="18"/>
+      <c r="E165" s="18"/>
+      <c r="F165" s="18"/>
+      <c r="G165" s="18"/>
+      <c r="H165" s="18"/>
+      <c r="I165" s="18"/>
+      <c r="J165" s="18"/>
+      <c r="K165" s="18"/>
+      <c r="L165" s="18"/>
+      <c r="M165" s="18"/>
+      <c r="N165" s="18"/>
+    </row>
+    <row r="166" spans="1:14" s="20" customFormat="1">
+      <c r="A166" s="15"/>
+      <c r="B166" s="31"/>
+      <c r="C166" s="18"/>
+      <c r="D166" s="18"/>
+      <c r="E166" s="18"/>
+      <c r="F166" s="18"/>
+      <c r="G166" s="18"/>
+      <c r="H166" s="18"/>
+      <c r="I166" s="18"/>
+      <c r="J166" s="18"/>
+      <c r="K166" s="18"/>
+      <c r="L166" s="18"/>
+      <c r="M166" s="18"/>
+      <c r="N166" s="18"/>
+    </row>
+    <row r="167" spans="1:14" s="20" customFormat="1">
+      <c r="A167" s="15"/>
+      <c r="B167" s="31"/>
+      <c r="C167" s="18"/>
+      <c r="D167" s="18"/>
+      <c r="E167" s="18"/>
+      <c r="F167" s="18"/>
+      <c r="G167" s="18"/>
+      <c r="H167" s="18"/>
+      <c r="I167" s="18"/>
+      <c r="J167" s="18"/>
+      <c r="K167" s="18"/>
+      <c r="L167" s="18"/>
+      <c r="M167" s="18"/>
+      <c r="N167" s="18"/>
+    </row>
+    <row r="168" spans="1:14" s="20" customFormat="1">
+      <c r="A168" s="15"/>
+      <c r="B168" s="31"/>
+      <c r="C168" s="18"/>
+      <c r="D168" s="18"/>
+      <c r="E168" s="18"/>
+      <c r="F168" s="18"/>
+      <c r="G168" s="18"/>
+      <c r="H168" s="18"/>
+      <c r="I168" s="18"/>
+      <c r="J168" s="18"/>
+      <c r="K168" s="18"/>
+      <c r="L168" s="18"/>
+      <c r="M168" s="18"/>
+      <c r="N168" s="18"/>
+    </row>
+    <row r="169" spans="1:14" s="20" customFormat="1">
+      <c r="A169" s="15"/>
+      <c r="B169" s="31"/>
+      <c r="C169" s="18"/>
+      <c r="D169" s="18"/>
+      <c r="E169" s="18"/>
+      <c r="F169" s="18"/>
+      <c r="G169" s="18"/>
+      <c r="H169" s="18"/>
+      <c r="I169" s="18"/>
+      <c r="J169" s="18"/>
+      <c r="K169" s="18"/>
+      <c r="L169" s="18"/>
+      <c r="M169" s="18"/>
+      <c r="N169" s="18"/>
+    </row>
+    <row r="170" spans="1:14" s="20" customFormat="1">
+      <c r="A170" s="15"/>
+      <c r="B170" s="31"/>
+      <c r="C170" s="18"/>
+      <c r="D170" s="18"/>
+      <c r="E170" s="18"/>
+      <c r="F170" s="18"/>
+      <c r="G170" s="18"/>
+      <c r="H170" s="18"/>
+      <c r="I170" s="18"/>
+      <c r="J170" s="18"/>
+      <c r="K170" s="18"/>
+      <c r="L170" s="18"/>
+      <c r="M170" s="18"/>
+      <c r="N170" s="18"/>
+    </row>
+    <row r="171" spans="1:14" s="20" customFormat="1">
+      <c r="A171" s="15"/>
+      <c r="B171" s="31"/>
+      <c r="C171" s="18"/>
+      <c r="D171" s="18"/>
+      <c r="E171" s="18"/>
+      <c r="F171" s="18"/>
+      <c r="G171" s="18"/>
+      <c r="H171" s="18"/>
+      <c r="I171" s="18"/>
+      <c r="J171" s="18"/>
+      <c r="K171" s="18"/>
+      <c r="L171" s="18"/>
+      <c r="M171" s="18"/>
+      <c r="N171" s="18"/>
+    </row>
+    <row r="172" spans="1:14" s="20" customFormat="1">
+      <c r="A172" s="15"/>
+      <c r="B172" s="31"/>
+      <c r="C172" s="18"/>
+      <c r="D172" s="18"/>
+      <c r="E172" s="18"/>
+      <c r="F172" s="18"/>
+      <c r="G172" s="18"/>
+      <c r="H172" s="18"/>
+      <c r="I172" s="18"/>
+      <c r="J172" s="18"/>
+      <c r="K172" s="18"/>
+      <c r="L172" s="18"/>
+      <c r="M172" s="18"/>
+      <c r="N172" s="18"/>
+    </row>
+    <row r="173" spans="1:14" s="20" customFormat="1">
+      <c r="A173" s="15"/>
+      <c r="B173" s="31"/>
+      <c r="C173" s="18"/>
+      <c r="D173" s="18"/>
+      <c r="E173" s="18"/>
+      <c r="F173" s="18"/>
+      <c r="G173" s="18"/>
+      <c r="H173" s="18"/>
+      <c r="I173" s="18"/>
+      <c r="J173" s="18"/>
+      <c r="K173" s="18"/>
+      <c r="L173" s="18"/>
+      <c r="M173" s="18"/>
+      <c r="N173" s="18"/>
+    </row>
+    <row r="174" spans="1:14" s="20" customFormat="1">
+      <c r="A174" s="15"/>
+      <c r="B174" s="31"/>
+      <c r="C174" s="18"/>
+      <c r="D174" s="18"/>
+      <c r="E174" s="18"/>
+      <c r="F174" s="18"/>
+      <c r="G174" s="18"/>
+      <c r="H174" s="18"/>
+      <c r="I174" s="18"/>
+      <c r="J174" s="18"/>
+      <c r="K174" s="18"/>
+      <c r="L174" s="18"/>
+      <c r="M174" s="18"/>
+      <c r="N174" s="18"/>
+    </row>
+    <row r="175" spans="1:14" s="20" customFormat="1">
+      <c r="A175" s="15"/>
+      <c r="B175" s="31"/>
+      <c r="C175" s="18"/>
+      <c r="D175" s="18"/>
+      <c r="E175" s="18"/>
+      <c r="F175" s="18"/>
+      <c r="G175" s="18"/>
+      <c r="H175" s="18"/>
+      <c r="I175" s="18"/>
+      <c r="J175" s="18"/>
+      <c r="K175" s="18"/>
+      <c r="L175" s="18"/>
+      <c r="M175" s="18"/>
+      <c r="N175" s="18"/>
+    </row>
+    <row r="176" spans="1:14" s="20" customFormat="1">
+      <c r="A176" s="15"/>
+      <c r="B176" s="31"/>
+      <c r="C176" s="18"/>
+      <c r="D176" s="18"/>
+      <c r="E176" s="18"/>
+      <c r="F176" s="18"/>
+      <c r="G176" s="18"/>
+      <c r="H176" s="18"/>
+      <c r="I176" s="18"/>
+      <c r="J176" s="18"/>
+      <c r="K176" s="18"/>
+      <c r="L176" s="18"/>
+      <c r="M176" s="18"/>
+      <c r="N176" s="18"/>
+    </row>
+    <row r="177" spans="1:14" s="20" customFormat="1">
+      <c r="A177" s="15"/>
+      <c r="B177" s="31"/>
+      <c r="C177" s="18"/>
+      <c r="D177" s="18"/>
+      <c r="E177" s="18"/>
+      <c r="F177" s="18"/>
+      <c r="G177" s="18"/>
+      <c r="H177" s="18"/>
+      <c r="I177" s="18"/>
+      <c r="J177" s="18"/>
+      <c r="K177" s="18"/>
+      <c r="L177" s="18"/>
+      <c r="M177" s="18"/>
+      <c r="N177" s="18"/>
+    </row>
+    <row r="178" spans="1:14" s="20" customFormat="1">
+      <c r="A178" s="15"/>
+      <c r="B178" s="31"/>
+      <c r="C178" s="18"/>
+      <c r="D178" s="18"/>
+      <c r="E178" s="18"/>
+      <c r="F178" s="18"/>
+      <c r="G178" s="18"/>
+      <c r="H178" s="18"/>
+      <c r="I178" s="18"/>
+      <c r="J178" s="18"/>
+      <c r="K178" s="18"/>
+      <c r="L178" s="18"/>
+      <c r="M178" s="18"/>
+      <c r="N178" s="18"/>
+    </row>
+    <row r="179" spans="1:14" s="20" customFormat="1">
+      <c r="A179" s="15"/>
+      <c r="B179" s="31"/>
+      <c r="C179" s="18"/>
+      <c r="D179" s="18"/>
+      <c r="E179" s="18"/>
+      <c r="F179" s="18"/>
+      <c r="G179" s="18"/>
+      <c r="H179" s="18"/>
+      <c r="I179" s="18"/>
+      <c r="J179" s="18"/>
+      <c r="K179" s="18"/>
+      <c r="L179" s="18"/>
+      <c r="M179" s="18"/>
+      <c r="N179" s="18"/>
+    </row>
+    <row r="180" spans="1:14" s="20" customFormat="1">
+      <c r="A180" s="15"/>
+      <c r="B180" s="31"/>
+      <c r="C180" s="18"/>
+      <c r="D180" s="18"/>
+      <c r="E180" s="18"/>
+      <c r="F180" s="18"/>
+      <c r="G180" s="18"/>
+      <c r="H180" s="18"/>
+      <c r="I180" s="18"/>
+      <c r="J180" s="18"/>
+      <c r="K180" s="18"/>
+      <c r="L180" s="18"/>
+      <c r="M180" s="18"/>
+      <c r="N180" s="18"/>
+    </row>
+    <row r="181" spans="1:14" s="20" customFormat="1">
+      <c r="A181" s="15"/>
+      <c r="B181" s="31"/>
+      <c r="C181" s="18"/>
+      <c r="D181" s="18"/>
+      <c r="E181" s="18"/>
+      <c r="F181" s="18"/>
+      <c r="G181" s="18"/>
+      <c r="H181" s="18"/>
+      <c r="I181" s="18"/>
+      <c r="J181" s="18"/>
+      <c r="K181" s="18"/>
+      <c r="L181" s="18"/>
+      <c r="M181" s="18"/>
+      <c r="N181" s="18"/>
+    </row>
+    <row r="182" spans="1:14" s="20" customFormat="1">
+      <c r="A182" s="15"/>
+      <c r="B182" s="31"/>
+      <c r="C182" s="18"/>
+      <c r="D182" s="18"/>
+      <c r="E182" s="18"/>
+      <c r="F182" s="18"/>
+      <c r="G182" s="18"/>
+      <c r="H182" s="18"/>
+      <c r="I182" s="18"/>
+      <c r="J182" s="18"/>
+      <c r="K182" s="18"/>
+      <c r="L182" s="18"/>
+      <c r="M182" s="18"/>
+      <c r="N182" s="18"/>
+    </row>
+    <row r="183" spans="1:14" s="20" customFormat="1">
+      <c r="A183" s="15"/>
+      <c r="B183" s="31"/>
+      <c r="C183" s="18"/>
+      <c r="D183" s="18"/>
+      <c r="E183" s="18"/>
+      <c r="F183" s="18"/>
+      <c r="G183" s="18"/>
+      <c r="H183" s="18"/>
+      <c r="I183" s="18"/>
+      <c r="J183" s="18"/>
+      <c r="K183" s="18"/>
+      <c r="L183" s="18"/>
+      <c r="M183" s="18"/>
+      <c r="N183" s="18"/>
+    </row>
+    <row r="184" spans="1:14" s="20" customFormat="1">
+      <c r="A184" s="15"/>
+      <c r="B184" s="31"/>
+      <c r="C184" s="18"/>
+      <c r="D184" s="18"/>
+      <c r="E184" s="18"/>
+      <c r="F184" s="18"/>
+      <c r="G184" s="18"/>
+      <c r="H184" s="18"/>
+      <c r="I184" s="18"/>
+      <c r="J184" s="18"/>
+      <c r="K184" s="18"/>
+      <c r="L184" s="18"/>
+      <c r="M184" s="18"/>
+      <c r="N184" s="18"/>
+    </row>
+    <row r="185" spans="1:14" s="20" customFormat="1">
+      <c r="A185" s="15"/>
+      <c r="B185" s="31"/>
+      <c r="C185" s="18"/>
+      <c r="D185" s="18"/>
+      <c r="E185" s="18"/>
+      <c r="F185" s="18"/>
+      <c r="G185" s="18"/>
+      <c r="H185" s="18"/>
+      <c r="I185" s="18"/>
+      <c r="J185" s="18"/>
+      <c r="K185" s="18"/>
+      <c r="L185" s="18"/>
+      <c r="M185" s="18"/>
+      <c r="N185" s="18"/>
+    </row>
+    <row r="186" spans="1:14" s="20" customFormat="1">
+      <c r="A186" s="15"/>
+      <c r="B186" s="31"/>
+      <c r="C186" s="18"/>
+      <c r="D186" s="18"/>
+      <c r="E186" s="18"/>
+      <c r="F186" s="18"/>
+      <c r="G186" s="18"/>
+      <c r="H186" s="18"/>
+      <c r="I186" s="18"/>
+      <c r="J186" s="18"/>
+      <c r="K186" s="18"/>
+      <c r="L186" s="18"/>
+      <c r="M186" s="18"/>
+      <c r="N186" s="18"/>
+    </row>
+    <row r="187" spans="1:14" s="20" customFormat="1">
+      <c r="A187" s="15"/>
+      <c r="B187" s="31"/>
+      <c r="C187" s="18"/>
+      <c r="D187" s="18"/>
+      <c r="E187" s="18"/>
+      <c r="F187" s="18"/>
+      <c r="G187" s="18"/>
+      <c r="H187" s="18"/>
+      <c r="I187" s="18"/>
+      <c r="J187" s="18"/>
+      <c r="K187" s="18"/>
+      <c r="L187" s="18"/>
+      <c r="M187" s="18"/>
+      <c r="N187" s="18"/>
+    </row>
+    <row r="188" spans="1:14" s="20" customFormat="1">
+      <c r="A188" s="15"/>
+      <c r="B188" s="31"/>
+      <c r="C188" s="18"/>
+      <c r="D188" s="18"/>
+      <c r="E188" s="18"/>
+      <c r="F188" s="18"/>
+      <c r="G188" s="18"/>
+      <c r="H188" s="18"/>
+      <c r="I188" s="18"/>
+      <c r="J188" s="18"/>
+      <c r="K188" s="18"/>
+      <c r="L188" s="18"/>
+      <c r="M188" s="18"/>
+      <c r="N188" s="18"/>
+    </row>
+    <row r="189" spans="1:14" s="20" customFormat="1">
+      <c r="A189" s="15"/>
+      <c r="B189" s="31"/>
+      <c r="C189" s="18"/>
+      <c r="D189" s="18"/>
+      <c r="E189" s="18"/>
+      <c r="F189" s="18"/>
+      <c r="G189" s="18"/>
+      <c r="H189" s="18"/>
+      <c r="I189" s="18"/>
+      <c r="J189" s="18"/>
+      <c r="K189" s="18"/>
+      <c r="L189" s="18"/>
+      <c r="M189" s="18"/>
+      <c r="N189" s="18"/>
+    </row>
+    <row r="190" spans="1:14" s="20" customFormat="1">
+      <c r="A190" s="15"/>
+      <c r="B190" s="31"/>
+      <c r="C190" s="18"/>
+      <c r="D190" s="18"/>
+      <c r="E190" s="18"/>
+      <c r="F190" s="18"/>
+      <c r="G190" s="18"/>
+      <c r="H190" s="18"/>
+      <c r="I190" s="18"/>
+      <c r="J190" s="18"/>
+      <c r="K190" s="18"/>
+      <c r="L190" s="18"/>
+      <c r="M190" s="18"/>
+      <c r="N190" s="18"/>
+    </row>
+    <row r="191" spans="1:14" s="20" customFormat="1">
+      <c r="A191" s="15"/>
+      <c r="B191" s="31"/>
+      <c r="C191" s="18"/>
+      <c r="D191" s="18"/>
+      <c r="E191" s="18"/>
+      <c r="F191" s="18"/>
+      <c r="G191" s="18"/>
+      <c r="H191" s="18"/>
+      <c r="I191" s="18"/>
+      <c r="J191" s="18"/>
+      <c r="K191" s="18"/>
+      <c r="L191" s="18"/>
+      <c r="M191" s="18"/>
+      <c r="N191" s="18"/>
+    </row>
+    <row r="192" spans="1:14" s="20" customFormat="1">
+      <c r="A192" s="15"/>
+      <c r="B192" s="31"/>
+      <c r="C192" s="18"/>
+      <c r="D192" s="18"/>
+      <c r="E192" s="18"/>
+      <c r="F192" s="18"/>
+      <c r="G192" s="18"/>
+      <c r="H192" s="18"/>
+      <c r="I192" s="18"/>
+      <c r="J192" s="18"/>
+      <c r="K192" s="18"/>
+      <c r="L192" s="18"/>
+      <c r="M192" s="18"/>
+      <c r="N192" s="18"/>
+    </row>
+    <row r="193" spans="1:14" s="20" customFormat="1">
+      <c r="A193" s="15"/>
+      <c r="B193" s="31"/>
+      <c r="C193" s="18"/>
+      <c r="D193" s="18"/>
+      <c r="E193" s="18"/>
+      <c r="F193" s="18"/>
+      <c r="G193" s="18"/>
+      <c r="H193" s="18"/>
+      <c r="I193" s="18"/>
+      <c r="J193" s="18"/>
+      <c r="K193" s="18"/>
+      <c r="L193" s="18"/>
+      <c r="M193" s="18"/>
+      <c r="N193" s="18"/>
+    </row>
+    <row r="194" spans="1:14" s="20" customFormat="1">
+      <c r="A194" s="15"/>
+      <c r="B194" s="31"/>
+      <c r="C194" s="18"/>
+      <c r="D194" s="18"/>
+      <c r="E194" s="18"/>
+      <c r="F194" s="18"/>
+      <c r="G194" s="18"/>
+      <c r="H194" s="18"/>
+      <c r="I194" s="18"/>
+      <c r="J194" s="18"/>
+      <c r="K194" s="18"/>
+      <c r="L194" s="18"/>
+      <c r="M194" s="18"/>
+      <c r="N194" s="18"/>
+    </row>
+    <row r="195" spans="1:14" s="20" customFormat="1">
+      <c r="A195" s="15"/>
+      <c r="B195" s="31"/>
+      <c r="C195" s="18"/>
+      <c r="D195" s="18"/>
+      <c r="E195" s="18"/>
+      <c r="F195" s="18"/>
+      <c r="G195" s="18"/>
+      <c r="H195" s="18"/>
+      <c r="I195" s="18"/>
+      <c r="J195" s="18"/>
+      <c r="K195" s="18"/>
+      <c r="L195" s="18"/>
+      <c r="M195" s="18"/>
+      <c r="N195" s="18"/>
+    </row>
+    <row r="196" spans="1:14" s="20" customFormat="1">
+      <c r="A196" s="15"/>
+      <c r="B196" s="31"/>
+      <c r="C196" s="18"/>
+      <c r="D196" s="18"/>
+      <c r="E196" s="18"/>
+      <c r="F196" s="18"/>
+      <c r="G196" s="18"/>
+      <c r="H196" s="18"/>
+      <c r="I196" s="18"/>
+      <c r="J196" s="18"/>
+      <c r="K196" s="18"/>
+      <c r="L196" s="18"/>
+      <c r="M196" s="18"/>
+      <c r="N196" s="18"/>
+    </row>
+    <row r="197" spans="1:14" s="20" customFormat="1">
+      <c r="A197" s="15"/>
+      <c r="B197" s="31"/>
+      <c r="C197" s="18"/>
+      <c r="D197" s="18"/>
+      <c r="E197" s="18"/>
+      <c r="F197" s="18"/>
+      <c r="G197" s="18"/>
+      <c r="H197" s="18"/>
+      <c r="I197" s="18"/>
+      <c r="J197" s="18"/>
+      <c r="K197" s="18"/>
+      <c r="L197" s="18"/>
+      <c r="M197" s="18"/>
+      <c r="N197" s="18"/>
+    </row>
+    <row r="198" spans="1:14" s="20" customFormat="1">
+      <c r="A198" s="15"/>
+      <c r="B198" s="31"/>
+      <c r="C198" s="18"/>
+      <c r="D198" s="18"/>
+      <c r="E198" s="18"/>
+      <c r="F198" s="18"/>
+      <c r="G198" s="18"/>
+      <c r="H198" s="18"/>
+      <c r="I198" s="18"/>
+      <c r="J198" s="18"/>
+      <c r="K198" s="18"/>
+      <c r="L198" s="18"/>
+      <c r="M198" s="18"/>
+      <c r="N198" s="18"/>
+    </row>
+    <row r="199" spans="1:14" s="20" customFormat="1">
+      <c r="A199" s="15"/>
+      <c r="B199" s="31"/>
+      <c r="C199" s="18"/>
+      <c r="D199" s="18"/>
+      <c r="E199" s="18"/>
+      <c r="F199" s="18"/>
+      <c r="G199" s="18"/>
+      <c r="H199" s="18"/>
+      <c r="I199" s="18"/>
+      <c r="J199" s="18"/>
+      <c r="K199" s="18"/>
+      <c r="L199" s="18"/>
+      <c r="M199" s="18"/>
+      <c r="N199" s="18"/>
+    </row>
+    <row r="200" spans="1:14" s="20" customFormat="1">
+      <c r="A200" s="15"/>
+      <c r="B200" s="31"/>
+      <c r="C200" s="18"/>
+      <c r="D200" s="18"/>
+      <c r="E200" s="18"/>
+      <c r="F200" s="18"/>
+      <c r="G200" s="18"/>
+      <c r="H200" s="18"/>
+      <c r="I200" s="18"/>
+      <c r="J200" s="18"/>
+      <c r="K200" s="18"/>
+      <c r="L200" s="18"/>
+      <c r="M200" s="18"/>
+      <c r="N200" s="18"/>
+    </row>
+    <row r="201" spans="1:14" s="20" customFormat="1">
+      <c r="A201" s="15"/>
+      <c r="B201" s="31"/>
+      <c r="C201" s="18"/>
+      <c r="D201" s="18"/>
+      <c r="E201" s="18"/>
+      <c r="F201" s="18"/>
+      <c r="G201" s="18"/>
+      <c r="H201" s="18"/>
+      <c r="I201" s="18"/>
+      <c r="J201" s="18"/>
+      <c r="K201" s="18"/>
+      <c r="L201" s="18"/>
+      <c r="M201" s="18"/>
+      <c r="N201" s="18"/>
+    </row>
+    <row r="202" spans="1:14" s="20" customFormat="1">
+      <c r="A202" s="15"/>
+      <c r="B202" s="31"/>
+      <c r="C202" s="18"/>
+      <c r="D202" s="18"/>
+      <c r="E202" s="18"/>
+      <c r="F202" s="18"/>
+      <c r="G202" s="18"/>
+      <c r="H202" s="18"/>
+      <c r="I202" s="18"/>
+      <c r="J202" s="18"/>
+      <c r="K202" s="18"/>
+      <c r="L202" s="18"/>
+      <c r="M202" s="18"/>
+      <c r="N202" s="18"/>
+    </row>
+    <row r="203" spans="1:14" s="20" customFormat="1">
+      <c r="A203" s="15"/>
+      <c r="B203" s="31"/>
+      <c r="C203" s="18"/>
+      <c r="D203" s="18"/>
+      <c r="E203" s="18"/>
+      <c r="F203" s="18"/>
+      <c r="G203" s="18"/>
+      <c r="H203" s="18"/>
+      <c r="I203" s="18"/>
+      <c r="J203" s="18"/>
+      <c r="K203" s="18"/>
+      <c r="L203" s="18"/>
+      <c r="M203" s="18"/>
+      <c r="N203" s="18"/>
+    </row>
+    <row r="204" spans="1:14" s="20" customFormat="1">
+      <c r="A204" s="15"/>
+      <c r="B204" s="31"/>
+      <c r="C204" s="18"/>
+      <c r="D204" s="18"/>
+      <c r="E204" s="18"/>
+      <c r="F204" s="18"/>
+      <c r="G204" s="18"/>
+      <c r="H204" s="18"/>
+      <c r="I204" s="18"/>
+      <c r="J204" s="18"/>
+      <c r="K204" s="18"/>
+      <c r="L204" s="18"/>
+      <c r="M204" s="18"/>
+      <c r="N204" s="18"/>
+    </row>
+    <row r="205" spans="1:14" s="20" customFormat="1">
+      <c r="A205" s="15"/>
+      <c r="B205" s="31"/>
+      <c r="C205" s="18"/>
+      <c r="D205" s="18"/>
+      <c r="E205" s="18"/>
+      <c r="F205" s="18"/>
+      <c r="G205" s="18"/>
+      <c r="H205" s="18"/>
+      <c r="I205" s="18"/>
+      <c r="J205" s="18"/>
+      <c r="K205" s="18"/>
+      <c r="L205" s="18"/>
+      <c r="M205" s="18"/>
+      <c r="N205" s="18"/>
+    </row>
+    <row r="206" spans="1:14" s="20" customFormat="1">
+      <c r="A206" s="15"/>
+      <c r="B206" s="31"/>
+      <c r="C206" s="18"/>
+      <c r="D206" s="18"/>
+      <c r="E206" s="18"/>
+      <c r="F206" s="18"/>
+      <c r="G206" s="18"/>
+      <c r="H206" s="18"/>
+      <c r="I206" s="18"/>
+      <c r="J206" s="18"/>
+      <c r="K206" s="18"/>
+      <c r="L206" s="18"/>
+      <c r="M206" s="18"/>
+      <c r="N206" s="18"/>
+    </row>
+    <row r="207" spans="1:14" s="20" customFormat="1">
+      <c r="A207" s="15"/>
+      <c r="B207" s="31"/>
+      <c r="C207" s="18"/>
+      <c r="D207" s="18"/>
+      <c r="E207" s="18"/>
+      <c r="F207" s="18"/>
+      <c r="G207" s="18"/>
+      <c r="H207" s="18"/>
+      <c r="I207" s="18"/>
+      <c r="J207" s="18"/>
+      <c r="K207" s="18"/>
+      <c r="L207" s="18"/>
+      <c r="M207" s="18"/>
+      <c r="N207" s="18"/>
+    </row>
+    <row r="208" spans="1:14" s="20" customFormat="1">
+      <c r="A208" s="15"/>
+      <c r="B208" s="31"/>
+      <c r="C208" s="18"/>
+      <c r="D208" s="18"/>
+      <c r="E208" s="18"/>
+      <c r="F208" s="18"/>
+      <c r="G208" s="18"/>
+      <c r="H208" s="18"/>
+      <c r="I208" s="18"/>
+      <c r="J208" s="18"/>
+      <c r="K208" s="18"/>
+      <c r="L208" s="18"/>
+      <c r="M208" s="18"/>
+      <c r="N208" s="18"/>
+    </row>
+    <row r="209" spans="1:14" s="20" customFormat="1">
+      <c r="A209" s="15"/>
+      <c r="B209" s="31"/>
+      <c r="C209" s="18"/>
+      <c r="D209" s="18"/>
+      <c r="E209" s="18"/>
+      <c r="F209" s="18"/>
+      <c r="G209" s="18"/>
+      <c r="H209" s="18"/>
+      <c r="I209" s="18"/>
+      <c r="J209" s="18"/>
+      <c r="K209" s="18"/>
+      <c r="L209" s="18"/>
+      <c r="M209" s="18"/>
+      <c r="N209" s="18"/>
+    </row>
+    <row r="210" spans="1:14" s="20" customFormat="1">
+      <c r="A210" s="15"/>
+      <c r="B210" s="31"/>
+      <c r="C210" s="18"/>
+      <c r="D210" s="18"/>
+      <c r="E210" s="18"/>
+      <c r="F210" s="18"/>
+      <c r="G210" s="18"/>
+      <c r="H210" s="18"/>
+      <c r="I210" s="18"/>
+      <c r="J210" s="18"/>
+      <c r="K210" s="18"/>
+      <c r="L210" s="18"/>
+      <c r="M210" s="18"/>
+      <c r="N210" s="18"/>
+    </row>
+    <row r="211" spans="1:14" s="20" customFormat="1">
+      <c r="A211" s="15"/>
+      <c r="B211" s="31"/>
+      <c r="C211" s="18"/>
+      <c r="D211" s="18"/>
+      <c r="E211" s="18"/>
+      <c r="F211" s="18"/>
+      <c r="G211" s="18"/>
+      <c r="H211" s="18"/>
+      <c r="I211" s="18"/>
+      <c r="J211" s="18"/>
+      <c r="K211" s="18"/>
+      <c r="L211" s="18"/>
+      <c r="M211" s="18"/>
+      <c r="N211" s="18"/>
+    </row>
+    <row r="212" spans="1:14" s="20" customFormat="1">
+      <c r="A212" s="15"/>
+      <c r="B212" s="31"/>
+      <c r="C212" s="18"/>
+      <c r="D212" s="18"/>
+      <c r="E212" s="18"/>
+      <c r="F212" s="18"/>
+      <c r="G212" s="18"/>
+      <c r="H212" s="18"/>
+      <c r="I212" s="18"/>
+      <c r="J212" s="18"/>
+      <c r="K212" s="18"/>
+      <c r="L212" s="18"/>
+      <c r="M212" s="18"/>
+      <c r="N212" s="18"/>
+    </row>
+    <row r="213" spans="1:14" s="20" customFormat="1">
+      <c r="A213" s="15"/>
+      <c r="B213" s="31"/>
+      <c r="C213" s="18"/>
+      <c r="D213" s="18"/>
+      <c r="E213" s="18"/>
+      <c r="F213" s="18"/>
+      <c r="G213" s="18"/>
+      <c r="H213" s="18"/>
+      <c r="I213" s="18"/>
+      <c r="J213" s="18"/>
+      <c r="K213" s="18"/>
+      <c r="L213" s="18"/>
+      <c r="M213" s="18"/>
+      <c r="N213" s="18"/>
+    </row>
+    <row r="214" spans="1:14" s="20" customFormat="1">
+      <c r="A214" s="15"/>
+      <c r="B214" s="31"/>
+      <c r="C214" s="18"/>
+      <c r="D214" s="18"/>
+      <c r="E214" s="18"/>
+      <c r="F214" s="18"/>
+      <c r="G214" s="18"/>
+      <c r="H214" s="18"/>
+      <c r="I214" s="18"/>
+      <c r="J214" s="18"/>
+      <c r="K214" s="18"/>
+      <c r="L214" s="18"/>
+      <c r="M214" s="18"/>
+      <c r="N214" s="18"/>
+    </row>
+    <row r="215" spans="1:14" s="20" customFormat="1">
+      <c r="A215" s="15"/>
+      <c r="B215" s="31"/>
+      <c r="C215" s="18"/>
+      <c r="D215" s="18"/>
+      <c r="E215" s="18"/>
+      <c r="F215" s="18"/>
+      <c r="G215" s="18"/>
+      <c r="H215" s="18"/>
+      <c r="I215" s="18"/>
+      <c r="J215" s="18"/>
+      <c r="K215" s="18"/>
+      <c r="L215" s="18"/>
+      <c r="M215" s="18"/>
+      <c r="N215" s="18"/>
+    </row>
+    <row r="216" spans="1:14" s="20" customFormat="1">
+      <c r="A216" s="15"/>
+      <c r="B216" s="31"/>
+      <c r="C216" s="18"/>
+      <c r="D216" s="18"/>
+      <c r="E216" s="18"/>
+      <c r="F216" s="18"/>
+      <c r="G216" s="18"/>
+      <c r="H216" s="18"/>
+      <c r="I216" s="18"/>
+      <c r="J216" s="18"/>
+      <c r="K216" s="18"/>
+      <c r="L216" s="18"/>
+      <c r="M216" s="18"/>
+      <c r="N216" s="18"/>
+    </row>
+    <row r="217" spans="1:14" s="20" customFormat="1">
+      <c r="A217" s="15"/>
+      <c r="B217" s="31"/>
+      <c r="C217" s="18"/>
+      <c r="D217" s="18"/>
+      <c r="E217" s="18"/>
+      <c r="F217" s="18"/>
+      <c r="G217" s="18"/>
+      <c r="H217" s="18"/>
+      <c r="I217" s="18"/>
+      <c r="J217" s="18"/>
+      <c r="K217" s="18"/>
+      <c r="L217" s="18"/>
+      <c r="M217" s="18"/>
+      <c r="N217" s="18"/>
+    </row>
+    <row r="218" spans="1:14" s="20" customFormat="1">
+      <c r="A218" s="15"/>
+      <c r="B218" s="31"/>
+      <c r="C218" s="18"/>
+      <c r="D218" s="18"/>
+      <c r="E218" s="18"/>
+      <c r="F218" s="18"/>
+      <c r="G218" s="18"/>
+      <c r="H218" s="18"/>
+      <c r="I218" s="18"/>
+      <c r="J218" s="18"/>
+      <c r="K218" s="18"/>
+      <c r="L218" s="18"/>
+      <c r="M218" s="18"/>
+      <c r="N218" s="18"/>
+    </row>
+    <row r="219" spans="1:14" s="20" customFormat="1">
+      <c r="A219" s="15"/>
+      <c r="B219" s="31"/>
+      <c r="C219" s="18"/>
+      <c r="D219" s="18"/>
+      <c r="E219" s="18"/>
+      <c r="F219" s="18"/>
+      <c r="G219" s="18"/>
+      <c r="H219" s="18"/>
+      <c r="I219" s="18"/>
+      <c r="J219" s="18"/>
+      <c r="K219" s="18"/>
+      <c r="L219" s="18"/>
+      <c r="M219" s="18"/>
+      <c r="N219" s="18"/>
+    </row>
+    <row r="220" spans="1:14" s="20" customFormat="1">
+      <c r="A220" s="15"/>
+      <c r="B220" s="31"/>
+      <c r="C220" s="18"/>
+      <c r="D220" s="18"/>
+      <c r="E220" s="18"/>
+      <c r="F220" s="18"/>
+      <c r="G220" s="18"/>
+      <c r="H220" s="18"/>
+      <c r="I220" s="18"/>
+      <c r="J220" s="18"/>
+      <c r="K220" s="18"/>
+      <c r="L220" s="18"/>
+      <c r="M220" s="18"/>
+      <c r="N220" s="18"/>
+    </row>
+    <row r="221" spans="1:14" s="20" customFormat="1">
+      <c r="A221" s="15"/>
+      <c r="B221" s="31"/>
+      <c r="C221" s="18"/>
+      <c r="D221" s="18"/>
+      <c r="E221" s="18"/>
+      <c r="F221" s="18"/>
+      <c r="G221" s="18"/>
+      <c r="H221" s="18"/>
+      <c r="I221" s="18"/>
+      <c r="J221" s="18"/>
+      <c r="K221" s="18"/>
+      <c r="L221" s="18"/>
+      <c r="M221" s="18"/>
+      <c r="N221" s="18"/>
+    </row>
+    <row r="222" spans="1:14" s="20" customFormat="1">
+      <c r="A222" s="15"/>
+      <c r="B222" s="31"/>
+      <c r="C222" s="18"/>
+      <c r="D222" s="18"/>
+      <c r="E222" s="18"/>
+      <c r="F222" s="18"/>
+      <c r="G222" s="18"/>
+      <c r="H222" s="18"/>
+      <c r="I222" s="18"/>
+      <c r="J222" s="18"/>
+      <c r="K222" s="18"/>
+      <c r="L222" s="18"/>
+      <c r="M222" s="18"/>
+      <c r="N222" s="18"/>
+    </row>
+    <row r="223" spans="1:14" s="20" customFormat="1">
+      <c r="A223" s="15"/>
+      <c r="B223" s="31"/>
+      <c r="C223" s="18"/>
+      <c r="D223" s="18"/>
+      <c r="E223" s="18"/>
+      <c r="F223" s="18"/>
+      <c r="G223" s="18"/>
+      <c r="H223" s="18"/>
+      <c r="I223" s="18"/>
+      <c r="J223" s="18"/>
+      <c r="K223" s="18"/>
+      <c r="L223" s="18"/>
+      <c r="M223" s="18"/>
+      <c r="N223" s="18"/>
+    </row>
+    <row r="224" spans="1:14" s="20" customFormat="1">
+      <c r="A224" s="15"/>
+      <c r="B224" s="31"/>
+      <c r="C224" s="18"/>
+      <c r="D224" s="18"/>
+      <c r="E224" s="18"/>
+      <c r="F224" s="18"/>
+      <c r="G224" s="18"/>
+      <c r="H224" s="18"/>
+      <c r="I224" s="18"/>
+      <c r="J224" s="18"/>
+      <c r="K224" s="18"/>
+      <c r="L224" s="18"/>
+      <c r="M224" s="18"/>
+      <c r="N224" s="18"/>
+    </row>
+    <row r="225" spans="1:14" s="20" customFormat="1">
+      <c r="A225" s="15"/>
+      <c r="B225" s="31"/>
+      <c r="C225" s="18"/>
+      <c r="D225" s="18"/>
+      <c r="E225" s="18"/>
+      <c r="F225" s="18"/>
+      <c r="G225" s="18"/>
+      <c r="H225" s="18"/>
+      <c r="I225" s="18"/>
+      <c r="J225" s="18"/>
+      <c r="K225" s="18"/>
+      <c r="L225" s="18"/>
+      <c r="M225" s="18"/>
+      <c r="N225" s="18"/>
+    </row>
+    <row r="226" spans="1:14" s="20" customFormat="1">
+      <c r="A226" s="15"/>
+      <c r="B226" s="31"/>
+      <c r="C226" s="18"/>
+      <c r="D226" s="18"/>
+      <c r="E226" s="18"/>
+      <c r="F226" s="18"/>
+      <c r="G226" s="18"/>
+      <c r="H226" s="18"/>
+      <c r="I226" s="18"/>
+      <c r="J226" s="18"/>
+      <c r="K226" s="18"/>
+      <c r="L226" s="18"/>
+      <c r="M226" s="18"/>
+      <c r="N226" s="18"/>
+    </row>
+    <row r="227" spans="1:14" s="20" customFormat="1">
+      <c r="A227" s="15"/>
+      <c r="B227" s="31"/>
+      <c r="C227" s="18"/>
+      <c r="D227" s="18"/>
+      <c r="E227" s="18"/>
+      <c r="F227" s="18"/>
+      <c r="G227" s="18"/>
+      <c r="H227" s="18"/>
+      <c r="I227" s="18"/>
+      <c r="J227" s="18"/>
+      <c r="K227" s="18"/>
+      <c r="L227" s="18"/>
+      <c r="M227" s="18"/>
+      <c r="N227" s="18"/>
+    </row>
+    <row r="228" spans="1:14" s="20" customFormat="1">
+      <c r="A228" s="15"/>
+      <c r="B228" s="31"/>
+      <c r="C228" s="18"/>
+      <c r="D228" s="18"/>
+      <c r="E228" s="18"/>
+      <c r="F228" s="18"/>
+      <c r="G228" s="18"/>
+      <c r="H228" s="18"/>
+      <c r="I228" s="18"/>
+      <c r="J228" s="18"/>
+      <c r="K228" s="18"/>
+      <c r="L228" s="18"/>
+      <c r="M228" s="18"/>
+      <c r="N228" s="18"/>
+    </row>
+    <row r="229" spans="1:14" s="20" customFormat="1">
+      <c r="A229" s="15"/>
+      <c r="B229" s="31"/>
+      <c r="C229" s="18"/>
+      <c r="D229" s="18"/>
+      <c r="E229" s="18"/>
+      <c r="F229" s="18"/>
+      <c r="G229" s="18"/>
+      <c r="H229" s="18"/>
+      <c r="I229" s="18"/>
+      <c r="J229" s="18"/>
+      <c r="K229" s="18"/>
+      <c r="L229" s="18"/>
+      <c r="M229" s="18"/>
+      <c r="N229" s="18"/>
+    </row>
+    <row r="230" spans="1:14" s="20" customFormat="1">
+      <c r="A230" s="15"/>
+      <c r="B230" s="31"/>
+      <c r="C230" s="18"/>
+      <c r="D230" s="18"/>
+      <c r="E230" s="18"/>
+      <c r="F230" s="18"/>
+      <c r="G230" s="18"/>
+      <c r="H230" s="18"/>
+      <c r="I230" s="18"/>
+      <c r="J230" s="18"/>
+      <c r="K230" s="18"/>
+      <c r="L230" s="18"/>
+      <c r="M230" s="18"/>
+      <c r="N230" s="18"/>
+    </row>
+    <row r="231" spans="1:14" s="20" customFormat="1">
+      <c r="A231" s="15"/>
+      <c r="B231" s="31"/>
+      <c r="C231" s="18"/>
+      <c r="D231" s="18"/>
+      <c r="E231" s="18"/>
+      <c r="F231" s="18"/>
+      <c r="G231" s="18"/>
+      <c r="H231" s="18"/>
+      <c r="I231" s="18"/>
+      <c r="J231" s="18"/>
+      <c r="K231" s="18"/>
+      <c r="L231" s="18"/>
+      <c r="M231" s="18"/>
+      <c r="N231" s="18"/>
+    </row>
+    <row r="232" spans="1:14" s="20" customFormat="1">
+      <c r="A232" s="15"/>
+      <c r="B232" s="31"/>
+      <c r="C232" s="18"/>
+      <c r="D232" s="18"/>
+      <c r="E232" s="18"/>
+      <c r="F232" s="18"/>
+      <c r="G232" s="18"/>
+      <c r="H232" s="18"/>
+      <c r="I232" s="18"/>
+      <c r="J232" s="18"/>
+      <c r="K232" s="18"/>
+      <c r="L232" s="18"/>
+      <c r="M232" s="18"/>
+      <c r="N232" s="18"/>
+    </row>
+    <row r="233" spans="1:14" s="20" customFormat="1">
+      <c r="A233" s="15"/>
+      <c r="B233" s="31"/>
+      <c r="C233" s="18"/>
+      <c r="D233" s="18"/>
+      <c r="E233" s="18"/>
+      <c r="F233" s="18"/>
+      <c r="G233" s="18"/>
+      <c r="H233" s="18"/>
+      <c r="I233" s="18"/>
+      <c r="J233" s="18"/>
+      <c r="K233" s="18"/>
+      <c r="L233" s="18"/>
+      <c r="M233" s="18"/>
+      <c r="N233" s="18"/>
+    </row>
+    <row r="234" spans="1:14" s="20" customFormat="1">
+      <c r="A234" s="15"/>
+      <c r="B234" s="31"/>
+      <c r="C234" s="18"/>
+      <c r="D234" s="18"/>
+      <c r="E234" s="18"/>
+      <c r="F234" s="18"/>
+      <c r="G234" s="18"/>
+      <c r="H234" s="18"/>
+      <c r="I234" s="18"/>
+      <c r="J234" s="18"/>
+      <c r="K234" s="18"/>
+      <c r="L234" s="18"/>
+      <c r="M234" s="18"/>
+      <c r="N234" s="18"/>
+    </row>
+    <row r="235" spans="1:14" s="20" customFormat="1">
+      <c r="A235" s="15"/>
+      <c r="B235" s="31"/>
+      <c r="C235" s="18"/>
+      <c r="D235" s="18"/>
+      <c r="E235" s="18"/>
+      <c r="F235" s="18"/>
+      <c r="G235" s="18"/>
+      <c r="H235" s="18"/>
+      <c r="I235" s="18"/>
+      <c r="J235" s="18"/>
+      <c r="K235" s="18"/>
+      <c r="L235" s="18"/>
+      <c r="M235" s="18"/>
+      <c r="N235" s="18"/>
+    </row>
+    <row r="236" spans="1:14" s="20" customFormat="1">
+      <c r="A236" s="15"/>
+      <c r="B236" s="31"/>
+      <c r="C236" s="18"/>
+      <c r="D236" s="18"/>
+      <c r="E236" s="18"/>
+      <c r="F236" s="18"/>
+      <c r="G236" s="18"/>
+      <c r="H236" s="18"/>
+      <c r="I236" s="18"/>
+      <c r="J236" s="18"/>
+      <c r="K236" s="18"/>
+      <c r="L236" s="18"/>
+      <c r="M236" s="18"/>
+      <c r="N236" s="18"/>
+    </row>
+    <row r="237" spans="1:14" s="20" customFormat="1">
+      <c r="A237" s="15"/>
+      <c r="B237" s="31"/>
+      <c r="C237" s="18"/>
+      <c r="D237" s="18"/>
+      <c r="E237" s="18"/>
+      <c r="F237" s="18"/>
+      <c r="G237" s="18"/>
+      <c r="H237" s="18"/>
+      <c r="I237" s="18"/>
+      <c r="J237" s="18"/>
+      <c r="K237" s="18"/>
+      <c r="L237" s="18"/>
+      <c r="M237" s="18"/>
+      <c r="N237" s="18"/>
+    </row>
+    <row r="238" spans="1:14" s="20" customFormat="1">
+      <c r="A238" s="15"/>
+      <c r="B238" s="31"/>
+      <c r="C238" s="18"/>
+      <c r="D238" s="18"/>
+      <c r="E238" s="18"/>
+      <c r="F238" s="18"/>
+      <c r="G238" s="18"/>
+      <c r="H238" s="18"/>
+      <c r="I238" s="18"/>
+      <c r="J238" s="18"/>
+      <c r="K238" s="18"/>
+      <c r="L238" s="18"/>
+      <c r="M238" s="18"/>
+      <c r="N238" s="18"/>
+    </row>
+    <row r="239" spans="1:14" s="20" customFormat="1">
+      <c r="A239" s="15"/>
+      <c r="B239" s="31"/>
+      <c r="C239" s="18"/>
+      <c r="D239" s="18"/>
+      <c r="E239" s="18"/>
+      <c r="F239" s="18"/>
+      <c r="G239" s="18"/>
+      <c r="H239" s="18"/>
+      <c r="I239" s="18"/>
+      <c r="J239" s="18"/>
+      <c r="K239" s="18"/>
+      <c r="L239" s="18"/>
+      <c r="M239" s="18"/>
+      <c r="N239" s="18"/>
+    </row>
+    <row r="240" spans="1:14" s="20" customFormat="1">
+      <c r="A240" s="15"/>
+      <c r="B240" s="31"/>
+      <c r="C240" s="18"/>
+      <c r="D240" s="18"/>
+      <c r="E240" s="18"/>
+      <c r="F240" s="18"/>
+      <c r="G240" s="18"/>
+      <c r="H240" s="18"/>
+      <c r="I240" s="18"/>
+      <c r="J240" s="18"/>
+      <c r="K240" s="18"/>
+      <c r="L240" s="18"/>
+      <c r="M240" s="18"/>
+      <c r="N240" s="18"/>
+    </row>
+    <row r="241" spans="1:14" s="20" customFormat="1">
+      <c r="A241" s="15"/>
+      <c r="B241" s="31"/>
+      <c r="C241" s="18"/>
+      <c r="D241" s="18"/>
+      <c r="E241" s="18"/>
+      <c r="F241" s="18"/>
+      <c r="G241" s="18"/>
+      <c r="H241" s="18"/>
+      <c r="I241" s="18"/>
+      <c r="J241" s="18"/>
+      <c r="K241" s="18"/>
+      <c r="L241" s="18"/>
+      <c r="M241" s="18"/>
+      <c r="N241" s="18"/>
+    </row>
+    <row r="242" spans="1:14" s="20" customFormat="1">
+      <c r="A242" s="15"/>
+      <c r="B242" s="31"/>
+      <c r="C242" s="18"/>
+      <c r="D242" s="18"/>
+      <c r="E242" s="18"/>
+      <c r="F242" s="18"/>
+      <c r="G242" s="18"/>
+      <c r="H242" s="18"/>
+      <c r="I242" s="18"/>
+      <c r="J242" s="18"/>
+      <c r="K242" s="18"/>
+      <c r="L242" s="18"/>
+      <c r="M242" s="18"/>
+      <c r="N242" s="18"/>
+    </row>
+    <row r="243" spans="1:14" s="20" customFormat="1">
+      <c r="A243" s="15"/>
+      <c r="B243" s="31"/>
+      <c r="C243" s="18"/>
+      <c r="D243" s="18"/>
+      <c r="E243" s="18"/>
+      <c r="F243" s="18"/>
+      <c r="G243" s="18"/>
+      <c r="H243" s="18"/>
+      <c r="I243" s="18"/>
+      <c r="J243" s="18"/>
+      <c r="K243" s="18"/>
+      <c r="L243" s="18"/>
+      <c r="M243" s="18"/>
+      <c r="N243" s="18"/>
+    </row>
+    <row r="244" spans="1:14" s="20" customFormat="1">
+      <c r="A244" s="15"/>
+      <c r="B244" s="31"/>
+      <c r="C244" s="18"/>
+      <c r="D244" s="18"/>
+      <c r="E244" s="18"/>
+      <c r="F244" s="18"/>
+      <c r="G244" s="18"/>
+      <c r="H244" s="18"/>
+      <c r="I244" s="18"/>
+      <c r="J244" s="18"/>
+      <c r="K244" s="18"/>
+      <c r="L244" s="18"/>
+      <c r="M244" s="18"/>
+      <c r="N244" s="18"/>
+    </row>
+    <row r="245" spans="1:14" s="20" customFormat="1">
+      <c r="A245" s="15"/>
+      <c r="B245" s="31"/>
+      <c r="C245" s="18"/>
+      <c r="D245" s="18"/>
+      <c r="E245" s="18"/>
+      <c r="F245" s="18"/>
+      <c r="G245" s="18"/>
+      <c r="H245" s="18"/>
+      <c r="I245" s="18"/>
+      <c r="J245" s="18"/>
+      <c r="K245" s="18"/>
+      <c r="L245" s="18"/>
+      <c r="M245" s="18"/>
+      <c r="N245" s="18"/>
+    </row>
+    <row r="246" spans="1:14" s="20" customFormat="1">
+      <c r="A246" s="15"/>
+      <c r="B246" s="31"/>
+      <c r="C246" s="18"/>
+      <c r="D246" s="18"/>
+      <c r="E246" s="18"/>
+      <c r="F246" s="18"/>
+      <c r="G246" s="18"/>
+      <c r="H246" s="18"/>
+      <c r="I246" s="18"/>
+      <c r="J246" s="18"/>
+      <c r="K246" s="18"/>
+      <c r="L246" s="18"/>
+      <c r="M246" s="18"/>
+      <c r="N246" s="18"/>
+    </row>
+    <row r="247" spans="1:14" s="20" customFormat="1">
+      <c r="A247" s="15"/>
+      <c r="B247" s="31"/>
+      <c r="C247" s="18"/>
+      <c r="D247" s="18"/>
+      <c r="E247" s="18"/>
+      <c r="F247" s="18"/>
+      <c r="G247" s="18"/>
+      <c r="H247" s="18"/>
+      <c r="I247" s="18"/>
+      <c r="J247" s="18"/>
+      <c r="K247" s="18"/>
+      <c r="L247" s="18"/>
+      <c r="M247" s="18"/>
+      <c r="N247" s="18"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M137" xr:uid="{FC53FE51-499F-455E-A7E6-F1D07BD2D00B}"/>
   <sortState ref="B15:M84">
     <sortCondition ref="B15:B84"/>
   </sortState>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="L91" r:id="rId1" tooltip="Go to external page" display="http://purl.obolibrary.org/obo/NCIT_C73529" xr:uid="{D7391F6B-F736-4C35-B8D3-8F13E41BCED8}"/>
     <hyperlink ref="L74" r:id="rId2" tooltip="Go to external page" display="http://purl.obolibrary.org/obo/NBO_0000616" xr:uid="{2E5C5EA4-D4F4-4BE3-A044-2FB4AA75159C}"/>
@@ -7475,14 +8451,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac97e7bc-1267-463a-8e0a-d8030d117d70">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fa734e6e-2dd8-4275-9b08-04e206339f53" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7729,27 +8703,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac97e7bc-1267-463a-8e0a-d8030d117d70">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fa734e6e-2dd8-4275-9b08-04e206339f53" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F0702E8-21BE-4DA6-837E-6A379E2F4D51}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD797B3C-3CB4-4831-98A4-10EC1DA89AE0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="fa734e6e-2dd8-4275-9b08-04e206339f53"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ac97e7bc-1267-463a-8e0a-d8030d117d70"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7774,9 +8741,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD797B3C-3CB4-4831-98A4-10EC1DA89AE0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F0702E8-21BE-4DA6-837E-6A379E2F4D51}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="fa734e6e-2dd8-4275-9b08-04e206339f53"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ac97e7bc-1267-463a-8e0a-d8030d117d70"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/StyleOfDelivery/BCIO_Style.xlsx
+++ b/StyleOfDelivery/BCIO_Style.xlsx
@@ -522,12 +522,12 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>BCIO:044002</t>
+          <t>BCIO:044009</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>BCI content communication process</t>
+          <t>active listening</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>communication process that transmits the content of a behaviour change intervention</t>
+          <t>Communication process involving one person paying close attention to what is said by another, asking questions and reflecting as needed, in an attempt to fully understand what has been said.</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
@@ -547,7 +547,12 @@
       <c r="I2" s="2" t="inlineStr"/>
       <c r="J2" s="2" t="inlineStr"/>
       <c r="K2" s="2" t="inlineStr"/>
-      <c r="L2" s="2" t="inlineStr"/>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Active listening http://ontology.apa.org/apaonto/termsonlyOUT (5).owl#Active_Listening
+</t>
+        </is>
+      </c>
       <c r="M2" s="2" t="inlineStr"/>
       <c r="N2" s="2" t="inlineStr"/>
       <c r="O2" s="2" t="inlineStr">
@@ -561,22 +566,22 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>BCIO:008000</t>
+          <t>BCIO:044079</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>BCI delivery</t>
+          <t>active participation encouraging communication style</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>communication style</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>part of a BCI that is the process by which BCI content is delivered</t>
+          <t>communication style marked by fostering  the involvement of the recipient as an engaged actor in the activity to be undertaken  rather than as a passive recipient</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr"/>
@@ -600,12 +605,12 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>BCIO:044009</t>
+          <t>BCIO:044010</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>active listening</t>
+          <t>affirming communication process</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -615,22 +620,25 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Communication process involving one person paying close attention to what is said by another, asking questions and reflecting as needed, in an attempt to fully understand what has been said.</t>
+          <t>communication process involving acknowledging another's strength or resilience in a given context or situation.</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="2" t="inlineStr"/>
       <c r="G4" s="2" t="inlineStr"/>
       <c r="H4" s="2" t="inlineStr"/>
-      <c r="I4" s="2" t="inlineStr"/>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>If a paper only mentions "affirmations" rather than "affirming communication", but is of a Motivational Interviewing intervention, then can code "affirmation" as an example of an affirming communication process.</t>
+        </is>
+      </c>
       <c r="J4" s="2" t="inlineStr"/>
-      <c r="K4" s="2" t="inlineStr"/>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Active listening http://ontology.apa.org/apaonto/termsonlyOUT (5).owl#Active_Listening
-</t>
-        </is>
-      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>Making explicit statements of partnership or support; Shows approval;</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr"/>
       <c r="M4" s="2" t="inlineStr"/>
       <c r="N4" s="2" t="inlineStr"/>
       <c r="O4" s="2" t="inlineStr">
@@ -644,28 +652,32 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>BCIO:044079</t>
+          <t>BCIO:044011</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>active participation encouraging communication style</t>
+          <t>agenda-sharing communication</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>communication style</t>
+          <t>communication</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>communication style marked by fostering  the involvement of the recipient as an engaged actor in the activity to be undertaken  rather than as a passive recipient</t>
+          <t>communication process in which the initiator and one or more activity participants  work  together to determine a focus for the activity to be undertaken</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr"/>
       <c r="F5" s="2" t="inlineStr"/>
       <c r="G5" s="2" t="inlineStr"/>
-      <c r="H5" s="2" t="inlineStr"/>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>agenda mapping</t>
+        </is>
+      </c>
       <c r="I5" s="2" t="inlineStr"/>
       <c r="J5" s="2" t="inlineStr"/>
       <c r="K5" s="2" t="inlineStr"/>
@@ -683,22 +695,22 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>BCIO:044010</t>
+          <t>BCIO:044080</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>affirming communication process</t>
+          <t>aloof communication style</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>communication</t>
+          <t>communication style</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>communication process involving acknowledging another's strength or resilience in a given context or situation.</t>
+          <t>communication style characterised by a lack of empathy or compassion for the recipient of the communication</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr"/>
@@ -707,15 +719,11 @@
       <c r="H6" s="2" t="inlineStr"/>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>If a paper only mentions "affirmations" rather than "affirming communication", but is of a Motivational Interviewing intervention, then can code "affirmation" as an example of an affirming communication process.</t>
+          <t>generally found as "avoid an aloof communication style"</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr"/>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>Making explicit statements of partnership or support; Shows approval;</t>
-        </is>
-      </c>
+      <c r="K6" s="2" t="inlineStr"/>
       <c r="L6" s="2" t="inlineStr"/>
       <c r="M6" s="2" t="inlineStr"/>
       <c r="N6" s="2" t="inlineStr"/>
@@ -730,33 +738,33 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>BCIO:044011</t>
+          <t>BCIO:044081</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>agenda-sharing communication</t>
+          <t>anxious communication style</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>communication</t>
+          <t>communication style</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>communication process in which the initiator and one or more activity participants  work  together to determine a focus for the activity to be undertaken</t>
+          <t>communication style characterised by nervousness or unease</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr"/>
       <c r="F7" s="2" t="inlineStr"/>
       <c r="G7" s="2" t="inlineStr"/>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>agenda mapping</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr"/>
+      <c r="H7" s="2" t="inlineStr"/>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>based on Roter Interactional Analysis System</t>
+        </is>
+      </c>
       <c r="J7" s="2" t="inlineStr"/>
       <c r="K7" s="2" t="inlineStr"/>
       <c r="L7" s="2" t="inlineStr"/>
@@ -773,12 +781,12 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>BCIO:044080</t>
+          <t>BCIO:044082</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>aloof communication style</t>
+          <t>articulate communication style</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -788,18 +796,18 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>communication style characterised by a lack of empathy or compassion for the recipient of the communication</t>
+          <t>communication style characterised by the initiator fluently using language to express ideas</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr"/>
       <c r="F8" s="2" t="inlineStr"/>
       <c r="G8" s="2" t="inlineStr"/>
-      <c r="H8" s="2" t="inlineStr"/>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>generally found as "avoid an aloof communication style"</t>
-        </is>
-      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> fluent</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr"/>
       <c r="J8" s="2" t="inlineStr"/>
       <c r="K8" s="2" t="inlineStr"/>
       <c r="L8" s="2" t="inlineStr"/>
@@ -816,33 +824,29 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>BCIO:044081</t>
+          <t>BCIO:044013</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>anxious communication style</t>
+          <t>asking closed-ended questions</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>communication style</t>
+          <t>asking questions</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>communication style characterised by nervousness or unease</t>
+          <t>communication process involving asking questions that can only be answered with a limited set of responses</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr"/>
       <c r="F9" s="2" t="inlineStr"/>
       <c r="G9" s="2" t="inlineStr"/>
       <c r="H9" s="2" t="inlineStr"/>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>based on Roter Interactional Analysis System</t>
-        </is>
-      </c>
+      <c r="I9" s="2" t="inlineStr"/>
       <c r="J9" s="2" t="inlineStr"/>
       <c r="K9" s="2" t="inlineStr"/>
       <c r="L9" s="2" t="inlineStr"/>
@@ -859,32 +863,28 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>BCIO:044082</t>
+          <t>BCIO:044014</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>articulate communication style</t>
+          <t>asking focused questions</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>communication style</t>
+          <t>asking questions</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>communication style characterised by the initiator fluently using language to express ideas</t>
+          <t>communication process involving asking questions designed to narrow discussion to focus on a particular aspect or topic</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr"/>
       <c r="F10" s="2" t="inlineStr"/>
       <c r="G10" s="2" t="inlineStr"/>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> fluent</t>
-        </is>
-      </c>
+      <c r="H10" s="2" t="inlineStr"/>
       <c r="I10" s="2" t="inlineStr"/>
       <c r="J10" s="2" t="inlineStr"/>
       <c r="K10" s="2" t="inlineStr"/>
@@ -902,12 +902,12 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>BCIO:044013</t>
+          <t>BCIO:044015</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>asking closed-ended questions</t>
+          <t>asking leading questions</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>communication process involving asking questions that can only be answered with a limited set of responses</t>
+          <t>communication process involving asking questions designed to prompt the questionee to answer in a specific, pre-determined manner</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr"/>
@@ -941,12 +941,12 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>BCIO:044014</t>
+          <t>BCIO:044016</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>asking focused questions</t>
+          <t>asking open-ended questions</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>communication process involving asking questions designed to narrow discussion to focus on a particular aspect or topic</t>
+          <t>communication process involving asking questions that cannot be answered with a simple yes or no, but instead require the questionee to elaborate on their points</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr"/>
@@ -980,22 +980,22 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>BCIO:044015</t>
+          <t>BCIO:044012</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>asking leading questions</t>
+          <t>asking questions</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>asking questions</t>
+          <t>communication</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>communication process involving asking questions designed to prompt the questionee to answer in a specific, pre-determined manner</t>
+          <t xml:space="preserve">Communication in which some participant requests information from another participant </t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr"/>
@@ -1019,31 +1019,39 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>BCIO:044016</t>
+          <t>BCIO:044083</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>asking open-ended questions</t>
+          <t>attentive communication style</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>asking questions</t>
+          <t>communication style</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>communication process involving asking questions that cannot be answered with a simple yes or no, but instead require the questionee to elaborate on their points</t>
+          <t>communication style characterised by purposeful consideration of another's statements</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr"/>
       <c r="F14" s="2" t="inlineStr"/>
       <c r="G14" s="2" t="inlineStr"/>
       <c r="H14" s="2" t="inlineStr"/>
-      <c r="I14" s="2" t="inlineStr"/>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>based on Roter Interactional Analysis System</t>
+        </is>
+      </c>
       <c r="J14" s="2" t="inlineStr"/>
-      <c r="K14" s="2" t="inlineStr"/>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>"listened carefully to what you had to say"</t>
+        </is>
+      </c>
       <c r="L14" s="2" t="inlineStr"/>
       <c r="M14" s="2" t="inlineStr"/>
       <c r="N14" s="2" t="inlineStr"/>
@@ -1058,29 +1066,33 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>BCIO:044012</t>
+          <t>BCIO:044084</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>asking questions</t>
+          <t>autonomy-supportive communication style</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>communication</t>
+          <t>communication style</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Communication in which some participant requests information from another participant </t>
+          <t>communication style which aims to promote the recipient's capacity to make their own decisions</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr"/>
       <c r="F15" s="2" t="inlineStr"/>
       <c r="G15" s="2" t="inlineStr"/>
       <c r="H15" s="2" t="inlineStr"/>
-      <c r="I15" s="2" t="inlineStr"/>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from Self-Determiniation Theory interventions. </t>
+        </is>
+      </c>
       <c r="J15" s="2" t="inlineStr"/>
       <c r="K15" s="2" t="inlineStr"/>
       <c r="L15" s="2" t="inlineStr"/>
@@ -1097,22 +1109,22 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>BCIO:044083</t>
+          <t>BCIO:044017</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>attentive communication style</t>
+          <t>banter</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>communication style</t>
+          <t>communication</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>communication style characterised by purposeful consideration of another's statements</t>
+          <t>communication process involving the exchange of light and apparently playful remarks</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr"/>
@@ -1121,15 +1133,11 @@
       <c r="H16" s="2" t="inlineStr"/>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>based on Roter Interactional Analysis System</t>
+          <t>banter may not always be perceived as playful by the subject of the remarks</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr"/>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>"listened carefully to what you had to say"</t>
-        </is>
-      </c>
+      <c r="K16" s="2" t="inlineStr"/>
       <c r="L16" s="2" t="inlineStr"/>
       <c r="M16" s="2" t="inlineStr"/>
       <c r="N16" s="2" t="inlineStr"/>
@@ -1144,38 +1152,38 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>BCIO:044084</t>
+          <t>BCIO:044002</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>autonomy-supportive communication style</t>
+          <t>behaviour change intervention content communication process</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>communication style</t>
+          <t>intervention content communication process</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>communication style which aims to promote the recipient's capacity to make their own decisions</t>
+          <t>communication process that transmits the content of a behaviour change intervention</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr"/>
       <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr"/>
       <c r="H17" s="2" t="inlineStr"/>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">from Self-Determiniation Theory interventions. </t>
-        </is>
-      </c>
+      <c r="I17" s="2" t="inlineStr"/>
       <c r="J17" s="2" t="inlineStr"/>
       <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr"/>
       <c r="M17" s="2" t="inlineStr"/>
-      <c r="N17" s="2" t="inlineStr"/>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -1187,38 +1195,38 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>BCIO:044017</t>
+          <t>BCIO:008000</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>banter</t>
+          <t>behaviour change intervention delivery</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>communication</t>
+          <t>intervention delivery</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>communication process involving the exchange of light and apparently playful remarks</t>
+          <t>part of a BCI that is the process by which BCI content is delivered</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr"/>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr"/>
       <c r="H18" s="2" t="inlineStr"/>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>banter may not always be perceived as playful by the subject of the remarks</t>
-        </is>
-      </c>
+      <c r="I18" s="2" t="inlineStr"/>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr"/>
       <c r="M18" s="2" t="inlineStr"/>
-      <c r="N18" s="2" t="inlineStr"/>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
